--- a/data/dogbreeddata.xlsx
+++ b/data/dogbreeddata.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AksV\Desktop\Coding\git_lessons\PawPal\pawpal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AksV\Desktop\Coding\git_lessons\PawPal\pawpal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A12781C5-7E04-45B9-A38B-3D8B7FA084AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04810B27-6789-4811-8292-ED5435F7B64D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dogbreeddata" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="562">
   <si>
     <t>BreedName</t>
   </si>
@@ -662,12 +661,6 @@
     <t>Affectionate, Companionable, Determined, Fun-loving, Independent, Lively, Intelligent</t>
   </si>
   <si>
-    <t>Dhole</t>
-  </si>
-  <si>
-    <t>Dingo</t>
-  </si>
-  <si>
     <t>Doberman Pinscher</t>
   </si>
   <si>
@@ -750,9 +743,6 @@
   </si>
   <si>
     <t>Agile, Devoted, Independent, Loyal, Self-confident</t>
-  </si>
-  <si>
-    <t>Eskimo Dog</t>
   </si>
   <si>
     <t>Feist</t>
@@ -1721,7 +1711,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2555,14 +2545,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N268"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5076,6 +5069,27 @@
       <c r="G61" t="s">
         <v>18</v>
       </c>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -5096,6 +5110,27 @@
       <c r="G62" t="s">
         <v>18</v>
       </c>
+      <c r="H62" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" t="s">
+        <v>33</v>
+      </c>
+      <c r="N62" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -5116,6 +5151,27 @@
       <c r="G63" t="s">
         <v>18</v>
       </c>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -5136,8 +5192,29 @@
       <c r="G64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>180</v>
       </c>
@@ -5156,8 +5233,29 @@
       <c r="G65" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -5176,8 +5274,29 @@
       <c r="G66" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>184</v>
       </c>
@@ -5196,8 +5315,29 @@
       <c r="G67" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" t="s">
+        <v>33</v>
+      </c>
+      <c r="N67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>185</v>
       </c>
@@ -5219,8 +5359,29 @@
       <c r="G68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" t="s">
+        <v>30</v>
+      </c>
+      <c r="N68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>188</v>
       </c>
@@ -5239,8 +5400,29 @@
       <c r="G69" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" t="s">
+        <v>33</v>
+      </c>
+      <c r="N69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -5262,8 +5444,29 @@
       <c r="G70" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M70" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -5282,8 +5485,29 @@
       <c r="G71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s">
+        <v>30</v>
+      </c>
+      <c r="J71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>195</v>
       </c>
@@ -5302,8 +5526,29 @@
       <c r="G72" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M72" t="s">
+        <v>33</v>
+      </c>
+      <c r="N72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -5322,8 +5567,29 @@
       <c r="G73" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" t="s">
+        <v>32</v>
+      </c>
+      <c r="M73" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>199</v>
       </c>
@@ -5342,8 +5608,29 @@
       <c r="G74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" t="s">
+        <v>33</v>
+      </c>
+      <c r="N74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>200</v>
       </c>
@@ -5362,8 +5649,29 @@
       <c r="G75" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" t="s">
+        <v>33</v>
+      </c>
+      <c r="N75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>202</v>
       </c>
@@ -5382,8 +5690,29 @@
       <c r="G76" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>204</v>
       </c>
@@ -5402,8 +5731,29 @@
       <c r="G77" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" t="s">
+        <v>33</v>
+      </c>
+      <c r="N77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>206</v>
       </c>
@@ -5422,8 +5772,29 @@
       <c r="G78" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>208</v>
       </c>
@@ -5442,8 +5813,29 @@
       <c r="G79" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" t="s">
+        <v>33</v>
+      </c>
+      <c r="N79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>210</v>
       </c>
@@ -5465,35 +5857,116 @@
       <c r="G80" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s">
+        <v>30</v>
+      </c>
+      <c r="J80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>213</v>
       </c>
+      <c r="B81" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
       <c r="E81">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="C82" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
       </c>
       <c r="E82">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J82" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" t="s">
+        <v>33</v>
+      </c>
+      <c r="N82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>215</v>
-      </c>
-      <c r="B83" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C83" t="s">
         <v>45</v>
@@ -5502,98 +5975,203 @@
         <v>46</v>
       </c>
       <c r="E83">
+        <v>60</v>
+      </c>
+      <c r="F83" t="s">
+        <v>219</v>
+      </c>
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J83" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" t="s">
+        <v>32</v>
+      </c>
+      <c r="M83" t="s">
+        <v>30</v>
+      </c>
+      <c r="N83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84">
+        <v>28</v>
+      </c>
+      <c r="F84" t="s">
+        <v>221</v>
+      </c>
+      <c r="G84" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" t="s">
         <v>43</v>
       </c>
-      <c r="F83" t="s">
-        <v>217</v>
-      </c>
-      <c r="G83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>218</v>
-      </c>
-      <c r="C84" t="s">
-        <v>45</v>
-      </c>
-      <c r="D84" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84">
-        <v>43</v>
-      </c>
-      <c r="F84" t="s">
-        <v>219</v>
-      </c>
-      <c r="G84" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>30</v>
+      </c>
+      <c r="J84" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" t="s">
+        <v>32</v>
+      </c>
+      <c r="M84" t="s">
+        <v>33</v>
+      </c>
+      <c r="N84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E85">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" t="s">
+        <v>30</v>
+      </c>
+      <c r="N85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E86">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G86" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" t="s">
+        <v>32</v>
+      </c>
+      <c r="M86" t="s">
+        <v>33</v>
+      </c>
+      <c r="N86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E87">
+        <v>26</v>
+      </c>
+      <c r="F87" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J87" t="s">
+        <v>21</v>
+      </c>
+      <c r="K87" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" t="s">
+        <v>32</v>
+      </c>
+      <c r="M87" t="s">
+        <v>33</v>
+      </c>
+      <c r="N87" t="s">
         <v>25</v>
       </c>
-      <c r="F87" t="s">
-        <v>225</v>
-      </c>
-      <c r="G87" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -5602,58 +6180,121 @@
         <v>65</v>
       </c>
       <c r="E88">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F88" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G88" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" t="s">
+        <v>32</v>
+      </c>
+      <c r="M88" t="s">
+        <v>33</v>
+      </c>
+      <c r="N88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C89" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E89">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" t="s">
+        <v>33</v>
+      </c>
+      <c r="J89" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" t="s">
+        <v>32</v>
+      </c>
+      <c r="M89" t="s">
+        <v>33</v>
+      </c>
+      <c r="N89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E90">
         <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G90" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I90" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M90" t="s">
+        <v>33</v>
+      </c>
+      <c r="N90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -5662,412 +6303,622 @@
         <v>65</v>
       </c>
       <c r="E91">
+        <v>23</v>
+      </c>
+      <c r="F91" t="s">
+        <v>235</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I91" t="s">
         <v>30</v>
       </c>
-      <c r="F91" t="s">
-        <v>233</v>
-      </c>
-      <c r="G91" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J91" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" t="s">
+        <v>32</v>
+      </c>
+      <c r="M91" t="s">
+        <v>33</v>
+      </c>
+      <c r="N91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>234</v>
+        <v>236</v>
+      </c>
+      <c r="B92" t="s">
+        <v>237</v>
       </c>
       <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>238</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" t="s">
+        <v>32</v>
+      </c>
+      <c r="M92" t="s">
+        <v>24</v>
+      </c>
+      <c r="N92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" t="s">
         <v>49</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93">
+        <v>27</v>
+      </c>
+      <c r="F93" t="s">
+        <v>240</v>
+      </c>
+      <c r="G93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" t="s">
+        <v>38</v>
+      </c>
+      <c r="I93" t="s">
+        <v>33</v>
+      </c>
+      <c r="J93" t="s">
+        <v>21</v>
+      </c>
+      <c r="K93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" t="s">
+        <v>20</v>
+      </c>
+      <c r="M93" t="s">
+        <v>33</v>
+      </c>
+      <c r="N93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>241</v>
+      </c>
+      <c r="C94" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>242</v>
+      </c>
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" t="s">
+        <v>43</v>
+      </c>
+      <c r="I94" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s">
+        <v>21</v>
+      </c>
+      <c r="K94" t="s">
+        <v>22</v>
+      </c>
+      <c r="L94" t="s">
+        <v>32</v>
+      </c>
+      <c r="M94" t="s">
+        <v>33</v>
+      </c>
+      <c r="N94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>243</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95">
+        <v>19</v>
+      </c>
+      <c r="F95" t="s">
+        <v>244</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" t="s">
+        <v>30</v>
+      </c>
+      <c r="J95" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" t="s">
+        <v>31</v>
+      </c>
+      <c r="L95" t="s">
+        <v>32</v>
+      </c>
+      <c r="M95" t="s">
+        <v>33</v>
+      </c>
+      <c r="N95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96">
+        <v>46</v>
+      </c>
+      <c r="F96" t="s">
+        <v>246</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s">
+        <v>38</v>
+      </c>
+      <c r="I96" t="s">
+        <v>33</v>
+      </c>
+      <c r="J96" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" t="s">
+        <v>32</v>
+      </c>
+      <c r="M96" t="s">
+        <v>24</v>
+      </c>
+      <c r="N96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" t="s">
         <v>49</v>
       </c>
-      <c r="E92">
+      <c r="D97" t="s">
+        <v>53</v>
+      </c>
+      <c r="E97">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s">
+        <v>248</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" t="s">
+        <v>31</v>
+      </c>
+      <c r="L97" t="s">
+        <v>32</v>
+      </c>
+      <c r="M97" t="s">
+        <v>33</v>
+      </c>
+      <c r="N97" t="s">
         <v>25</v>
       </c>
-      <c r="F92" t="s">
-        <v>235</v>
-      </c>
-      <c r="G92" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>236</v>
-      </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" t="s">
+        <v>53</v>
+      </c>
+      <c r="E98">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>250</v>
+      </c>
+      <c r="G98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" t="s">
+        <v>43</v>
+      </c>
+      <c r="I98" t="s">
+        <v>33</v>
+      </c>
+      <c r="J98" t="s">
+        <v>21</v>
+      </c>
+      <c r="K98" t="s">
+        <v>31</v>
+      </c>
+      <c r="L98" t="s">
+        <v>32</v>
+      </c>
+      <c r="M98" t="s">
+        <v>33</v>
+      </c>
+      <c r="N98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>251</v>
+      </c>
+      <c r="C99" t="s">
         <v>27</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D99" t="s">
         <v>65</v>
       </c>
-      <c r="E93">
-        <v>23</v>
-      </c>
-      <c r="F93" t="s">
-        <v>237</v>
-      </c>
-      <c r="G93" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>238</v>
-      </c>
-      <c r="B94" t="s">
-        <v>239</v>
-      </c>
-      <c r="C94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E99">
+        <v>30</v>
+      </c>
+      <c r="F99" t="s">
+        <v>252</v>
+      </c>
+      <c r="G99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" t="s">
+        <v>38</v>
+      </c>
+      <c r="I99" t="s">
+        <v>33</v>
+      </c>
+      <c r="J99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99" t="s">
+        <v>32</v>
+      </c>
+      <c r="M99" t="s">
+        <v>33</v>
+      </c>
+      <c r="N99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" t="s">
+        <v>41</v>
+      </c>
+      <c r="E100">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>254</v>
+      </c>
+      <c r="G100" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" t="s">
+        <v>43</v>
+      </c>
+      <c r="I100" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" t="s">
+        <v>20</v>
+      </c>
+      <c r="M100" t="s">
+        <v>33</v>
+      </c>
+      <c r="N100" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s">
+        <v>256</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" t="s">
         <v>16</v>
       </c>
-      <c r="E94">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>240</v>
-      </c>
-      <c r="G94" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>241</v>
-      </c>
-      <c r="C95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" t="s">
-        <v>46</v>
-      </c>
-      <c r="E95">
-        <v>27</v>
-      </c>
-      <c r="F95" t="s">
-        <v>242</v>
-      </c>
-      <c r="G95" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>243</v>
-      </c>
-      <c r="C96" t="s">
-        <v>58</v>
-      </c>
-      <c r="D96" t="s">
-        <v>53</v>
-      </c>
-      <c r="E96">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>59</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>244</v>
-      </c>
-      <c r="C97" t="s">
-        <v>41</v>
-      </c>
-      <c r="D97" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97">
-        <v>15</v>
-      </c>
-      <c r="F97" t="s">
-        <v>245</v>
-      </c>
-      <c r="G97" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>246</v>
-      </c>
-      <c r="C98" t="s">
-        <v>27</v>
-      </c>
-      <c r="D98" t="s">
-        <v>65</v>
-      </c>
-      <c r="E98">
-        <v>19</v>
-      </c>
-      <c r="F98" t="s">
-        <v>247</v>
-      </c>
-      <c r="G98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>248</v>
-      </c>
-      <c r="C99" t="s">
-        <v>45</v>
-      </c>
-      <c r="D99" t="s">
-        <v>46</v>
-      </c>
-      <c r="E99">
-        <v>46</v>
-      </c>
-      <c r="F99" t="s">
-        <v>249</v>
-      </c>
-      <c r="G99" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>250</v>
-      </c>
-      <c r="C100" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" t="s">
-        <v>53</v>
-      </c>
-      <c r="E100">
-        <v>18</v>
-      </c>
-      <c r="F100" t="s">
-        <v>251</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>252</v>
-      </c>
-      <c r="C101" t="s">
-        <v>58</v>
-      </c>
-      <c r="D101" t="s">
-        <v>53</v>
-      </c>
-      <c r="E101">
-        <v>15</v>
-      </c>
-      <c r="F101" t="s">
-        <v>253</v>
-      </c>
-      <c r="G101" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>254</v>
-      </c>
-      <c r="C102" t="s">
-        <v>27</v>
-      </c>
-      <c r="D102" t="s">
-        <v>65</v>
-      </c>
       <c r="E102">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G102" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>256</v>
-      </c>
-      <c r="C103" t="s">
-        <v>41</v>
-      </c>
-      <c r="D103" t="s">
-        <v>41</v>
-      </c>
-      <c r="E103">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>257</v>
-      </c>
-      <c r="G103" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C104" t="s">
         <v>84</v>
       </c>
       <c r="D104" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="E104">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F104" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G104" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C105" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>263</v>
+      </c>
+      <c r="G105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>264</v>
+      </c>
+      <c r="B106" t="s">
+        <v>265</v>
+      </c>
+      <c r="C106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106">
+        <v>35</v>
+      </c>
+      <c r="F106" t="s">
+        <v>266</v>
+      </c>
+      <c r="G106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>267</v>
+      </c>
+      <c r="B107" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107" t="s">
+        <v>65</v>
+      </c>
+      <c r="E107">
+        <v>29</v>
+      </c>
+      <c r="F107" t="s">
+        <v>269</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>270</v>
+      </c>
+      <c r="C108" t="s">
         <v>58</v>
       </c>
-      <c r="D105" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105">
-        <v>12</v>
-      </c>
-      <c r="F105" t="s">
-        <v>261</v>
-      </c>
-      <c r="G105" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>263</v>
-      </c>
-      <c r="C107" t="s">
-        <v>84</v>
-      </c>
-      <c r="D107" t="s">
-        <v>28</v>
-      </c>
-      <c r="E107">
-        <v>25</v>
-      </c>
-      <c r="F107" t="s">
-        <v>264</v>
-      </c>
-      <c r="G107" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>265</v>
-      </c>
-      <c r="C108" t="s">
-        <v>45</v>
-      </c>
       <c r="D108" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E108">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>266</v>
+        <v>59</v>
       </c>
       <c r="G108" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>267</v>
-      </c>
-      <c r="B109" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C109" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E109">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G109" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>270</v>
-      </c>
-      <c r="B110" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C110" t="s">
         <v>45</v>
       </c>
       <c r="D110" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E110">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G110" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C111" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E111">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F111" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="G111" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -6076,30 +6927,30 @@
         <v>65</v>
       </c>
       <c r="E112">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G112" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C113" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E113">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F113" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G113" t="s">
         <v>21</v>
@@ -6107,59 +6958,59 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C114" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D114" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E114">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F114" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G114" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D115" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E115">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G115" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D116" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E116">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F116" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G116" t="s">
         <v>21</v>
@@ -6167,79 +7018,49 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C117" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D117" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E117">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G117" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>286</v>
-      </c>
-      <c r="C118" t="s">
-        <v>45</v>
-      </c>
-      <c r="D118" t="s">
-        <v>46</v>
-      </c>
-      <c r="E118">
-        <v>45</v>
-      </c>
-      <c r="F118" t="s">
-        <v>287</v>
-      </c>
-      <c r="G118" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>288</v>
-      </c>
-      <c r="C119" t="s">
-        <v>45</v>
-      </c>
-      <c r="D119" t="s">
-        <v>46</v>
-      </c>
-      <c r="E119">
-        <v>60</v>
-      </c>
-      <c r="F119" t="s">
-        <v>289</v>
-      </c>
-      <c r="G119" t="s">
-        <v>21</v>
+        <v>290</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C120" t="s">
         <v>84</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E120">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G120" t="s">
         <v>18</v>
@@ -6247,49 +7068,79 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>294</v>
+      </c>
+      <c r="G121" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>293</v>
+        <v>84</v>
+      </c>
+      <c r="C122" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122">
+        <v>32</v>
+      </c>
+      <c r="F122" t="s">
+        <v>256</v>
+      </c>
+      <c r="G122" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C123" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D123" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E123">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G123" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E124">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F124" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G124" t="s">
         <v>18</v>
@@ -6297,19 +7148,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="C125" t="s">
         <v>84</v>
       </c>
       <c r="D125" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="E125">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="G125" t="s">
         <v>18</v>
@@ -6317,19 +7168,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C126" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D126" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E126">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G126" t="s">
         <v>21</v>
@@ -6337,97 +7188,97 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>300</v>
-      </c>
-      <c r="C127" t="s">
-        <v>45</v>
-      </c>
-      <c r="D127" t="s">
-        <v>53</v>
-      </c>
-      <c r="E127">
-        <v>24</v>
-      </c>
-      <c r="F127" t="s">
-        <v>301</v>
-      </c>
-      <c r="G127" t="s">
-        <v>18</v>
+        <v>303</v>
+      </c>
+      <c r="B127" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>302</v>
-      </c>
-      <c r="C128" t="s">
-        <v>84</v>
-      </c>
-      <c r="D128" t="s">
-        <v>28</v>
-      </c>
-      <c r="E128">
-        <v>22</v>
-      </c>
-      <c r="F128" t="s">
-        <v>303</v>
-      </c>
-      <c r="G128" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>304</v>
-      </c>
-      <c r="C129" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" t="s">
-        <v>49</v>
-      </c>
-      <c r="E129">
-        <v>40</v>
-      </c>
-      <c r="F129" t="s">
-        <v>305</v>
-      </c>
-      <c r="G129" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>306</v>
-      </c>
-      <c r="B130" t="s">
         <v>307</v>
+      </c>
+      <c r="C130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" t="s">
+        <v>65</v>
+      </c>
+      <c r="E130">
+        <v>32</v>
+      </c>
+      <c r="F130" t="s">
+        <v>308</v>
+      </c>
+      <c r="G130" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="C131" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" t="s">
+        <v>41</v>
+      </c>
+      <c r="E131">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>310</v>
+      </c>
+      <c r="G131" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" t="s">
+        <v>65</v>
+      </c>
+      <c r="E132">
+        <v>25</v>
+      </c>
+      <c r="F132" t="s">
+        <v>312</v>
+      </c>
+      <c r="G132" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D133" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E133">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F133" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G133" t="s">
         <v>18</v>
@@ -6435,27 +7286,27 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C134" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E134">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F134" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G134" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -6464,10 +7315,10 @@
         <v>65</v>
       </c>
       <c r="E135">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G135" t="s">
         <v>18</v>
@@ -6475,39 +7326,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C136" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D136" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E136">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="F136" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G136" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E137">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F137" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G137" t="s">
         <v>18</v>
@@ -6515,19 +7366,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>320</v>
+        <v>323</v>
+      </c>
+      <c r="B138" t="s">
+        <v>324</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E138">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F138" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G138" t="s">
         <v>18</v>
@@ -6535,19 +7389,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C139" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D139" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E139">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F139" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G139" t="s">
         <v>21</v>
@@ -6555,75 +7409,60 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>324</v>
-      </c>
-      <c r="C140" t="s">
-        <v>41</v>
-      </c>
-      <c r="D140" t="s">
-        <v>41</v>
-      </c>
-      <c r="E140">
-        <v>7</v>
-      </c>
-      <c r="F140" t="s">
-        <v>325</v>
-      </c>
-      <c r="G140" t="s">
-        <v>18</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>326</v>
-      </c>
-      <c r="B141" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E141">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F141" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G141" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>329</v>
-      </c>
-      <c r="C142" t="s">
-        <v>27</v>
-      </c>
-      <c r="D142" t="s">
-        <v>53</v>
-      </c>
-      <c r="E142">
-        <v>20</v>
-      </c>
-      <c r="F142" t="s">
-        <v>330</v>
-      </c>
-      <c r="G142" t="s">
-        <v>21</v>
+        <v>331</v>
+      </c>
+      <c r="B142" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>331</v>
+        <v>333</v>
+      </c>
+      <c r="C143" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" t="s">
+        <v>53</v>
+      </c>
+      <c r="E143">
+        <v>22</v>
+      </c>
+      <c r="F143" t="s">
+        <v>334</v>
+      </c>
+      <c r="G143" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C144" t="s">
         <v>58</v>
@@ -6635,7 +7474,7 @@
         <v>18</v>
       </c>
       <c r="F144" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G144" t="s">
         <v>21</v>
@@ -6643,15 +7482,27 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>334</v>
-      </c>
-      <c r="B145" t="s">
-        <v>335</v>
+        <v>337</v>
+      </c>
+      <c r="C145" t="s">
+        <v>41</v>
+      </c>
+      <c r="D145" t="s">
+        <v>41</v>
+      </c>
+      <c r="E145">
+        <v>17</v>
+      </c>
+      <c r="F145" t="s">
+        <v>338</v>
+      </c>
+      <c r="G145" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
@@ -6660,10 +7511,10 @@
         <v>53</v>
       </c>
       <c r="E146">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F146" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G146" t="s">
         <v>21</v>
@@ -6671,7 +7522,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C147" t="s">
         <v>58</v>
@@ -6680,10 +7531,10 @@
         <v>53</v>
       </c>
       <c r="E147">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F147" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G147" t="s">
         <v>21</v>
@@ -6691,39 +7542,27 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>340</v>
-      </c>
-      <c r="C148" t="s">
-        <v>41</v>
-      </c>
-      <c r="D148" t="s">
-        <v>41</v>
-      </c>
-      <c r="E148">
-        <v>17</v>
-      </c>
-      <c r="F148" t="s">
-        <v>341</v>
-      </c>
-      <c r="G148" t="s">
-        <v>21</v>
+        <v>343</v>
+      </c>
+      <c r="B148" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D149" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E149">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F149" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G149" t="s">
         <v>21</v>
@@ -6731,19 +7570,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>344</v>
-      </c>
-      <c r="C150" t="s">
-        <v>58</v>
-      </c>
-      <c r="D150" t="s">
-        <v>53</v>
-      </c>
-      <c r="E150">
-        <v>7</v>
-      </c>
-      <c r="F150" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G150" t="s">
         <v>21</v>
@@ -6751,75 +7578,99 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>346</v>
-      </c>
-      <c r="B151" t="s">
-        <v>347</v>
+        <v>348</v>
+      </c>
+      <c r="C151" t="s">
+        <v>45</v>
+      </c>
+      <c r="D151" t="s">
+        <v>46</v>
+      </c>
+      <c r="E151">
+        <v>49</v>
+      </c>
+      <c r="F151" t="s">
+        <v>349</v>
+      </c>
+      <c r="G151" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C152" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D152" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E152">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="F152" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G152" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>350</v>
+        <v>352</v>
+      </c>
+      <c r="C153" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" t="s">
+        <v>65</v>
+      </c>
+      <c r="E153">
+        <v>32</v>
+      </c>
+      <c r="F153" t="s">
+        <v>114</v>
       </c>
       <c r="G153" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C154" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D154" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E154">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="F154" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G154" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C155" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E155">
         <v>5</v>
       </c>
       <c r="F155" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G155" t="s">
         <v>18</v>
@@ -6827,39 +7678,39 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D156" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E156">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F156" t="s">
-        <v>114</v>
+        <v>358</v>
       </c>
       <c r="G156" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C157" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D157" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E157">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F157" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G157" t="s">
         <v>18</v>
@@ -6867,19 +7718,19 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C158" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D158" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E158">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F158" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G158" t="s">
         <v>18</v>
@@ -6887,39 +7738,27 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>360</v>
-      </c>
-      <c r="C159" t="s">
-        <v>45</v>
-      </c>
-      <c r="D159" t="s">
-        <v>46</v>
-      </c>
-      <c r="E159">
-        <v>64</v>
-      </c>
-      <c r="F159" t="s">
-        <v>361</v>
-      </c>
-      <c r="G159" t="s">
-        <v>21</v>
+        <v>363</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="B160" t="s">
+        <v>365</v>
       </c>
       <c r="C160" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
         <v>16</v>
       </c>
       <c r="E160">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F160" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G160" t="s">
         <v>18</v>
@@ -6927,19 +7766,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C161" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D161" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E161">
         <v>6</v>
       </c>
       <c r="F161" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G161" t="s">
         <v>18</v>
@@ -6947,47 +7786,59 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="C162" t="s">
+        <v>45</v>
+      </c>
+      <c r="D162" t="s">
+        <v>46</v>
+      </c>
+      <c r="E162">
+        <v>38</v>
+      </c>
+      <c r="F162" t="s">
+        <v>370</v>
+      </c>
+      <c r="G162" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>367</v>
-      </c>
-      <c r="B163" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D163" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E163">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="F163" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G163" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C164" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D164" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E164">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G164" t="s">
         <v>18</v>
@@ -6995,39 +7846,39 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C165" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E165">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F165" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G165" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C166" t="s">
         <v>45</v>
       </c>
       <c r="D166" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E166">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F166" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G166" t="s">
         <v>21</v>
@@ -7035,67 +7886,52 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C167" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E167">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F167" t="s">
-        <v>377</v>
+        <v>108</v>
       </c>
       <c r="G167" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>378</v>
-      </c>
-      <c r="C168" t="s">
-        <v>15</v>
-      </c>
-      <c r="D168" t="s">
-        <v>16</v>
-      </c>
-      <c r="E168">
-        <v>5</v>
-      </c>
-      <c r="F168" t="s">
-        <v>379</v>
-      </c>
-      <c r="G168" t="s">
-        <v>18</v>
+        <v>380</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C169" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D169" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E169">
         <v>20</v>
       </c>
       <c r="F169" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G169" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C170" t="s">
         <v>45</v>
@@ -7104,10 +7940,10 @@
         <v>46</v>
       </c>
       <c r="E170">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F170" t="s">
-        <v>108</v>
+        <v>384</v>
       </c>
       <c r="G170" t="s">
         <v>21</v>
@@ -7115,87 +7951,102 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>383</v>
+        <v>385</v>
+      </c>
+      <c r="C171" t="s">
+        <v>386</v>
+      </c>
+      <c r="D171" t="s">
+        <v>386</v>
+      </c>
+      <c r="E171">
+        <v>11</v>
+      </c>
+      <c r="F171" t="s">
+        <v>387</v>
+      </c>
+      <c r="G171" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>384</v>
+        <v>388</v>
+      </c>
+      <c r="B172" t="s">
+        <v>389</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D172" t="s">
+        <v>46</v>
+      </c>
+      <c r="E172">
         <v>65</v>
       </c>
-      <c r="E172">
-        <v>20</v>
-      </c>
       <c r="F172" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G172" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C173" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D173" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E173">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F173" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G173" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C174" t="s">
-        <v>389</v>
+        <v>49</v>
       </c>
       <c r="D174" t="s">
-        <v>389</v>
+        <v>53</v>
       </c>
       <c r="E174">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F174" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G174" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>391</v>
-      </c>
-      <c r="B175" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C175" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D175" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E175">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F175" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G175" t="s">
         <v>21</v>
@@ -7203,59 +8054,59 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D176" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E176">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F176" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G176" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C177" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D177" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E177">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F177" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G177" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C178" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D178" t="s">
-        <v>53</v>
+        <v>402</v>
       </c>
       <c r="E178">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F178" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G178" t="s">
         <v>21</v>
@@ -7263,19 +8114,19 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C179" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D179" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E179">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F179" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G179" t="s">
         <v>21</v>
@@ -7283,19 +8134,19 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C180" t="s">
+        <v>84</v>
+      </c>
+      <c r="D180" t="s">
+        <v>88</v>
+      </c>
+      <c r="E180">
         <v>41</v>
       </c>
-      <c r="D180" t="s">
-        <v>41</v>
-      </c>
-      <c r="E180">
-        <v>5</v>
-      </c>
       <c r="F180" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G180" t="s">
         <v>18</v>
@@ -7303,19 +8154,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>404</v>
-      </c>
-      <c r="C181" t="s">
-        <v>27</v>
-      </c>
-      <c r="D181" t="s">
-        <v>405</v>
-      </c>
-      <c r="E181">
-        <v>20</v>
-      </c>
-      <c r="F181" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G181" t="s">
         <v>21</v>
@@ -7323,39 +8162,39 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C182" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D182" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E182">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="F182" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G182" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C183" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D183" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E183">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F183" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G183" t="s">
         <v>18</v>
@@ -7363,47 +8202,59 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>411</v>
+        <v>413</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+      <c r="F184" t="s">
+        <v>414</v>
       </c>
       <c r="G184" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C185" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D185" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E185">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G185" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C186" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D186" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E186">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F186" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G186" t="s">
         <v>18</v>
@@ -7411,19 +8262,19 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C187" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D187" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E187">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F187" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G187" t="s">
         <v>18</v>
@@ -7431,27 +8282,27 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C188" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D188" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E188">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F188" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G188" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C189" t="s">
         <v>84</v>
@@ -7460,10 +8311,10 @@
         <v>88</v>
       </c>
       <c r="E189">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F189" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G189" t="s">
         <v>18</v>
@@ -7471,7 +8322,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C190" t="s">
         <v>84</v>
@@ -7480,10 +8331,10 @@
         <v>28</v>
       </c>
       <c r="E190">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F190" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G190" t="s">
         <v>18</v>
@@ -7491,59 +8342,59 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C191" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D191" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E191">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F191" t="s">
-        <v>425</v>
+        <v>229</v>
       </c>
       <c r="G191" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C192" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D192" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="E192">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F192" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G192" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C193" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E193">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F193" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G193" t="s">
         <v>18</v>
@@ -7551,19 +8402,19 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D194" t="s">
         <v>65</v>
       </c>
       <c r="E194">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F194" t="s">
-        <v>231</v>
+        <v>433</v>
       </c>
       <c r="G194" t="s">
         <v>21</v>
@@ -7571,19 +8422,19 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C195" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D195" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E195">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F195" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G195" t="s">
         <v>21</v>
@@ -7591,7 +8442,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C196" t="s">
         <v>15</v>
@@ -7600,30 +8451,30 @@
         <v>16</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F196" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G196" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C197" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E197">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F197" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G197" t="s">
         <v>21</v>
@@ -7634,16 +8485,16 @@
         <v>437</v>
       </c>
       <c r="C198" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D198" t="s">
         <v>65</v>
       </c>
       <c r="E198">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F198" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G198" t="s">
         <v>21</v>
@@ -7651,19 +8502,19 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C199" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E199">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F199" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G199" t="s">
         <v>21</v>
@@ -7671,7 +8522,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C200" t="s">
         <v>15</v>
@@ -7680,30 +8531,30 @@
         <v>16</v>
       </c>
       <c r="E200">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F200" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G200" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C201" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D201" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E201">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G201" t="s">
         <v>21</v>
@@ -7711,59 +8562,35 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C202" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D202" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E202">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F202" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G202" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>444</v>
-      </c>
-      <c r="C203" t="s">
-        <v>15</v>
-      </c>
-      <c r="D203" t="s">
-        <v>16</v>
-      </c>
-      <c r="E203">
-        <v>8</v>
-      </c>
-      <c r="F203" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G203" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>446</v>
-      </c>
-      <c r="C204" t="s">
-        <v>49</v>
-      </c>
-      <c r="D204" t="s">
-        <v>49</v>
-      </c>
-      <c r="E204">
-        <v>14</v>
-      </c>
-      <c r="F204" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G204" t="s">
         <v>21</v>
@@ -7771,19 +8598,19 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C205" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D205" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E205">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G205" t="s">
         <v>18</v>
@@ -7791,35 +8618,62 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="B206" t="s">
+        <v>452</v>
+      </c>
+      <c r="C206" t="s">
+        <v>84</v>
+      </c>
+      <c r="D206" t="s">
+        <v>88</v>
+      </c>
+      <c r="E206">
+        <v>28</v>
+      </c>
+      <c r="F206" t="s">
+        <v>453</v>
       </c>
       <c r="G206" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>451</v>
+        <v>454</v>
+      </c>
+      <c r="C207" t="s">
+        <v>27</v>
+      </c>
+      <c r="D207" t="s">
+        <v>65</v>
+      </c>
+      <c r="E207">
+        <v>32</v>
+      </c>
+      <c r="F207" t="s">
+        <v>278</v>
       </c>
       <c r="G207" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C208" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D208" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E208">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F208" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G208" t="s">
         <v>18</v>
@@ -7827,42 +8681,39 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>454</v>
-      </c>
-      <c r="B209" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C209" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D209" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E209">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F209" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G209" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D210" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E210">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F210" t="s">
-        <v>281</v>
+        <v>460</v>
       </c>
       <c r="G210" t="s">
         <v>18</v>
@@ -7870,7 +8721,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C211" t="s">
         <v>84</v>
@@ -7879,10 +8730,10 @@
         <v>28</v>
       </c>
       <c r="E211">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F211" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G211" t="s">
         <v>18</v>
@@ -7890,19 +8741,19 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C212" t="s">
         <v>45</v>
       </c>
       <c r="D212" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E212">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F212" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G212" t="s">
         <v>21</v>
@@ -7910,7 +8761,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C213" t="s">
         <v>45</v>
@@ -7919,30 +8770,30 @@
         <v>46</v>
       </c>
       <c r="E213">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F213" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G213" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C214" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D214" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E214">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F214" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G214" t="s">
         <v>18</v>
@@ -7950,39 +8801,42 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C215" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D215" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E215">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F215" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G215" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>468</v>
+        <v>471</v>
+      </c>
+      <c r="B216" t="s">
+        <v>472</v>
       </c>
       <c r="C216" t="s">
         <v>45</v>
       </c>
       <c r="D216" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E216">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F216" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G216" t="s">
         <v>21</v>
@@ -7990,39 +8844,39 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
+        <v>273</v>
+      </c>
+      <c r="C217" t="s">
+        <v>45</v>
+      </c>
+      <c r="D217" t="s">
+        <v>49</v>
+      </c>
+      <c r="E217">
+        <v>31</v>
+      </c>
+      <c r="F217" t="s">
         <v>470</v>
       </c>
-      <c r="C217" t="s">
-        <v>58</v>
-      </c>
-      <c r="D217" t="s">
-        <v>16</v>
-      </c>
-      <c r="E217">
-        <v>7</v>
-      </c>
-      <c r="F217" t="s">
-        <v>471</v>
-      </c>
       <c r="G217" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C218" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E218">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F218" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G218" t="s">
         <v>18</v>
@@ -8030,62 +8884,62 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B219" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C219" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D219" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E219">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F219" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G219" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>276</v>
+        <v>478</v>
       </c>
       <c r="C220" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D220" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E220">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F220" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G220" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C221" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D221" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E221">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F221" t="s">
-        <v>477</v>
+        <v>231</v>
       </c>
       <c r="G221" t="s">
         <v>18</v>
@@ -8093,22 +8947,19 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>478</v>
-      </c>
-      <c r="B222" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C222" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D222" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E222">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F222" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G222" t="s">
         <v>18</v>
@@ -8116,79 +8967,82 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C223" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D223" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E223">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F223" t="s">
-        <v>482</v>
+        <v>405</v>
       </c>
       <c r="G223" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D224" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E224">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F224" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="G224" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>484</v>
+        <v>485</v>
+      </c>
+      <c r="B225" t="s">
+        <v>486</v>
       </c>
       <c r="C225" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D225" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E225">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F225" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G225" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C226" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D226" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E226">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="G226" t="s">
         <v>21</v>
@@ -8196,122 +9050,119 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C227" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D227" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E227">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F227" t="s">
-        <v>269</v>
+        <v>491</v>
       </c>
       <c r="G227" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>488</v>
-      </c>
-      <c r="B228" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C228" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D228" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E228">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F228" t="s">
-        <v>490</v>
+        <v>298</v>
       </c>
       <c r="G228" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C229" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D229" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E229">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F229" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G229" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C230" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D230" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E230">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F230" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G230" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C231" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D231" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E231">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F231" t="s">
-        <v>301</v>
+        <v>498</v>
       </c>
       <c r="G231" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C232" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D232" t="s">
         <v>41</v>
       </c>
       <c r="E232">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F232" t="s">
-        <v>497</v>
+        <v>254</v>
       </c>
       <c r="G232" t="s">
         <v>18</v>
@@ -8319,19 +9170,19 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C233" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D233" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E233">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F233" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G233" t="s">
         <v>21</v>
@@ -8339,67 +9190,70 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C234" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E234">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>501</v>
+        <v>196</v>
       </c>
       <c r="G234" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C235" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D235" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E235">
         <v>8</v>
       </c>
       <c r="F235" t="s">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="G235" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>503</v>
+        <v>504</v>
+      </c>
+      <c r="B236" t="s">
+        <v>505</v>
       </c>
       <c r="C236" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D236" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E236">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G236" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C237" t="s">
         <v>27</v>
@@ -8408,10 +9262,10 @@
         <v>65</v>
       </c>
       <c r="E237">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F237" t="s">
-        <v>196</v>
+        <v>508</v>
       </c>
       <c r="G237" t="s">
         <v>18</v>
@@ -8419,19 +9273,19 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C238" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D238" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E238">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F238" t="s">
-        <v>59</v>
+        <v>510</v>
       </c>
       <c r="G238" t="s">
         <v>21</v>
@@ -8439,10 +9293,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>507</v>
-      </c>
-      <c r="B239" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="C239" t="s">
         <v>41</v>
@@ -8451,10 +9302,10 @@
         <v>41</v>
       </c>
       <c r="E239">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F239" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G239" t="s">
         <v>18</v>
@@ -8462,19 +9313,19 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C240" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D240" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E240">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F240" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G240" t="s">
         <v>18</v>
@@ -8482,19 +9333,19 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C241" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D241" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E241">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F241" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G241" t="s">
         <v>21</v>
@@ -8502,39 +9353,39 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>41</v>
+        <v>516</v>
       </c>
       <c r="C242" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D242" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E242">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F242" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G242" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C243" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D243" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E243">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G243" t="s">
         <v>18</v>
@@ -8542,7 +9393,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C244" t="s">
         <v>45</v>
@@ -8551,10 +9402,10 @@
         <v>46</v>
       </c>
       <c r="E244">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F244" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G244" t="s">
         <v>21</v>
@@ -8562,39 +9413,45 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>519</v>
+        <v>522</v>
+      </c>
+      <c r="B245" t="s">
+        <v>523</v>
       </c>
       <c r="C245" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D245" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E245">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F245" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G245" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>521</v>
+        <v>525</v>
+      </c>
+      <c r="B246" t="s">
+        <v>526</v>
       </c>
       <c r="C246" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D246" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E246">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F246" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="G246" t="s">
         <v>18</v>
@@ -8602,19 +9459,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>523</v>
-      </c>
-      <c r="C247" t="s">
-        <v>45</v>
-      </c>
-      <c r="D247" t="s">
-        <v>46</v>
-      </c>
-      <c r="E247">
-        <v>65</v>
-      </c>
-      <c r="F247" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G247" t="s">
         <v>21</v>
@@ -8622,45 +9467,27 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>525</v>
-      </c>
-      <c r="B248" t="s">
-        <v>526</v>
-      </c>
-      <c r="C248" t="s">
-        <v>15</v>
-      </c>
-      <c r="D248" t="s">
-        <v>41</v>
-      </c>
-      <c r="E248">
-        <v>2</v>
-      </c>
-      <c r="F248" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G248" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>528</v>
-      </c>
-      <c r="B249" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C249" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D249" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E249">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F249" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G249" t="s">
         <v>18</v>
@@ -8668,15 +9495,39 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+      <c r="C250" t="s">
+        <v>27</v>
+      </c>
+      <c r="D250" t="s">
+        <v>65</v>
+      </c>
+      <c r="E250">
+        <v>29</v>
+      </c>
+      <c r="F250" t="s">
+        <v>533</v>
       </c>
       <c r="G250" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>532</v>
+        <v>534</v>
+      </c>
+      <c r="C251" t="s">
+        <v>49</v>
+      </c>
+      <c r="D251" t="s">
+        <v>49</v>
+      </c>
+      <c r="E251">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s">
+        <v>201</v>
       </c>
       <c r="G251" t="s">
         <v>21</v>
@@ -8684,42 +9535,42 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C252" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D252" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E252">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F252" t="s">
-        <v>534</v>
+        <v>201</v>
       </c>
       <c r="G252" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C253" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D253" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E253">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F253" t="s">
-        <v>536</v>
+        <v>201</v>
       </c>
       <c r="G253" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -8727,16 +9578,16 @@
         <v>537</v>
       </c>
       <c r="C254" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D254" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E254">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F254" t="s">
-        <v>201</v>
+        <v>538</v>
       </c>
       <c r="G254" t="s">
         <v>21</v>
@@ -8744,59 +9595,65 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C255" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D255" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E255">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F255" t="s">
-        <v>201</v>
+        <v>540</v>
       </c>
       <c r="G255" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>539</v>
+        <v>541</v>
+      </c>
+      <c r="B256" t="s">
+        <v>542</v>
       </c>
       <c r="C256" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D256" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E256">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F256" t="s">
-        <v>201</v>
+        <v>511</v>
       </c>
       <c r="G256" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>540</v>
+        <v>543</v>
+      </c>
+      <c r="B257" t="s">
+        <v>544</v>
       </c>
       <c r="C257" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D257" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E257">
         <v>18</v>
       </c>
       <c r="F257" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G257" t="s">
         <v>21</v>
@@ -8804,19 +9661,19 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C258" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D258" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E258">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F258" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="G258" t="s">
         <v>18</v>
@@ -8824,33 +9681,30 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>544</v>
-      </c>
-      <c r="B259" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C259" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D259" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E259">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F259" t="s">
-        <v>514</v>
+        <v>266</v>
       </c>
       <c r="G259" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B260" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C260" t="s">
         <v>41</v>
@@ -8859,73 +9713,73 @@
         <v>41</v>
       </c>
       <c r="E260">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F260" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G260" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C261" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D261" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E261">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F261" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G261" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>554</v>
+      </c>
+      <c r="C262" t="s">
+        <v>41</v>
+      </c>
+      <c r="D262" t="s">
+        <v>41</v>
+      </c>
+      <c r="E262">
+        <v>7</v>
+      </c>
+      <c r="F262" t="s">
         <v>551</v>
       </c>
-      <c r="C262" t="s">
-        <v>49</v>
-      </c>
-      <c r="D262" t="s">
-        <v>49</v>
-      </c>
-      <c r="E262">
-        <v>35</v>
-      </c>
-      <c r="F262" t="s">
-        <v>269</v>
-      </c>
       <c r="G262" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B263" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C263" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D263" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E263">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F263" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G263" t="s">
         <v>18</v>
@@ -8933,7 +9787,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C264" t="s">
         <v>27</v>
@@ -8942,98 +9796,35 @@
         <v>65</v>
       </c>
       <c r="E264">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F264" t="s">
-        <v>556</v>
+        <v>114</v>
       </c>
       <c r="G264" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>557</v>
+        <v>559</v>
+      </c>
+      <c r="B265" t="s">
+        <v>560</v>
       </c>
       <c r="C265" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D265" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E265">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F265" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="G265" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>558</v>
-      </c>
-      <c r="B266" t="s">
-        <v>559</v>
-      </c>
-      <c r="C266" t="s">
-        <v>58</v>
-      </c>
-      <c r="D266" t="s">
-        <v>28</v>
-      </c>
-      <c r="E266">
-        <v>11</v>
-      </c>
-      <c r="F266" t="s">
-        <v>560</v>
-      </c>
-      <c r="G266" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>561</v>
-      </c>
-      <c r="C267" t="s">
-        <v>27</v>
-      </c>
-      <c r="D267" t="s">
-        <v>65</v>
-      </c>
-      <c r="E267">
-        <v>32</v>
-      </c>
-      <c r="F267" t="s">
-        <v>114</v>
-      </c>
-      <c r="G267" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>562</v>
-      </c>
-      <c r="B268" t="s">
-        <v>563</v>
-      </c>
-      <c r="C268" t="s">
-        <v>15</v>
-      </c>
-      <c r="D268" t="s">
-        <v>16</v>
-      </c>
-      <c r="E268">
-        <v>3</v>
-      </c>
-      <c r="F268" t="s">
-        <v>564</v>
-      </c>
-      <c r="G268" t="s">
         <v>18</v>
       </c>
     </row>

--- a/data/dogbreeddata.xlsx
+++ b/data/dogbreeddata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AksV\Desktop\Coding\git_lessons\PawPal\pawpal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04810B27-6789-4811-8292-ED5435F7B64D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98603D6-9126-46BD-8CD6-F739557D8009}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/dogbreeddata.xlsx
+++ b/data/dogbreeddata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AksV\Desktop\Coding\git_lessons\PawPal\pawpal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98603D6-9126-46BD-8CD6-F739557D8009}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AD08C972-624D-4DD3-AE30-1714ADB773E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="565">
   <si>
     <t>BreedName</t>
   </si>
@@ -892,9 +892,6 @@
     <t>Gull Dong</t>
   </si>
   <si>
-    <t>Gull terrier</t>
-  </si>
-  <si>
     <t>Harrier</t>
   </si>
   <si>
@@ -1706,6 +1703,18 @@
   </si>
   <si>
     <t>Alert, Courageous, Energetic, Independent, Intelligent, Loyal, Playful</t>
+  </si>
+  <si>
+    <t>Intelligent, Gentle, Calm,Territorial</t>
+  </si>
+  <si>
+    <t>Stubborn, Aggressive</t>
+  </si>
+  <si>
+    <t>Protective, Calm, Energetic</t>
+  </si>
+  <si>
+    <t>Intelligent, Kind, Playful, Athletic</t>
   </si>
 </sst>
 </file>
@@ -2546,10 +2555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N265"/>
+  <dimension ref="A1:N263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6724,6 +6733,27 @@
       <c r="G101" t="s">
         <v>18</v>
       </c>
+      <c r="H101" t="s">
+        <v>38</v>
+      </c>
+      <c r="I101" t="s">
+        <v>33</v>
+      </c>
+      <c r="J101" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M101" t="s">
+        <v>33</v>
+      </c>
+      <c r="N101" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
@@ -6744,11 +6774,68 @@
       <c r="G102" t="s">
         <v>18</v>
       </c>
+      <c r="H102" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" t="s">
+        <v>20</v>
+      </c>
+      <c r="J102" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" t="s">
+        <v>31</v>
+      </c>
+      <c r="L102" t="s">
+        <v>32</v>
+      </c>
+      <c r="M102" t="s">
+        <v>24</v>
+      </c>
+      <c r="N102" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>259</v>
       </c>
+      <c r="C103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103">
+        <v>45</v>
+      </c>
+      <c r="F103" t="s">
+        <v>561</v>
+      </c>
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" t="s">
+        <v>38</v>
+      </c>
+      <c r="I103" t="s">
+        <v>33</v>
+      </c>
+      <c r="J103" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" t="s">
+        <v>31</v>
+      </c>
+      <c r="L103" t="s">
+        <v>23</v>
+      </c>
+      <c r="M103" t="s">
+        <v>33</v>
+      </c>
+      <c r="N103" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
@@ -6769,6 +6856,27 @@
       <c r="G104" t="s">
         <v>18</v>
       </c>
+      <c r="H104" t="s">
+        <v>38</v>
+      </c>
+      <c r="I104" t="s">
+        <v>33</v>
+      </c>
+      <c r="J104" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" t="s">
+        <v>31</v>
+      </c>
+      <c r="L104" t="s">
+        <v>23</v>
+      </c>
+      <c r="M104" t="s">
+        <v>33</v>
+      </c>
+      <c r="N104" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -6789,6 +6897,27 @@
       <c r="G105" t="s">
         <v>21</v>
       </c>
+      <c r="H105" t="s">
+        <v>43</v>
+      </c>
+      <c r="I105" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" t="s">
+        <v>31</v>
+      </c>
+      <c r="L105" t="s">
+        <v>20</v>
+      </c>
+      <c r="M105" t="s">
+        <v>33</v>
+      </c>
+      <c r="N105" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -6812,6 +6941,27 @@
       <c r="G106" t="s">
         <v>21</v>
       </c>
+      <c r="H106" t="s">
+        <v>43</v>
+      </c>
+      <c r="I106" t="s">
+        <v>33</v>
+      </c>
+      <c r="J106" t="s">
+        <v>21</v>
+      </c>
+      <c r="K106" t="s">
+        <v>31</v>
+      </c>
+      <c r="L106" t="s">
+        <v>32</v>
+      </c>
+      <c r="M106" t="s">
+        <v>33</v>
+      </c>
+      <c r="N106" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -6835,6 +6985,27 @@
       <c r="G107" t="s">
         <v>18</v>
       </c>
+      <c r="H107" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" t="s">
+        <v>21</v>
+      </c>
+      <c r="K107" t="s">
+        <v>31</v>
+      </c>
+      <c r="L107" t="s">
+        <v>32</v>
+      </c>
+      <c r="M107" t="s">
+        <v>33</v>
+      </c>
+      <c r="N107" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -6855,6 +7026,27 @@
       <c r="G108" t="s">
         <v>21</v>
       </c>
+      <c r="H108" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" t="s">
+        <v>33</v>
+      </c>
+      <c r="J108" t="s">
+        <v>21</v>
+      </c>
+      <c r="K108" t="s">
+        <v>22</v>
+      </c>
+      <c r="L108" t="s">
+        <v>20</v>
+      </c>
+      <c r="M108" t="s">
+        <v>33</v>
+      </c>
+      <c r="N108" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
@@ -6875,6 +7067,27 @@
       <c r="G109" t="s">
         <v>21</v>
       </c>
+      <c r="H109" t="s">
+        <v>38</v>
+      </c>
+      <c r="I109" t="s">
+        <v>20</v>
+      </c>
+      <c r="J109" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L109" t="s">
+        <v>32</v>
+      </c>
+      <c r="M109" t="s">
+        <v>33</v>
+      </c>
+      <c r="N109" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -6895,6 +7108,27 @@
       <c r="G110" t="s">
         <v>21</v>
       </c>
+      <c r="H110" t="s">
+        <v>38</v>
+      </c>
+      <c r="I110" t="s">
+        <v>33</v>
+      </c>
+      <c r="J110" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" t="s">
+        <v>32</v>
+      </c>
+      <c r="M110" t="s">
+        <v>33</v>
+      </c>
+      <c r="N110" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
@@ -6915,6 +7149,27 @@
       <c r="G111" t="s">
         <v>18</v>
       </c>
+      <c r="H111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111" t="s">
+        <v>21</v>
+      </c>
+      <c r="K111" t="s">
+        <v>22</v>
+      </c>
+      <c r="L111" t="s">
+        <v>20</v>
+      </c>
+      <c r="M111" t="s">
+        <v>33</v>
+      </c>
+      <c r="N111" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
@@ -6935,8 +7190,29 @@
       <c r="G112" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
+        <v>38</v>
+      </c>
+      <c r="I112" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" t="s">
+        <v>21</v>
+      </c>
+      <c r="K112" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112" t="s">
+        <v>32</v>
+      </c>
+      <c r="M112" t="s">
+        <v>33</v>
+      </c>
+      <c r="N112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>279</v>
       </c>
@@ -6955,8 +7231,29 @@
       <c r="G113" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" t="s">
+        <v>33</v>
+      </c>
+      <c r="J113" t="s">
+        <v>18</v>
+      </c>
+      <c r="K113" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113" t="s">
+        <v>32</v>
+      </c>
+      <c r="M113" t="s">
+        <v>33</v>
+      </c>
+      <c r="N113" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>281</v>
       </c>
@@ -6975,8 +7272,29 @@
       <c r="G114" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
+        <v>38</v>
+      </c>
+      <c r="I114" t="s">
+        <v>33</v>
+      </c>
+      <c r="J114" t="s">
+        <v>21</v>
+      </c>
+      <c r="K114" t="s">
+        <v>31</v>
+      </c>
+      <c r="L114" t="s">
+        <v>32</v>
+      </c>
+      <c r="M114" t="s">
+        <v>33</v>
+      </c>
+      <c r="N114" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>283</v>
       </c>
@@ -6995,8 +7313,29 @@
       <c r="G115" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" t="s">
+        <v>38</v>
+      </c>
+      <c r="I115" t="s">
+        <v>33</v>
+      </c>
+      <c r="J115" t="s">
+        <v>21</v>
+      </c>
+      <c r="K115" t="s">
+        <v>31</v>
+      </c>
+      <c r="L115" t="s">
+        <v>20</v>
+      </c>
+      <c r="M115" t="s">
+        <v>33</v>
+      </c>
+      <c r="N115" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>285</v>
       </c>
@@ -7015,8 +7354,29 @@
       <c r="G116" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
+        <v>38</v>
+      </c>
+      <c r="I116" t="s">
+        <v>33</v>
+      </c>
+      <c r="J116" t="s">
+        <v>21</v>
+      </c>
+      <c r="K116" t="s">
+        <v>22</v>
+      </c>
+      <c r="L116" t="s">
+        <v>20</v>
+      </c>
+      <c r="M116" t="s">
+        <v>33</v>
+      </c>
+      <c r="N116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>287</v>
       </c>
@@ -7035,178 +7395,526 @@
       <c r="G117" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s">
+        <v>30</v>
+      </c>
+      <c r="J117" t="s">
+        <v>21</v>
+      </c>
+      <c r="K117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L117" t="s">
+        <v>32</v>
+      </c>
+      <c r="M117" t="s">
+        <v>33</v>
+      </c>
+      <c r="N117" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118">
+        <v>35</v>
+      </c>
+      <c r="F118" t="s">
+        <v>562</v>
+      </c>
+      <c r="G118" t="s">
+        <v>21</v>
+      </c>
+      <c r="H118" t="s">
+        <v>38</v>
+      </c>
+      <c r="I118" t="s">
+        <v>33</v>
+      </c>
+      <c r="J118" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" t="s">
+        <v>31</v>
+      </c>
+      <c r="L118" t="s">
+        <v>23</v>
+      </c>
+      <c r="M118" t="s">
+        <v>33</v>
+      </c>
+      <c r="N118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" t="s">
+        <v>88</v>
+      </c>
+      <c r="E119">
+        <v>22</v>
+      </c>
+      <c r="F119" t="s">
+        <v>291</v>
+      </c>
+      <c r="G119" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" t="s">
+        <v>38</v>
+      </c>
+      <c r="I119" t="s">
+        <v>33</v>
+      </c>
+      <c r="J119" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" t="s">
+        <v>22</v>
+      </c>
+      <c r="L119" t="s">
+        <v>20</v>
+      </c>
+      <c r="M119" t="s">
+        <v>33</v>
+      </c>
+      <c r="N119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120" t="s">
+        <v>293</v>
+      </c>
+      <c r="G120" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s">
+        <v>30</v>
+      </c>
+      <c r="J120" t="s">
+        <v>21</v>
+      </c>
+      <c r="K120" t="s">
+        <v>22</v>
+      </c>
+      <c r="L120" t="s">
+        <v>32</v>
+      </c>
+      <c r="M120" t="s">
+        <v>24</v>
+      </c>
+      <c r="N120" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>294</v>
+      </c>
+      <c r="C121" t="s">
+        <v>45</v>
+      </c>
+      <c r="D121" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121">
+        <v>38</v>
+      </c>
+      <c r="F121" t="s">
+        <v>295</v>
+      </c>
+      <c r="G121" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" t="s">
+        <v>38</v>
+      </c>
+      <c r="I121" t="s">
+        <v>30</v>
+      </c>
+      <c r="J121" t="s">
+        <v>21</v>
+      </c>
+      <c r="K121" t="s">
+        <v>22</v>
+      </c>
+      <c r="L121" t="s">
+        <v>32</v>
+      </c>
+      <c r="M121" t="s">
+        <v>33</v>
+      </c>
+      <c r="N121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" t="s">
+        <v>45</v>
+      </c>
+      <c r="D122" t="s">
+        <v>53</v>
+      </c>
+      <c r="E122">
+        <v>24</v>
+      </c>
+      <c r="F122" t="s">
+        <v>297</v>
+      </c>
+      <c r="G122" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" t="s">
+        <v>33</v>
+      </c>
+      <c r="J122" t="s">
+        <v>21</v>
+      </c>
+      <c r="K122" t="s">
+        <v>31</v>
+      </c>
+      <c r="L122" t="s">
+        <v>32</v>
+      </c>
+      <c r="M122" t="s">
+        <v>33</v>
+      </c>
+      <c r="N122" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>298</v>
+      </c>
+      <c r="C123" t="s">
         <v>84</v>
       </c>
-      <c r="D120" t="s">
-        <v>88</v>
-      </c>
-      <c r="E120">
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123">
         <v>22</v>
       </c>
-      <c r="F120" t="s">
-        <v>292</v>
-      </c>
-      <c r="G120" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>293</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="F123" t="s">
+        <v>299</v>
+      </c>
+      <c r="G123" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s">
+        <v>30</v>
+      </c>
+      <c r="J123" t="s">
+        <v>21</v>
+      </c>
+      <c r="K123" t="s">
+        <v>22</v>
+      </c>
+      <c r="L123" t="s">
+        <v>32</v>
+      </c>
+      <c r="M123" t="s">
+        <v>33</v>
+      </c>
+      <c r="N123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>300</v>
+      </c>
+      <c r="C124" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124">
+        <v>40</v>
+      </c>
+      <c r="F124" t="s">
+        <v>301</v>
+      </c>
+      <c r="G124" t="s">
+        <v>21</v>
+      </c>
+      <c r="H124" t="s">
+        <v>38</v>
+      </c>
+      <c r="I124" t="s">
+        <v>33</v>
+      </c>
+      <c r="J124" t="s">
+        <v>21</v>
+      </c>
+      <c r="K124" t="s">
+        <v>31</v>
+      </c>
+      <c r="L124" t="s">
+        <v>23</v>
+      </c>
+      <c r="M124" t="s">
+        <v>33</v>
+      </c>
+      <c r="N124" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125" t="s">
+        <v>303</v>
+      </c>
+      <c r="C125" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" t="s">
+        <v>46</v>
+      </c>
+      <c r="E125">
+        <v>80</v>
+      </c>
+      <c r="F125" t="s">
+        <v>383</v>
+      </c>
+      <c r="G125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" t="s">
+        <v>38</v>
+      </c>
+      <c r="I125" t="s">
+        <v>33</v>
+      </c>
+      <c r="J125" t="s">
+        <v>21</v>
+      </c>
+      <c r="K125" t="s">
+        <v>31</v>
+      </c>
+      <c r="L125" t="s">
+        <v>23</v>
+      </c>
+      <c r="M125" t="s">
+        <v>33</v>
+      </c>
+      <c r="N125" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126">
+        <v>30</v>
+      </c>
+      <c r="F126" t="s">
+        <v>563</v>
+      </c>
+      <c r="G126" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126" t="s">
+        <v>21</v>
+      </c>
+      <c r="K126" t="s">
+        <v>22</v>
+      </c>
+      <c r="L126" t="s">
+        <v>23</v>
+      </c>
+      <c r="M126" t="s">
+        <v>33</v>
+      </c>
+      <c r="N126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>305</v>
+      </c>
+      <c r="C127" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127">
         <v>15</v>
       </c>
-      <c r="D121" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121">
-        <v>5</v>
-      </c>
-      <c r="F121" t="s">
-        <v>294</v>
-      </c>
-      <c r="G121" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>84</v>
-      </c>
-      <c r="C122" t="s">
-        <v>84</v>
-      </c>
-      <c r="D122" t="s">
-        <v>88</v>
-      </c>
-      <c r="E122">
+      <c r="F127" t="s">
+        <v>564</v>
+      </c>
+      <c r="G127" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" t="s">
+        <v>21</v>
+      </c>
+      <c r="K127" t="s">
+        <v>22</v>
+      </c>
+      <c r="L127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M127" t="s">
+        <v>33</v>
+      </c>
+      <c r="N127" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>306</v>
+      </c>
+      <c r="C128" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" t="s">
+        <v>65</v>
+      </c>
+      <c r="E128">
         <v>32</v>
       </c>
-      <c r="F122" t="s">
-        <v>256</v>
-      </c>
-      <c r="G122" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>295</v>
-      </c>
-      <c r="C123" t="s">
-        <v>45</v>
-      </c>
-      <c r="D123" t="s">
-        <v>46</v>
-      </c>
-      <c r="E123">
+      <c r="F128" t="s">
+        <v>307</v>
+      </c>
+      <c r="G128" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" t="s">
         <v>38</v>
       </c>
-      <c r="F123" t="s">
-        <v>296</v>
-      </c>
-      <c r="G123" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>297</v>
-      </c>
-      <c r="C124" t="s">
-        <v>45</v>
-      </c>
-      <c r="D124" t="s">
-        <v>53</v>
-      </c>
-      <c r="E124">
-        <v>24</v>
-      </c>
-      <c r="F124" t="s">
-        <v>298</v>
-      </c>
-      <c r="G124" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>299</v>
-      </c>
-      <c r="C125" t="s">
-        <v>84</v>
-      </c>
-      <c r="D125" t="s">
-        <v>28</v>
-      </c>
-      <c r="E125">
+      <c r="I128" t="s">
+        <v>33</v>
+      </c>
+      <c r="J128" t="s">
+        <v>21</v>
+      </c>
+      <c r="K128" t="s">
+        <v>31</v>
+      </c>
+      <c r="L128" t="s">
+        <v>32</v>
+      </c>
+      <c r="M128" t="s">
+        <v>33</v>
+      </c>
+      <c r="N128" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>308</v>
+      </c>
+      <c r="C129" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>309</v>
+      </c>
+      <c r="G129" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" t="s">
+        <v>43</v>
+      </c>
+      <c r="I129" t="s">
+        <v>33</v>
+      </c>
+      <c r="J129" t="s">
+        <v>21</v>
+      </c>
+      <c r="K129" t="s">
         <v>22</v>
       </c>
-      <c r="F125" t="s">
-        <v>300</v>
-      </c>
-      <c r="G125" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>301</v>
-      </c>
-      <c r="C126" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" t="s">
-        <v>49</v>
-      </c>
-      <c r="E126">
-        <v>40</v>
-      </c>
-      <c r="F126" t="s">
-        <v>302</v>
-      </c>
-      <c r="G126" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>303</v>
-      </c>
-      <c r="B127" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L129" t="s">
+        <v>32</v>
+      </c>
+      <c r="M129" t="s">
+        <v>33</v>
+      </c>
+      <c r="N129" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
@@ -7215,266 +7923,329 @@
         <v>65</v>
       </c>
       <c r="E130">
+        <v>25</v>
+      </c>
+      <c r="F130" t="s">
+        <v>311</v>
+      </c>
+      <c r="G130" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" t="s">
+        <v>43</v>
+      </c>
+      <c r="I130" t="s">
+        <v>33</v>
+      </c>
+      <c r="J130" t="s">
+        <v>21</v>
+      </c>
+      <c r="K130" t="s">
+        <v>22</v>
+      </c>
+      <c r="L130" t="s">
+        <v>20</v>
+      </c>
+      <c r="M130" t="s">
+        <v>33</v>
+      </c>
+      <c r="N130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>312</v>
+      </c>
+      <c r="C131" t="s">
+        <v>84</v>
+      </c>
+      <c r="D131" t="s">
+        <v>88</v>
+      </c>
+      <c r="E131">
+        <v>55</v>
+      </c>
+      <c r="F131" t="s">
+        <v>313</v>
+      </c>
+      <c r="G131" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" t="s">
+        <v>38</v>
+      </c>
+      <c r="I131" t="s">
+        <v>30</v>
+      </c>
+      <c r="J131" t="s">
+        <v>21</v>
+      </c>
+      <c r="K131" t="s">
+        <v>31</v>
+      </c>
+      <c r="L131" t="s">
         <v>32</v>
       </c>
-      <c r="F130" t="s">
-        <v>308</v>
-      </c>
-      <c r="G130" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>309</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="M131" t="s">
+        <v>30</v>
+      </c>
+      <c r="N131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>314</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>315</v>
+      </c>
+      <c r="G132" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" t="s">
+        <v>20</v>
+      </c>
+      <c r="J132" t="s">
+        <v>21</v>
+      </c>
+      <c r="K132" t="s">
+        <v>31</v>
+      </c>
+      <c r="L132" t="s">
+        <v>32</v>
+      </c>
+      <c r="M132" t="s">
+        <v>33</v>
+      </c>
+      <c r="N132" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>316</v>
+      </c>
+      <c r="C133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" t="s">
+        <v>65</v>
+      </c>
+      <c r="E133">
+        <v>33</v>
+      </c>
+      <c r="F133" t="s">
+        <v>317</v>
+      </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>318</v>
+      </c>
+      <c r="C134" t="s">
         <v>41</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D134" t="s">
         <v>41</v>
       </c>
-      <c r="E131">
-        <v>12</v>
-      </c>
-      <c r="F131" t="s">
-        <v>310</v>
-      </c>
-      <c r="G131" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>311</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="E134">
+        <v>7</v>
+      </c>
+      <c r="F134" t="s">
+        <v>319</v>
+      </c>
+      <c r="G134" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>320</v>
+      </c>
+      <c r="C135" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" t="s">
+        <v>41</v>
+      </c>
+      <c r="E135">
+        <v>7</v>
+      </c>
+      <c r="F135" t="s">
+        <v>321</v>
+      </c>
+      <c r="G135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>322</v>
+      </c>
+      <c r="B136" t="s">
+        <v>323</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136" t="s">
+        <v>324</v>
+      </c>
+      <c r="G136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>325</v>
+      </c>
+      <c r="C137" t="s">
         <v>27</v>
       </c>
-      <c r="D132" t="s">
-        <v>65</v>
-      </c>
-      <c r="E132">
-        <v>25</v>
-      </c>
-      <c r="F132" t="s">
-        <v>312</v>
-      </c>
-      <c r="G132" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>313</v>
-      </c>
-      <c r="C133" t="s">
-        <v>84</v>
-      </c>
-      <c r="D133" t="s">
-        <v>88</v>
-      </c>
-      <c r="E133">
-        <v>55</v>
-      </c>
-      <c r="F133" t="s">
-        <v>314</v>
-      </c>
-      <c r="G133" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>315</v>
-      </c>
-      <c r="C134" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" t="s">
-        <v>16</v>
-      </c>
-      <c r="E134">
-        <v>4</v>
-      </c>
-      <c r="F134" t="s">
-        <v>316</v>
-      </c>
-      <c r="G134" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>317</v>
-      </c>
-      <c r="C135" t="s">
-        <v>27</v>
-      </c>
-      <c r="D135" t="s">
-        <v>65</v>
-      </c>
-      <c r="E135">
-        <v>33</v>
-      </c>
-      <c r="F135" t="s">
-        <v>318</v>
-      </c>
-      <c r="G135" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>319</v>
-      </c>
-      <c r="C136" t="s">
-        <v>41</v>
-      </c>
-      <c r="D136" t="s">
-        <v>41</v>
-      </c>
-      <c r="E136">
-        <v>7</v>
-      </c>
-      <c r="F136" t="s">
-        <v>320</v>
-      </c>
-      <c r="G136" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>321</v>
-      </c>
-      <c r="C137" t="s">
-        <v>41</v>
-      </c>
       <c r="D137" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E137">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F137" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G137" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>323</v>
-      </c>
-      <c r="B138" t="s">
-        <v>324</v>
-      </c>
-      <c r="C138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" t="s">
-        <v>16</v>
-      </c>
-      <c r="E138">
-        <v>5</v>
-      </c>
-      <c r="F138" t="s">
-        <v>325</v>
-      </c>
-      <c r="G138" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D139" t="s">
         <v>53</v>
       </c>
       <c r="E139">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F139" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G139" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="B140" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C141" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D141" t="s">
         <v>53</v>
       </c>
       <c r="E141">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F141" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G141" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>331</v>
-      </c>
-      <c r="B142" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="C142" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142" t="s">
+        <v>53</v>
+      </c>
+      <c r="E142">
+        <v>18</v>
+      </c>
+      <c r="F142" t="s">
+        <v>335</v>
+      </c>
+      <c r="G142" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C143" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143">
+        <v>17</v>
+      </c>
+      <c r="F143" t="s">
+        <v>337</v>
+      </c>
+      <c r="G143" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>338</v>
+      </c>
+      <c r="C144" t="s">
         <v>27</v>
-      </c>
-      <c r="D143" t="s">
-        <v>53</v>
-      </c>
-      <c r="E143">
-        <v>22</v>
-      </c>
-      <c r="F143" t="s">
-        <v>334</v>
-      </c>
-      <c r="G143" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>335</v>
-      </c>
-      <c r="C144" t="s">
-        <v>58</v>
       </c>
       <c r="D144" t="s">
         <v>53</v>
       </c>
       <c r="E144">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F144" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G144" t="s">
         <v>21</v>
@@ -7482,19 +8253,19 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C145" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D145" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E145">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F145" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G145" t="s">
         <v>21</v>
@@ -7502,39 +8273,27 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>339</v>
-      </c>
-      <c r="C146" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" t="s">
-        <v>53</v>
-      </c>
-      <c r="E146">
-        <v>20</v>
-      </c>
-      <c r="F146" t="s">
-        <v>340</v>
-      </c>
-      <c r="G146" t="s">
-        <v>21</v>
+        <v>342</v>
+      </c>
+      <c r="B146" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C147" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D147" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E147">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F147" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G147" t="s">
         <v>21</v>
@@ -7542,15 +8301,15 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>343</v>
-      </c>
-      <c r="B148" t="s">
-        <v>344</v>
+        <v>346</v>
+      </c>
+      <c r="G148" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C149" t="s">
         <v>45</v>
@@ -7559,10 +8318,10 @@
         <v>46</v>
       </c>
       <c r="E149">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F149" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G149" t="s">
         <v>21</v>
@@ -7570,47 +8329,59 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>347</v>
+        <v>349</v>
+      </c>
+      <c r="C150" t="s">
+        <v>58</v>
+      </c>
+      <c r="D150" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150">
+        <v>5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>350</v>
       </c>
       <c r="G150" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C151" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D151" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E151">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>349</v>
+        <v>114</v>
       </c>
       <c r="G151" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C152" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D152" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E152">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F152" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G152" t="s">
         <v>18</v>
@@ -7618,19 +8389,19 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D153" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E153">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F153" t="s">
-        <v>114</v>
+        <v>355</v>
       </c>
       <c r="G153" t="s">
         <v>18</v>
@@ -7638,39 +8409,39 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C154" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D154" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E154">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F154" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G154" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C155" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D155" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E155">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F155" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G155" t="s">
         <v>18</v>
@@ -7678,59 +8449,47 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C156" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D156" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E156">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="F156" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G156" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>359</v>
-      </c>
-      <c r="C157" t="s">
-        <v>58</v>
-      </c>
-      <c r="D157" t="s">
-        <v>16</v>
-      </c>
-      <c r="E157">
-        <v>6</v>
-      </c>
-      <c r="F157" t="s">
-        <v>360</v>
-      </c>
-      <c r="G157" t="s">
-        <v>18</v>
+        <v>362</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>361</v>
+        <v>363</v>
+      </c>
+      <c r="B158" t="s">
+        <v>364</v>
       </c>
       <c r="C158" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
         <v>16</v>
       </c>
       <c r="E158">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F158" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G158" t="s">
         <v>18</v>
@@ -7738,192 +8497,204 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>363</v>
+        <v>366</v>
+      </c>
+      <c r="C159" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159">
+        <v>6</v>
+      </c>
+      <c r="F159" t="s">
+        <v>367</v>
+      </c>
+      <c r="G159" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>364</v>
-      </c>
-      <c r="B160" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E160">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G160" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C161" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D161" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E161">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="F161" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G161" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C162" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D162" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E162">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G162" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C163" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E163">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F163" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G163" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C164" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D164" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E164">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F164" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G164" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E165">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>376</v>
+        <v>108</v>
       </c>
       <c r="G165" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>377</v>
-      </c>
-      <c r="C166" t="s">
-        <v>45</v>
-      </c>
-      <c r="D166" t="s">
-        <v>88</v>
-      </c>
-      <c r="E166">
-        <v>20</v>
-      </c>
-      <c r="F166" t="s">
-        <v>378</v>
-      </c>
-      <c r="G166" t="s">
-        <v>21</v>
+        <v>379</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C167" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D167" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E167">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F167" t="s">
-        <v>108</v>
+        <v>381</v>
       </c>
       <c r="G167" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="C168" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" t="s">
+        <v>46</v>
+      </c>
+      <c r="E168">
+        <v>60</v>
+      </c>
+      <c r="F168" t="s">
+        <v>383</v>
+      </c>
+      <c r="G168" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>385</v>
       </c>
       <c r="D169" t="s">
-        <v>65</v>
+        <v>385</v>
       </c>
       <c r="E169">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G169" t="s">
         <v>18</v>
@@ -7931,7 +8702,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>383</v>
+        <v>387</v>
+      </c>
+      <c r="B170" t="s">
+        <v>388</v>
       </c>
       <c r="C170" t="s">
         <v>45</v>
@@ -7940,10 +8714,10 @@
         <v>46</v>
       </c>
       <c r="E170">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F170" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G170" t="s">
         <v>21</v>
@@ -7951,19 +8725,19 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C171" t="s">
-        <v>386</v>
+        <v>41</v>
       </c>
       <c r="D171" t="s">
-        <v>386</v>
+        <v>41</v>
       </c>
       <c r="E171">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F171" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G171" t="s">
         <v>18</v>
@@ -7971,22 +8745,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>388</v>
-      </c>
-      <c r="B172" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C172" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D172" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E172">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F172" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G172" t="s">
         <v>21</v>
@@ -7994,39 +8765,39 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D173" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E173">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F173" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G173" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C174" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D174" t="s">
         <v>53</v>
       </c>
       <c r="E174">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F174" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G174" t="s">
         <v>21</v>
@@ -8034,39 +8805,39 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C175" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D175" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E175">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F175" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G175" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C176" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D176" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
       <c r="E176">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F176" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G176" t="s">
         <v>21</v>
@@ -8074,59 +8845,47 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C177" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D177" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E177">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F177" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G177" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D178" t="s">
-        <v>402</v>
+        <v>88</v>
       </c>
       <c r="E178">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F178" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G178" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>404</v>
-      </c>
-      <c r="C179" t="s">
-        <v>49</v>
-      </c>
-      <c r="D179" t="s">
-        <v>49</v>
-      </c>
-      <c r="E179">
-        <v>39</v>
-      </c>
-      <c r="F179" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G179" t="s">
         <v>21</v>
@@ -8134,19 +8893,19 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C180" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="E180">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F180" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G180" t="s">
         <v>18</v>
@@ -8154,15 +8913,27 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>408</v>
+        <v>410</v>
+      </c>
+      <c r="C181" t="s">
+        <v>41</v>
+      </c>
+      <c r="D181" t="s">
+        <v>41</v>
+      </c>
+      <c r="E181">
+        <v>6</v>
+      </c>
+      <c r="F181" t="s">
+        <v>411</v>
       </c>
       <c r="G181" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C182" t="s">
         <v>15</v>
@@ -8171,10 +8942,10 @@
         <v>16</v>
       </c>
       <c r="E182">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F182" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G182" t="s">
         <v>18</v>
@@ -8182,39 +8953,39 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C183" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D183" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E183">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G183" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C184" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D184" t="s">
+        <v>88</v>
+      </c>
+      <c r="E184">
         <v>16</v>
       </c>
-      <c r="E184">
-        <v>4</v>
-      </c>
       <c r="F184" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G184" t="s">
         <v>18</v>
@@ -8222,7 +8993,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C185" t="s">
         <v>84</v>
@@ -8231,30 +9002,30 @@
         <v>28</v>
       </c>
       <c r="E185">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F185" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G185" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C186" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D186" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E186">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F186" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G186" t="s">
         <v>18</v>
@@ -8262,19 +9033,19 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C187" t="s">
         <v>84</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E187">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F187" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G187" t="s">
         <v>18</v>
@@ -8282,19 +9053,19 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C188" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D188" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E188">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F188" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G188" t="s">
         <v>18</v>
@@ -8302,79 +9073,79 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C189" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D189" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E189">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F189" t="s">
-        <v>424</v>
+        <v>229</v>
       </c>
       <c r="G189" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C190" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E190">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F190" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G190" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D191" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E191">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F191" t="s">
-        <v>229</v>
+        <v>430</v>
       </c>
       <c r="G191" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C192" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D192" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E192">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F192" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G192" t="s">
         <v>21</v>
@@ -8382,39 +9153,39 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C193" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D193" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E193">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F193" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G193" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>434</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194">
+        <v>8</v>
+      </c>
+      <c r="F194" t="s">
         <v>432</v>
-      </c>
-      <c r="C194" t="s">
-        <v>58</v>
-      </c>
-      <c r="D194" t="s">
-        <v>65</v>
-      </c>
-      <c r="E194">
-        <v>26</v>
-      </c>
-      <c r="F194" t="s">
-        <v>433</v>
       </c>
       <c r="G194" t="s">
         <v>21</v>
@@ -8422,19 +9193,19 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C195" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D195" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E195">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F195" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G195" t="s">
         <v>21</v>
@@ -8442,19 +9213,19 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C196" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D196" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E196">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F196" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G196" t="s">
         <v>21</v>
@@ -8462,19 +9233,19 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C197" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E197">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F197" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="G197" t="s">
         <v>21</v>
@@ -8482,39 +9253,39 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C198" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E198">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F198" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G198" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C199" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D199" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E199">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G199" t="s">
         <v>21</v>
@@ -8522,19 +9293,19 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C200" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E200">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F200" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G200" t="s">
         <v>18</v>
@@ -8542,19 +9313,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>443</v>
-      </c>
-      <c r="C201" t="s">
-        <v>49</v>
-      </c>
-      <c r="D201" t="s">
-        <v>49</v>
-      </c>
-      <c r="E201">
-        <v>14</v>
-      </c>
-      <c r="F201" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G201" t="s">
         <v>21</v>
@@ -8562,55 +9321,70 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>445</v>
-      </c>
-      <c r="C202" t="s">
-        <v>49</v>
-      </c>
-      <c r="D202" t="s">
-        <v>49</v>
-      </c>
-      <c r="E202">
-        <v>13</v>
-      </c>
-      <c r="F202" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G202" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>447</v>
+        <v>448</v>
+      </c>
+      <c r="C203" t="s">
+        <v>41</v>
+      </c>
+      <c r="D203" t="s">
+        <v>41</v>
+      </c>
+      <c r="E203">
+        <v>11</v>
+      </c>
+      <c r="F203" t="s">
+        <v>449</v>
       </c>
       <c r="G203" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>448</v>
+        <v>450</v>
+      </c>
+      <c r="B204" t="s">
+        <v>451</v>
+      </c>
+      <c r="C204" t="s">
+        <v>84</v>
+      </c>
+      <c r="D204" t="s">
+        <v>88</v>
+      </c>
+      <c r="E204">
+        <v>28</v>
+      </c>
+      <c r="F204" t="s">
+        <v>452</v>
       </c>
       <c r="G204" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C205" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D205" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E205">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F205" t="s">
-        <v>450</v>
+        <v>278</v>
       </c>
       <c r="G205" t="s">
         <v>18</v>
@@ -8618,22 +9392,19 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>451</v>
-      </c>
-      <c r="B206" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C206" t="s">
         <v>84</v>
       </c>
       <c r="D206" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="E206">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F206" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G206" t="s">
         <v>18</v>
@@ -8641,39 +9412,39 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D207" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E207">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F207" t="s">
-        <v>278</v>
+        <v>457</v>
       </c>
       <c r="G207" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C208" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D208" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E208">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F208" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G208" t="s">
         <v>18</v>
@@ -8681,202 +9452,205 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C209" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D209" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E209">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F209" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G209" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C210" t="s">
         <v>45</v>
       </c>
       <c r="D210" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E210">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F210" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G210" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C211" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E211">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F211" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G211" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C212" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D212" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E212">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F212" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G212" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C213" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D213" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E213">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F213" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G213" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>467</v>
+        <v>470</v>
+      </c>
+      <c r="B214" t="s">
+        <v>471</v>
       </c>
       <c r="C214" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E214">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F214" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G214" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
+        <v>273</v>
+      </c>
+      <c r="C215" t="s">
+        <v>45</v>
+      </c>
+      <c r="D215" t="s">
+        <v>49</v>
+      </c>
+      <c r="E215">
+        <v>31</v>
+      </c>
+      <c r="F215" t="s">
         <v>469</v>
       </c>
-      <c r="C215" t="s">
-        <v>41</v>
-      </c>
-      <c r="D215" t="s">
-        <v>16</v>
-      </c>
-      <c r="E215">
-        <v>8</v>
-      </c>
-      <c r="F215" t="s">
-        <v>470</v>
-      </c>
       <c r="G215" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>471</v>
-      </c>
-      <c r="B216" t="s">
         <v>472</v>
       </c>
       <c r="C216" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D216" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E216">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F216" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G216" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>273</v>
+        <v>474</v>
+      </c>
+      <c r="B217" t="s">
+        <v>475</v>
       </c>
       <c r="C217" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D217" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E217">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F217" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G217" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C218" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E218">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F218" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G218" t="s">
         <v>18</v>
@@ -8884,22 +9658,19 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>475</v>
-      </c>
-      <c r="B219" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C219" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D219" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E219">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F219" t="s">
-        <v>477</v>
+        <v>231</v>
       </c>
       <c r="G219" t="s">
         <v>18</v>
@@ -8907,19 +9678,19 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C220" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D220" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E220">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F220" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G220" t="s">
         <v>18</v>
@@ -8927,47 +9698,50 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D221" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E221">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F221" t="s">
-        <v>231</v>
+        <v>404</v>
       </c>
       <c r="G221" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C222" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D222" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E222">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F222" t="s">
-        <v>482</v>
+        <v>266</v>
       </c>
       <c r="G222" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>483</v>
+        <v>484</v>
+      </c>
+      <c r="B223" t="s">
+        <v>485</v>
       </c>
       <c r="C223" t="s">
         <v>49</v>
@@ -8976,10 +9750,10 @@
         <v>49</v>
       </c>
       <c r="E223">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F223" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="G223" t="s">
         <v>21</v>
@@ -8987,19 +9761,19 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C224" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D224" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E224">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>266</v>
+        <v>488</v>
       </c>
       <c r="G224" t="s">
         <v>21</v>
@@ -9007,62 +9781,59 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>485</v>
-      </c>
-      <c r="B225" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C225" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D225" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E225">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F225" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G225" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C226" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D226" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E226">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F226" t="s">
-        <v>489</v>
+        <v>297</v>
       </c>
       <c r="G226" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C227" t="s">
         <v>15</v>
       </c>
       <c r="D227" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E227">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F227" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G227" t="s">
         <v>18</v>
@@ -9070,47 +9841,47 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C228" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D228" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E228">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F228" t="s">
-        <v>298</v>
+        <v>495</v>
       </c>
       <c r="G228" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C229" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D229" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E229">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F229" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G229" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C230" t="s">
         <v>41</v>
@@ -9119,30 +9890,30 @@
         <v>41</v>
       </c>
       <c r="E230">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F230" t="s">
-        <v>496</v>
+        <v>254</v>
       </c>
       <c r="G230" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C231" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D231" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E231">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F231" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G231" t="s">
         <v>21</v>
@@ -9150,19 +9921,19 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C232" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D232" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E232">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="G232" t="s">
         <v>18</v>
@@ -9170,19 +9941,19 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C233" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D233" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E233">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="F233" t="s">
-        <v>501</v>
+        <v>59</v>
       </c>
       <c r="G233" t="s">
         <v>21</v>
@@ -9190,19 +9961,22 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="B234" t="s">
+        <v>504</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D234" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E234">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>196</v>
+        <v>505</v>
       </c>
       <c r="G234" t="s">
         <v>18</v>
@@ -9210,62 +9984,59 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C235" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D235" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E235">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F235" t="s">
-        <v>59</v>
+        <v>507</v>
       </c>
       <c r="G235" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>504</v>
-      </c>
-      <c r="B236" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C236" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D236" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E236">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F236" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G236" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="C237" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D237" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E237">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F237" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G237" t="s">
         <v>18</v>
@@ -9273,99 +10044,99 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C238" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D238" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E238">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F238" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G238" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>41</v>
+        <v>513</v>
       </c>
       <c r="C239" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D239" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E239">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F239" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G239" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C240" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E240">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F240" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G240" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C241" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D241" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E241">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G241" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C242" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D242" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E242">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="F242" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G242" t="s">
         <v>21</v>
@@ -9373,19 +10144,22 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>518</v>
+        <v>521</v>
+      </c>
+      <c r="B243" t="s">
+        <v>522</v>
       </c>
       <c r="C243" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D243" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E243">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F243" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G243" t="s">
         <v>18</v>
@@ -9393,129 +10167,126 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>520</v>
+        <v>524</v>
+      </c>
+      <c r="B244" t="s">
+        <v>525</v>
       </c>
       <c r="C244" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D244" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E244">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F244" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="G244" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>522</v>
-      </c>
-      <c r="B245" t="s">
-        <v>523</v>
-      </c>
-      <c r="C245" t="s">
-        <v>15</v>
-      </c>
-      <c r="D245" t="s">
-        <v>41</v>
-      </c>
-      <c r="E245">
-        <v>2</v>
-      </c>
-      <c r="F245" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G245" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>525</v>
-      </c>
-      <c r="B246" t="s">
-        <v>526</v>
-      </c>
-      <c r="C246" t="s">
-        <v>84</v>
-      </c>
-      <c r="D246" t="s">
-        <v>88</v>
-      </c>
-      <c r="E246">
-        <v>28</v>
-      </c>
-      <c r="F246" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G246" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>528</v>
+        <v>529</v>
+      </c>
+      <c r="C247" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247" t="s">
+        <v>65</v>
+      </c>
+      <c r="E247">
+        <v>21</v>
+      </c>
+      <c r="F247" t="s">
+        <v>530</v>
       </c>
       <c r="G247" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>529</v>
+        <v>531</v>
+      </c>
+      <c r="C248" t="s">
+        <v>27</v>
+      </c>
+      <c r="D248" t="s">
+        <v>65</v>
+      </c>
+      <c r="E248">
+        <v>29</v>
+      </c>
+      <c r="F248" t="s">
+        <v>532</v>
       </c>
       <c r="G248" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C249" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D249" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E249">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F249" t="s">
-        <v>531</v>
+        <v>201</v>
       </c>
       <c r="G249" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C250" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D250" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E250">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F250" t="s">
-        <v>533</v>
+        <v>201</v>
       </c>
       <c r="G250" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C251" t="s">
         <v>49</v>
@@ -9524,7 +10295,7 @@
         <v>49</v>
       </c>
       <c r="E251">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F251" t="s">
         <v>201</v>
@@ -9535,19 +10306,19 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C252" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D252" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E252">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F252" t="s">
-        <v>201</v>
+        <v>537</v>
       </c>
       <c r="G252" t="s">
         <v>21</v>
@@ -9555,47 +10326,53 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C253" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D253" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E253">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F253" t="s">
-        <v>201</v>
+        <v>539</v>
       </c>
       <c r="G253" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>537</v>
+        <v>540</v>
+      </c>
+      <c r="B254" t="s">
+        <v>541</v>
       </c>
       <c r="C254" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D254" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E254">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F254" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="G254" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>539</v>
+        <v>542</v>
+      </c>
+      <c r="B255" t="s">
+        <v>543</v>
       </c>
       <c r="C255" t="s">
         <v>41</v>
@@ -9604,33 +10381,30 @@
         <v>41</v>
       </c>
       <c r="E255">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F255" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G255" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>541</v>
-      </c>
-      <c r="B256" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C256" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D256" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E256">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F256" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="G256" t="s">
         <v>18</v>
@@ -9638,22 +10412,19 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>543</v>
-      </c>
-      <c r="B257" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C257" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D257" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E257">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F257" t="s">
-        <v>545</v>
+        <v>266</v>
       </c>
       <c r="G257" t="s">
         <v>21</v>
@@ -9661,19 +10432,22 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>546</v>
+        <v>548</v>
+      </c>
+      <c r="B258" t="s">
+        <v>549</v>
       </c>
       <c r="C258" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D258" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E258">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F258" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G258" t="s">
         <v>18</v>
@@ -9681,19 +10455,19 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C259" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D259" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E259">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F259" t="s">
-        <v>266</v>
+        <v>552</v>
       </c>
       <c r="G259" t="s">
         <v>21</v>
@@ -9701,10 +10475,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>549</v>
-      </c>
-      <c r="B260" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C260" t="s">
         <v>41</v>
@@ -9716,7 +10487,7 @@
         <v>7</v>
       </c>
       <c r="F260" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G260" t="s">
         <v>18</v>
@@ -9724,39 +10495,42 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>552</v>
+        <v>554</v>
+      </c>
+      <c r="B261" t="s">
+        <v>555</v>
       </c>
       <c r="C261" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D261" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E261">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F261" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G261" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C262" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D262" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E262">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F262" t="s">
-        <v>551</v>
+        <v>114</v>
       </c>
       <c r="G262" t="s">
         <v>18</v>
@@ -9764,67 +10538,24 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B263" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C263" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D263" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E263">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F263" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G263" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>558</v>
-      </c>
-      <c r="C264" t="s">
-        <v>27</v>
-      </c>
-      <c r="D264" t="s">
-        <v>65</v>
-      </c>
-      <c r="E264">
-        <v>32</v>
-      </c>
-      <c r="F264" t="s">
-        <v>114</v>
-      </c>
-      <c r="G264" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>559</v>
-      </c>
-      <c r="B265" t="s">
-        <v>560</v>
-      </c>
-      <c r="C265" t="s">
-        <v>15</v>
-      </c>
-      <c r="D265" t="s">
-        <v>16</v>
-      </c>
-      <c r="E265">
-        <v>3</v>
-      </c>
-      <c r="F265" t="s">
-        <v>561</v>
-      </c>
-      <c r="G265" t="s">
         <v>18</v>
       </c>
     </row>

--- a/data/dogbreeddata.xlsx
+++ b/data/dogbreeddata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AksV\Desktop\Coding\git_lessons\PawPal\pawpal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AD08C972-624D-4DD3-AE30-1714ADB773E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AB96F9CE-12A5-465C-9F0D-DF468861996B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="530">
   <si>
     <t>BreedName</t>
   </si>
@@ -982,12 +982,6 @@
     <t>Alert, Cheerful, Courageous, Energetic, Independent</t>
   </si>
   <si>
-    <t>Jack Russell Terrier (Parson Russell Terrier)</t>
-  </si>
-  <si>
-    <t>Energetic, Bold, Eager, Happy, Intelligent, Obedient</t>
-  </si>
-  <si>
     <t>Japanese Chin</t>
   </si>
   <si>
@@ -1003,9 +997,6 @@
     <t>Active, Bold, Brave, Faithful, Intelligent, Loyal</t>
   </si>
   <si>
-    <t>Jonangi</t>
-  </si>
-  <si>
     <t>Kai Dog</t>
   </si>
   <si>
@@ -1042,12 +1033,6 @@
     <t>Alert, Dignified, Docile, Faithful, Noble</t>
   </si>
   <si>
-    <t>Klee Kai</t>
-  </si>
-  <si>
-    <t>Active, Agile, Curious, Intelligent, Loyal, Quick, Territorial</t>
-  </si>
-  <si>
     <t>Kombai</t>
   </si>
   <si>
@@ -1060,24 +1045,12 @@
     <t>Affectionate, Calm, Fearless, Gentle, Independent, Steady</t>
   </si>
   <si>
-    <t>Kumaon Mastiff</t>
-  </si>
-  <si>
     <t>Kuvasz</t>
   </si>
   <si>
     <t>Clownish, Independent, Intelligent, Loyal, Patient, Protective</t>
   </si>
   <si>
-    <t>Kyi Leo</t>
-  </si>
-  <si>
-    <t>Active, Calm, Forgiving, Obedient, Playful, Quiet</t>
-  </si>
-  <si>
-    <t>Labrador Retriever</t>
-  </si>
-  <si>
     <t>Lakeland Terrier</t>
   </si>
   <si>
@@ -1108,9 +1081,6 @@
     <t>Active, Familial, Friendly, Happy, Playful</t>
   </si>
   <si>
-    <t>Mahratta Greyhound</t>
-  </si>
-  <si>
     <t>Maltese</t>
   </si>
   <si>
@@ -1132,12 +1102,6 @@
     <t>Alert, Determined, Dignified, Friendly, Intelligent, Loyal</t>
   </si>
   <si>
-    <t>Mastiff</t>
-  </si>
-  <si>
-    <t>Affectionate, Alert, Cheerful, Courageous, Intelligent, Loyal, Protective</t>
-  </si>
-  <si>
     <t>McNab</t>
   </si>
   <si>
@@ -1156,12 +1120,6 @@
     <t>Intelligent, Protective</t>
   </si>
   <si>
-    <t>Mountain Dog</t>
-  </si>
-  <si>
-    <t>Mudhold Hound</t>
-  </si>
-  <si>
     <t>Munsterlander</t>
   </si>
   <si>
@@ -1174,15 +1132,6 @@
     <t>Protective, Dominant, Fearless, Obedient, Stubborn, Trainable</t>
   </si>
   <si>
-    <t>New Guinea Singing Dog</t>
-  </si>
-  <si>
-    <t>Southern</t>
-  </si>
-  <si>
-    <t>Active, Affectionate, Alert, Gentle, Lively</t>
-  </si>
-  <si>
     <t>Newfoundland Dog</t>
   </si>
   <si>
@@ -1243,9 +1192,6 @@
     <t>Amiable, Boisterous, Even-tempered</t>
   </si>
   <si>
-    <t>Pandikona</t>
-  </si>
-  <si>
     <t>Papillon</t>
   </si>
   <si>
@@ -1300,9 +1246,6 @@
     <t>Active, Companionable, Friendly, Hardy, Lively, Loyal</t>
   </si>
   <si>
-    <t>Pointer</t>
-  </si>
-  <si>
     <t>Polish Lowland Sheepdog</t>
   </si>
   <si>
@@ -1321,15 +1264,6 @@
     <t>Active, Alert, Faithful, Instinctual, Intelligent, Trainable</t>
   </si>
   <si>
-    <t>Standard Poodle</t>
-  </si>
-  <si>
-    <t>Miniature Poodle</t>
-  </si>
-  <si>
-    <t>Toy Poodle</t>
-  </si>
-  <si>
     <t>Portuguese Water Dog</t>
   </si>
   <si>
@@ -1381,9 +1315,6 @@
     <t>Affectionate, Companionable, Energetic, Familial, Independent, Unflappable</t>
   </si>
   <si>
-    <t>Retriever</t>
-  </si>
-  <si>
     <t>Rhodesian Ridgeback</t>
   </si>
   <si>
@@ -1459,21 +1390,12 @@
     <t>Alert, Calm, Even-tempered, Fearless, Friendly, Intelligent</t>
   </si>
   <si>
-    <t>Setter</t>
-  </si>
-  <si>
     <t>Shar Pei</t>
   </si>
   <si>
     <t>Affectionate, Devoted, Independent, Loving, Reserved, Suspicious</t>
   </si>
   <si>
-    <t>Sheep Dog</t>
-  </si>
-  <si>
-    <t>Shepherd</t>
-  </si>
-  <si>
     <t>Shetland Sheepdog Sheltie</t>
   </si>
   <si>
@@ -1495,9 +1417,6 @@
     <t>Active, Courageous, Friendly, Gentle, Happy, Intelligent, Lively, Outgoing, Playful</t>
   </si>
   <si>
-    <t>Siberian Husky</t>
-  </si>
-  <si>
     <t>Silky Terrier</t>
   </si>
   <si>
@@ -1516,21 +1435,12 @@
     <t>Alert, Faithful, Intelligent, Sensitive, Independent, Playful, Sweet</t>
   </si>
   <si>
-    <t>Smooth Fox Terrier</t>
-  </si>
-  <si>
     <t>South Russian Ovtcharka</t>
   </si>
   <si>
     <t>Active, Balanced, Courageous, Lively, Nervous</t>
   </si>
   <si>
-    <t>Spaniel</t>
-  </si>
-  <si>
-    <t>Spitz</t>
-  </si>
-  <si>
     <t>Staffordshire Bull Terrier</t>
   </si>
   <si>
@@ -1555,12 +1465,6 @@
     <t>Affectionate, Alert, Courageous, Intelligent, Friendly, Hardy, Independent</t>
   </si>
   <si>
-    <t>Thai Ridgeback</t>
-  </si>
-  <si>
-    <t>Familial, Independent, Loving, Loyal, Protective</t>
-  </si>
-  <si>
     <t>Tibetan Mastiff</t>
   </si>
   <si>
@@ -1603,9 +1507,6 @@
     <t>Affectionate, Clever, Confident, Loving, Trainable</t>
   </si>
   <si>
-    <t>Vanjari Hound</t>
-  </si>
-  <si>
     <t>Vikhan Sheepdog</t>
   </si>
   <si>
@@ -1621,15 +1522,6 @@
     <t>Alert, Aloof, Energetic, Fast, Intelligent, Powerful, Steady, Stubborn, Social</t>
   </si>
   <si>
-    <t>Welsh Corgi</t>
-  </si>
-  <si>
-    <t>Cardigan</t>
-  </si>
-  <si>
-    <t>Pembroke</t>
-  </si>
-  <si>
     <t>Welsh Springer Spaniel</t>
   </si>
   <si>
@@ -1663,27 +1555,12 @@
     <t>Affectionate, Friendly, Gentle, Intelligent, Lively, Quiet</t>
   </si>
   <si>
-    <t>White German Shepherd</t>
-  </si>
-  <si>
-    <t>Wire Fox Terrier</t>
-  </si>
-  <si>
-    <t>Wire Haired Fox Terrier</t>
-  </si>
-  <si>
-    <t>Alert, Bold, Fearless, Friendly, Keen, Quick, Intelligent</t>
-  </si>
-  <si>
     <t>Wire-haired Pointing Griffon</t>
   </si>
   <si>
     <t>Gentle, Loyal, Proud, Trainable, Vigilant, Intelligent</t>
   </si>
   <si>
-    <t>Wirehaired Terrier</t>
-  </si>
-  <si>
     <t>Xoloitzcuintle/Mexican Hairless</t>
   </si>
   <si>
@@ -1693,9 +1570,6 @@
     <t>Aleret, Calm, Cheerful, Companionable, Loyal, Protective</t>
   </si>
   <si>
-    <t>Yellow Labrador Retriever</t>
-  </si>
-  <si>
     <t>Yorkshire Terrier Yorkie</t>
   </si>
   <si>
@@ -1715,6 +1589,27 @@
   </si>
   <si>
     <t>Intelligent, Kind, Playful, Athletic</t>
+  </si>
+  <si>
+    <t>Agile, Graceful, Protective</t>
+  </si>
+  <si>
+    <t>Aggressive, Savage</t>
+  </si>
+  <si>
+    <t>Mudhol Hound</t>
+  </si>
+  <si>
+    <t>Loyal, Graceful, Courageous, Elegant</t>
+  </si>
+  <si>
+    <t>Loyal, Protective, Gentle</t>
+  </si>
+  <si>
+    <t>Affectionate, Devoted, Loyal</t>
+  </si>
+  <si>
+    <t>Intelligent, Fearless, Fierce, Territorial</t>
   </si>
 </sst>
 </file>
@@ -2555,10 +2450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N263"/>
+  <dimension ref="A1:N229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="H133" sqref="H133"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="J229" sqref="J229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6810,7 +6705,7 @@
         <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
       <c r="G103" t="s">
         <v>21</v>
@@ -7431,7 +7326,7 @@
         <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>562</v>
+        <v>520</v>
       </c>
       <c r="G118" t="s">
         <v>21</v>
@@ -7721,7 +7616,7 @@
         <v>80</v>
       </c>
       <c r="F125" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="G125" t="s">
         <v>21</v>
@@ -7762,7 +7657,7 @@
         <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>563</v>
+        <v>521</v>
       </c>
       <c r="G126" t="s">
         <v>18</v>
@@ -7803,7 +7698,7 @@
         <v>15</v>
       </c>
       <c r="F127" t="s">
-        <v>564</v>
+        <v>522</v>
       </c>
       <c r="G127" t="s">
         <v>18</v>
@@ -8054,6 +7949,27 @@
       <c r="G133" t="s">
         <v>18</v>
       </c>
+      <c r="H133" t="s">
+        <v>19</v>
+      </c>
+      <c r="I133" t="s">
+        <v>30</v>
+      </c>
+      <c r="J133" t="s">
+        <v>21</v>
+      </c>
+      <c r="K133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L133" t="s">
+        <v>32</v>
+      </c>
+      <c r="M133" t="s">
+        <v>33</v>
+      </c>
+      <c r="N133" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
@@ -8074,48 +7990,111 @@
       <c r="G134" t="s">
         <v>21</v>
       </c>
+      <c r="H134" t="s">
+        <v>43</v>
+      </c>
+      <c r="I134" t="s">
+        <v>33</v>
+      </c>
+      <c r="J134" t="s">
+        <v>21</v>
+      </c>
+      <c r="K134" t="s">
+        <v>22</v>
+      </c>
+      <c r="L134" t="s">
+        <v>20</v>
+      </c>
+      <c r="M134" t="s">
+        <v>33</v>
+      </c>
+      <c r="N134" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>320</v>
       </c>
+      <c r="B135" t="s">
+        <v>321</v>
+      </c>
       <c r="C135" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E135">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F135" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G135" t="s">
         <v>18</v>
+      </c>
+      <c r="H135" t="s">
+        <v>19</v>
+      </c>
+      <c r="I135" t="s">
+        <v>20</v>
+      </c>
+      <c r="J135" t="s">
+        <v>18</v>
+      </c>
+      <c r="K135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L135" t="s">
+        <v>32</v>
+      </c>
+      <c r="M135" t="s">
+        <v>30</v>
+      </c>
+      <c r="N135" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>322</v>
-      </c>
-      <c r="B136" t="s">
         <v>323</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F136" t="s">
         <v>324</v>
       </c>
       <c r="G136" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="H136" t="s">
+        <v>43</v>
+      </c>
+      <c r="I136" t="s">
+        <v>33</v>
+      </c>
+      <c r="J136" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136" t="s">
+        <v>31</v>
+      </c>
+      <c r="L136" t="s">
+        <v>32</v>
+      </c>
+      <c r="M136" t="s">
+        <v>33</v>
+      </c>
+      <c r="N136" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
@@ -8123,213 +8102,540 @@
         <v>325</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D137" t="s">
         <v>53</v>
       </c>
       <c r="E137">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F137" t="s">
         <v>326</v>
       </c>
       <c r="G137" t="s">
         <v>21</v>
+      </c>
+      <c r="H137" t="s">
+        <v>43</v>
+      </c>
+      <c r="I137" t="s">
+        <v>20</v>
+      </c>
+      <c r="J137" t="s">
+        <v>18</v>
+      </c>
+      <c r="K137" t="s">
+        <v>22</v>
+      </c>
+      <c r="L137" t="s">
+        <v>32</v>
+      </c>
+      <c r="M137" t="s">
+        <v>33</v>
+      </c>
+      <c r="N137" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>327</v>
       </c>
+      <c r="B138" t="s">
+        <v>328</v>
+      </c>
+      <c r="C138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D138" t="s">
+        <v>46</v>
+      </c>
+      <c r="E138">
+        <v>20</v>
+      </c>
+      <c r="F138" t="s">
+        <v>523</v>
+      </c>
+      <c r="G138" t="s">
+        <v>21</v>
+      </c>
+      <c r="H138" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" t="s">
+        <v>33</v>
+      </c>
+      <c r="J138" t="s">
+        <v>21</v>
+      </c>
+      <c r="K138" t="s">
+        <v>31</v>
+      </c>
+      <c r="L138" t="s">
+        <v>23</v>
+      </c>
+      <c r="M138" t="s">
+        <v>33</v>
+      </c>
+      <c r="N138" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C139" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D139" t="s">
         <v>53</v>
       </c>
       <c r="E139">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F139" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G139" t="s">
         <v>21</v>
+      </c>
+      <c r="H139" t="s">
+        <v>38</v>
+      </c>
+      <c r="I139" t="s">
+        <v>33</v>
+      </c>
+      <c r="J139" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" t="s">
+        <v>31</v>
+      </c>
+      <c r="L139" t="s">
+        <v>32</v>
+      </c>
+      <c r="M139" t="s">
+        <v>33</v>
+      </c>
+      <c r="N139" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>330</v>
-      </c>
-      <c r="B140" t="s">
         <v>331</v>
+      </c>
+      <c r="C140" t="s">
+        <v>58</v>
+      </c>
+      <c r="D140" t="s">
+        <v>53</v>
+      </c>
+      <c r="E140">
+        <v>18</v>
+      </c>
+      <c r="F140" t="s">
+        <v>332</v>
+      </c>
+      <c r="G140" t="s">
+        <v>21</v>
+      </c>
+      <c r="H140" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" t="s">
+        <v>33</v>
+      </c>
+      <c r="J140" t="s">
+        <v>21</v>
+      </c>
+      <c r="K140" t="s">
+        <v>31</v>
+      </c>
+      <c r="L140" t="s">
+        <v>32</v>
+      </c>
+      <c r="M140" t="s">
+        <v>33</v>
+      </c>
+      <c r="N140" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D141" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E141">
+        <v>17</v>
+      </c>
+      <c r="F141" t="s">
+        <v>334</v>
+      </c>
+      <c r="G141" t="s">
+        <v>21</v>
+      </c>
+      <c r="H141" t="s">
+        <v>43</v>
+      </c>
+      <c r="I141" t="s">
+        <v>33</v>
+      </c>
+      <c r="J141" t="s">
+        <v>21</v>
+      </c>
+      <c r="K141" t="s">
         <v>22</v>
       </c>
-      <c r="F141" t="s">
-        <v>333</v>
-      </c>
-      <c r="G141" t="s">
-        <v>21</v>
+      <c r="L141" t="s">
+        <v>20</v>
+      </c>
+      <c r="M141" t="s">
+        <v>33</v>
+      </c>
+      <c r="N141" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C142" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D142" t="s">
         <v>53</v>
       </c>
       <c r="E142">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F142" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G142" t="s">
         <v>21</v>
+      </c>
+      <c r="H142" t="s">
+        <v>43</v>
+      </c>
+      <c r="I142" t="s">
+        <v>30</v>
+      </c>
+      <c r="J142" t="s">
+        <v>18</v>
+      </c>
+      <c r="K142" t="s">
+        <v>31</v>
+      </c>
+      <c r="L142" t="s">
+        <v>20</v>
+      </c>
+      <c r="M142" t="s">
+        <v>24</v>
+      </c>
+      <c r="N142" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+      <c r="B143" t="s">
+        <v>338</v>
       </c>
       <c r="C143" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D143" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E143">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F143" t="s">
-        <v>337</v>
-      </c>
-      <c r="G143" t="s">
-        <v>21</v>
+        <v>524</v>
+      </c>
+      <c r="H143" t="s">
+        <v>38</v>
+      </c>
+      <c r="I143" t="s">
+        <v>33</v>
+      </c>
+      <c r="J143" t="s">
+        <v>21</v>
+      </c>
+      <c r="K143" t="s">
+        <v>31</v>
+      </c>
+      <c r="L143" t="s">
+        <v>23</v>
+      </c>
+      <c r="M143" t="s">
+        <v>33</v>
+      </c>
+      <c r="N143" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D144" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E144">
+        <v>59</v>
+      </c>
+      <c r="F144" t="s">
+        <v>340</v>
+      </c>
+      <c r="G144" t="s">
+        <v>21</v>
+      </c>
+      <c r="H144" t="s">
+        <v>38</v>
+      </c>
+      <c r="I144" t="s">
+        <v>33</v>
+      </c>
+      <c r="J144" t="s">
+        <v>18</v>
+      </c>
+      <c r="K144" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144" t="s">
+        <v>32</v>
+      </c>
+      <c r="M144" t="s">
+        <v>30</v>
+      </c>
+      <c r="N144" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>341</v>
+      </c>
+      <c r="C145" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145">
+        <v>49</v>
+      </c>
+      <c r="F145" t="s">
+        <v>342</v>
+      </c>
+      <c r="G145" t="s">
+        <v>21</v>
+      </c>
+      <c r="H145" t="s">
+        <v>38</v>
+      </c>
+      <c r="I145" t="s">
         <v>20</v>
       </c>
-      <c r="F144" t="s">
-        <v>339</v>
-      </c>
-      <c r="G144" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>340</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="J145" t="s">
+        <v>18</v>
+      </c>
+      <c r="K145" t="s">
+        <v>31</v>
+      </c>
+      <c r="L145" t="s">
+        <v>32</v>
+      </c>
+      <c r="M145" t="s">
+        <v>33</v>
+      </c>
+      <c r="N145" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>343</v>
+      </c>
+      <c r="C146" t="s">
+        <v>41</v>
+      </c>
+      <c r="D146" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146">
+        <v>8</v>
+      </c>
+      <c r="F146" t="s">
+        <v>344</v>
+      </c>
+      <c r="G146" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s">
+        <v>33</v>
+      </c>
+      <c r="J146" t="s">
+        <v>21</v>
+      </c>
+      <c r="K146" t="s">
+        <v>22</v>
+      </c>
+      <c r="L146" t="s">
+        <v>32</v>
+      </c>
+      <c r="M146" t="s">
+        <v>33</v>
+      </c>
+      <c r="N146" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>345</v>
+      </c>
+      <c r="C147" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" t="s">
+        <v>49</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="F147" t="s">
+        <v>346</v>
+      </c>
+      <c r="G147" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" t="s">
+        <v>38</v>
+      </c>
+      <c r="I147" t="s">
+        <v>30</v>
+      </c>
+      <c r="J147" t="s">
+        <v>18</v>
+      </c>
+      <c r="K147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L147" t="s">
+        <v>20</v>
+      </c>
+      <c r="M147" t="s">
+        <v>33</v>
+      </c>
+      <c r="N147" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>347</v>
+      </c>
+      <c r="C148" t="s">
+        <v>45</v>
+      </c>
+      <c r="D148" t="s">
+        <v>46</v>
+      </c>
+      <c r="E148">
+        <v>64</v>
+      </c>
+      <c r="F148" t="s">
+        <v>348</v>
+      </c>
+      <c r="G148" t="s">
+        <v>21</v>
+      </c>
+      <c r="H148" t="s">
+        <v>38</v>
+      </c>
+      <c r="I148" t="s">
+        <v>20</v>
+      </c>
+      <c r="J148" t="s">
+        <v>21</v>
+      </c>
+      <c r="K148" t="s">
+        <v>31</v>
+      </c>
+      <c r="L148" t="s">
+        <v>32</v>
+      </c>
+      <c r="M148" t="s">
+        <v>33</v>
+      </c>
+      <c r="N148" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>349</v>
+      </c>
+      <c r="C149" t="s">
         <v>58</v>
       </c>
-      <c r="D145" t="s">
-        <v>53</v>
-      </c>
-      <c r="E145">
-        <v>7</v>
-      </c>
-      <c r="F145" t="s">
-        <v>341</v>
-      </c>
-      <c r="G145" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>342</v>
-      </c>
-      <c r="B146" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>344</v>
-      </c>
-      <c r="C147" t="s">
-        <v>45</v>
-      </c>
-      <c r="D147" t="s">
-        <v>46</v>
-      </c>
-      <c r="E147">
-        <v>59</v>
-      </c>
-      <c r="F147" t="s">
-        <v>345</v>
-      </c>
-      <c r="G147" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>346</v>
-      </c>
-      <c r="G148" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>347</v>
-      </c>
-      <c r="C149" t="s">
-        <v>45</v>
-      </c>
       <c r="D149" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E149">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G149" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H149" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" t="s">
+        <v>33</v>
+      </c>
+      <c r="J149" t="s">
+        <v>21</v>
+      </c>
+      <c r="K149" t="s">
+        <v>22</v>
+      </c>
+      <c r="L149" t="s">
+        <v>23</v>
+      </c>
+      <c r="M149" t="s">
+        <v>33</v>
+      </c>
+      <c r="N149" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C150" t="s">
         <v>58</v>
@@ -8338,38 +8644,83 @@
         <v>16</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F150" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G150" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s">
+        <v>33</v>
+      </c>
+      <c r="J150" t="s">
+        <v>21</v>
+      </c>
+      <c r="K150" t="s">
+        <v>22</v>
+      </c>
+      <c r="L150" t="s">
+        <v>32</v>
+      </c>
+      <c r="M150" t="s">
+        <v>33</v>
+      </c>
+      <c r="N150" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>351</v>
+        <v>353</v>
+      </c>
+      <c r="B151" t="s">
+        <v>354</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E151">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F151" t="s">
-        <v>114</v>
+        <v>355</v>
       </c>
       <c r="G151" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" t="s">
+        <v>30</v>
+      </c>
+      <c r="J151" t="s">
+        <v>18</v>
+      </c>
+      <c r="K151" t="s">
+        <v>22</v>
+      </c>
+      <c r="L151" t="s">
+        <v>32</v>
+      </c>
+      <c r="M151" t="s">
+        <v>24</v>
+      </c>
+      <c r="N151" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C152" t="s">
         <v>41</v>
@@ -8378,146 +8729,329 @@
         <v>41</v>
       </c>
       <c r="E152">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F152" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G152" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
+        <v>33</v>
+      </c>
+      <c r="J152" t="s">
+        <v>18</v>
+      </c>
+      <c r="K152" t="s">
+        <v>22</v>
+      </c>
+      <c r="L152" t="s">
+        <v>20</v>
+      </c>
+      <c r="M152" t="s">
+        <v>33</v>
+      </c>
+      <c r="N152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C153" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" t="s">
+        <v>46</v>
+      </c>
+      <c r="E153">
+        <v>38</v>
+      </c>
+      <c r="F153" t="s">
+        <v>359</v>
+      </c>
+      <c r="G153" t="s">
+        <v>21</v>
+      </c>
+      <c r="H153" t="s">
+        <v>38</v>
+      </c>
+      <c r="I153" t="s">
+        <v>20</v>
+      </c>
+      <c r="J153" t="s">
+        <v>21</v>
+      </c>
+      <c r="K153" t="s">
+        <v>31</v>
+      </c>
+      <c r="L153" t="s">
+        <v>20</v>
+      </c>
+      <c r="M153" t="s">
+        <v>33</v>
+      </c>
+      <c r="N153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>360</v>
+      </c>
+      <c r="C154" t="s">
         <v>49</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D154" t="s">
         <v>49</v>
       </c>
-      <c r="E153">
-        <v>5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>355</v>
-      </c>
-      <c r="G153" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>356</v>
-      </c>
-      <c r="C154" t="s">
-        <v>45</v>
-      </c>
-      <c r="D154" t="s">
-        <v>46</v>
-      </c>
       <c r="E154">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F154" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G154" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H154" t="s">
+        <v>38</v>
+      </c>
+      <c r="I154" t="s">
+        <v>20</v>
+      </c>
+      <c r="J154" t="s">
+        <v>21</v>
+      </c>
+      <c r="K154" t="s">
+        <v>31</v>
+      </c>
+      <c r="L154" t="s">
+        <v>23</v>
+      </c>
+      <c r="M154" t="s">
+        <v>24</v>
+      </c>
+      <c r="N154" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C155" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D155" t="s">
         <v>16</v>
       </c>
       <c r="E155">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F155" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G155" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155" t="s">
+        <v>30</v>
+      </c>
+      <c r="J155" t="s">
+        <v>18</v>
+      </c>
+      <c r="K155" t="s">
+        <v>31</v>
+      </c>
+      <c r="L155" t="s">
+        <v>32</v>
+      </c>
+      <c r="M155" t="s">
+        <v>33</v>
+      </c>
+      <c r="N155" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C156" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E156">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F156" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G156" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H156" t="s">
+        <v>38</v>
+      </c>
+      <c r="I156" t="s">
+        <v>33</v>
+      </c>
+      <c r="J156" t="s">
+        <v>21</v>
+      </c>
+      <c r="K156" t="s">
+        <v>31</v>
+      </c>
+      <c r="L156" t="s">
+        <v>23</v>
+      </c>
+      <c r="M156" t="s">
+        <v>33</v>
+      </c>
+      <c r="N156" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="C157" t="s">
+        <v>36</v>
+      </c>
+      <c r="D157" t="s">
+        <v>46</v>
+      </c>
+      <c r="E157">
+        <v>25</v>
+      </c>
+      <c r="F157" t="s">
+        <v>526</v>
+      </c>
+      <c r="G157" t="s">
+        <v>21</v>
+      </c>
+      <c r="H157" t="s">
+        <v>38</v>
+      </c>
+      <c r="I157" t="s">
+        <v>33</v>
+      </c>
+      <c r="J157" t="s">
+        <v>18</v>
+      </c>
+      <c r="K157" t="s">
+        <v>31</v>
+      </c>
+      <c r="L157" t="s">
+        <v>23</v>
+      </c>
+      <c r="M157" t="s">
+        <v>33</v>
+      </c>
+      <c r="N157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>363</v>
-      </c>
-      <c r="B158" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E158">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F158" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G158" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" t="s">
+        <v>38</v>
+      </c>
+      <c r="I158" t="s">
+        <v>20</v>
+      </c>
+      <c r="J158" t="s">
+        <v>21</v>
+      </c>
+      <c r="K158" t="s">
+        <v>22</v>
+      </c>
+      <c r="L158" t="s">
+        <v>23</v>
+      </c>
+      <c r="M158" t="s">
+        <v>33</v>
+      </c>
+      <c r="N158" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C159" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D159" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E159">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F159" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G159" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H159" t="s">
+        <v>38</v>
+      </c>
+      <c r="I159" t="s">
+        <v>30</v>
+      </c>
+      <c r="J159" t="s">
+        <v>21</v>
+      </c>
+      <c r="K159" t="s">
+        <v>31</v>
+      </c>
+      <c r="L159" t="s">
+        <v>32</v>
+      </c>
+      <c r="M159" t="s">
+        <v>24</v>
+      </c>
+      <c r="N159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>368</v>
+        <v>370</v>
+      </c>
+      <c r="B160" t="s">
+        <v>371</v>
       </c>
       <c r="C160" t="s">
         <v>45</v>
@@ -8526,286 +9060,613 @@
         <v>46</v>
       </c>
       <c r="E160">
+        <v>65</v>
+      </c>
+      <c r="F160" t="s">
+        <v>372</v>
+      </c>
+      <c r="G160" t="s">
+        <v>21</v>
+      </c>
+      <c r="H160" t="s">
         <v>38</v>
       </c>
-      <c r="F160" t="s">
-        <v>369</v>
-      </c>
-      <c r="G160" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I160" t="s">
+        <v>33</v>
+      </c>
+      <c r="J160" t="s">
+        <v>21</v>
+      </c>
+      <c r="K160" t="s">
+        <v>31</v>
+      </c>
+      <c r="L160" t="s">
+        <v>32</v>
+      </c>
+      <c r="M160" t="s">
+        <v>24</v>
+      </c>
+      <c r="N160" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C161" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D161" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E161">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G161" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H161" t="s">
+        <v>19</v>
+      </c>
+      <c r="I161" t="s">
+        <v>20</v>
+      </c>
+      <c r="J161" t="s">
+        <v>21</v>
+      </c>
+      <c r="K161" t="s">
+        <v>22</v>
+      </c>
+      <c r="L161" t="s">
+        <v>20</v>
+      </c>
+      <c r="M161" t="s">
+        <v>33</v>
+      </c>
+      <c r="N161" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C162" t="s">
         <v>49</v>
       </c>
       <c r="D162" t="s">
+        <v>53</v>
+      </c>
+      <c r="E162">
+        <v>16</v>
+      </c>
+      <c r="F162" t="s">
+        <v>376</v>
+      </c>
+      <c r="G162" t="s">
+        <v>21</v>
+      </c>
+      <c r="H162" t="s">
+        <v>43</v>
+      </c>
+      <c r="I162" t="s">
+        <v>33</v>
+      </c>
+      <c r="J162" t="s">
+        <v>21</v>
+      </c>
+      <c r="K162" t="s">
+        <v>31</v>
+      </c>
+      <c r="L162" t="s">
+        <v>23</v>
+      </c>
+      <c r="M162" t="s">
+        <v>33</v>
+      </c>
+      <c r="N162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>377</v>
+      </c>
+      <c r="C163" t="s">
+        <v>84</v>
+      </c>
+      <c r="D163" t="s">
+        <v>53</v>
+      </c>
+      <c r="E163">
+        <v>26</v>
+      </c>
+      <c r="F163" t="s">
+        <v>378</v>
+      </c>
+      <c r="G163" t="s">
+        <v>21</v>
+      </c>
+      <c r="H163" t="s">
+        <v>19</v>
+      </c>
+      <c r="I163" t="s">
+        <v>33</v>
+      </c>
+      <c r="J163" t="s">
+        <v>21</v>
+      </c>
+      <c r="K163" t="s">
+        <v>31</v>
+      </c>
+      <c r="L163" t="s">
+        <v>32</v>
+      </c>
+      <c r="M163" t="s">
+        <v>33</v>
+      </c>
+      <c r="N163" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>379</v>
+      </c>
+      <c r="C164" t="s">
+        <v>58</v>
+      </c>
+      <c r="D164" t="s">
+        <v>53</v>
+      </c>
+      <c r="E164">
+        <v>8</v>
+      </c>
+      <c r="F164" t="s">
+        <v>380</v>
+      </c>
+      <c r="G164" t="s">
+        <v>21</v>
+      </c>
+      <c r="H164" t="s">
+        <v>38</v>
+      </c>
+      <c r="I164" t="s">
+        <v>30</v>
+      </c>
+      <c r="J164" t="s">
+        <v>21</v>
+      </c>
+      <c r="K164" t="s">
+        <v>31</v>
+      </c>
+      <c r="L164" t="s">
+        <v>32</v>
+      </c>
+      <c r="M164" t="s">
+        <v>33</v>
+      </c>
+      <c r="N164" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>381</v>
+      </c>
+      <c r="C165" t="s">
+        <v>41</v>
+      </c>
+      <c r="D165" t="s">
+        <v>41</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165" t="s">
+        <v>382</v>
+      </c>
+      <c r="G165" t="s">
+        <v>18</v>
+      </c>
+      <c r="H165" t="s">
+        <v>19</v>
+      </c>
+      <c r="I165" t="s">
+        <v>33</v>
+      </c>
+      <c r="J165" t="s">
+        <v>21</v>
+      </c>
+      <c r="K165" t="s">
+        <v>22</v>
+      </c>
+      <c r="L165" t="s">
+        <v>32</v>
+      </c>
+      <c r="M165" t="s">
+        <v>33</v>
+      </c>
+      <c r="N165" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>383</v>
+      </c>
+      <c r="C166" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" t="s">
+        <v>384</v>
+      </c>
+      <c r="E166">
+        <v>20</v>
+      </c>
+      <c r="F166" t="s">
+        <v>385</v>
+      </c>
+      <c r="G166" t="s">
+        <v>21</v>
+      </c>
+      <c r="H166" t="s">
+        <v>38</v>
+      </c>
+      <c r="I166" t="s">
+        <v>33</v>
+      </c>
+      <c r="J166" t="s">
+        <v>21</v>
+      </c>
+      <c r="K166" t="s">
+        <v>22</v>
+      </c>
+      <c r="L166" t="s">
+        <v>32</v>
+      </c>
+      <c r="M166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N166" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>386</v>
+      </c>
+      <c r="C167" t="s">
         <v>49</v>
       </c>
-      <c r="E162">
+      <c r="D167" t="s">
+        <v>49</v>
+      </c>
+      <c r="E167">
+        <v>39</v>
+      </c>
+      <c r="F167" t="s">
+        <v>387</v>
+      </c>
+      <c r="G167" t="s">
+        <v>21</v>
+      </c>
+      <c r="H167" t="s">
+        <v>19</v>
+      </c>
+      <c r="I167" t="s">
+        <v>30</v>
+      </c>
+      <c r="J167" t="s">
+        <v>21</v>
+      </c>
+      <c r="K167" t="s">
+        <v>31</v>
+      </c>
+      <c r="L167" t="s">
+        <v>32</v>
+      </c>
+      <c r="M167" t="s">
+        <v>33</v>
+      </c>
+      <c r="N167" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>388</v>
+      </c>
+      <c r="C168" t="s">
+        <v>84</v>
+      </c>
+      <c r="D168" t="s">
+        <v>88</v>
+      </c>
+      <c r="E168">
+        <v>41</v>
+      </c>
+      <c r="F168" t="s">
+        <v>389</v>
+      </c>
+      <c r="G168" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" t="s">
+        <v>38</v>
+      </c>
+      <c r="I168" t="s">
+        <v>30</v>
+      </c>
+      <c r="J168" t="s">
+        <v>21</v>
+      </c>
+      <c r="K168" t="s">
+        <v>22</v>
+      </c>
+      <c r="L168" t="s">
         <v>23</v>
       </c>
-      <c r="F162" t="s">
-        <v>373</v>
-      </c>
-      <c r="G162" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>374</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="M168" t="s">
+        <v>33</v>
+      </c>
+      <c r="N168" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>390</v>
+      </c>
+      <c r="C169" t="s">
         <v>15</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D169" t="s">
         <v>16</v>
       </c>
-      <c r="E163">
+      <c r="E169">
         <v>5</v>
       </c>
-      <c r="F163" t="s">
-        <v>375</v>
-      </c>
-      <c r="G163" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>376</v>
-      </c>
-      <c r="C164" t="s">
-        <v>45</v>
-      </c>
-      <c r="D164" t="s">
-        <v>88</v>
-      </c>
-      <c r="E164">
+      <c r="F169" t="s">
+        <v>391</v>
+      </c>
+      <c r="G169" t="s">
+        <v>18</v>
+      </c>
+      <c r="H169" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" t="s">
+        <v>30</v>
+      </c>
+      <c r="J169" t="s">
+        <v>18</v>
+      </c>
+      <c r="K169" t="s">
+        <v>22</v>
+      </c>
+      <c r="L169" t="s">
+        <v>32</v>
+      </c>
+      <c r="M169" t="s">
+        <v>33</v>
+      </c>
+      <c r="N169" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>392</v>
+      </c>
+      <c r="C170" t="s">
+        <v>41</v>
+      </c>
+      <c r="D170" t="s">
+        <v>41</v>
+      </c>
+      <c r="E170">
+        <v>6</v>
+      </c>
+      <c r="F170" t="s">
+        <v>393</v>
+      </c>
+      <c r="G170" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" t="s">
+        <v>43</v>
+      </c>
+      <c r="I170" t="s">
+        <v>33</v>
+      </c>
+      <c r="J170" t="s">
+        <v>18</v>
+      </c>
+      <c r="K170" t="s">
+        <v>22</v>
+      </c>
+      <c r="L170" t="s">
         <v>20</v>
       </c>
-      <c r="F164" t="s">
-        <v>377</v>
-      </c>
-      <c r="G164" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>378</v>
-      </c>
-      <c r="C165" t="s">
-        <v>45</v>
-      </c>
-      <c r="D165" t="s">
-        <v>46</v>
-      </c>
-      <c r="E165">
-        <v>44</v>
-      </c>
-      <c r="F165" t="s">
-        <v>108</v>
-      </c>
-      <c r="G165" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>380</v>
-      </c>
-      <c r="C167" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" t="s">
-        <v>65</v>
-      </c>
-      <c r="E167">
+      <c r="M170" t="s">
+        <v>33</v>
+      </c>
+      <c r="N170" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>394</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171" t="s">
+        <v>395</v>
+      </c>
+      <c r="G171" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" t="s">
+        <v>19</v>
+      </c>
+      <c r="I171" t="s">
+        <v>33</v>
+      </c>
+      <c r="J171" t="s">
+        <v>18</v>
+      </c>
+      <c r="K171" t="s">
+        <v>22</v>
+      </c>
+      <c r="L171" t="s">
         <v>20</v>
       </c>
-      <c r="F167" t="s">
-        <v>381</v>
-      </c>
-      <c r="G167" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>382</v>
-      </c>
-      <c r="C168" t="s">
-        <v>45</v>
-      </c>
-      <c r="D168" t="s">
-        <v>46</v>
-      </c>
-      <c r="E168">
-        <v>60</v>
-      </c>
-      <c r="F168" t="s">
-        <v>383</v>
-      </c>
-      <c r="G168" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>384</v>
-      </c>
-      <c r="C169" t="s">
-        <v>385</v>
-      </c>
-      <c r="D169" t="s">
-        <v>385</v>
-      </c>
-      <c r="E169">
-        <v>11</v>
-      </c>
-      <c r="F169" t="s">
-        <v>386</v>
-      </c>
-      <c r="G169" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>387</v>
-      </c>
-      <c r="B170" t="s">
-        <v>388</v>
-      </c>
-      <c r="C170" t="s">
-        <v>45</v>
-      </c>
-      <c r="D170" t="s">
-        <v>46</v>
-      </c>
-      <c r="E170">
-        <v>65</v>
-      </c>
-      <c r="F170" t="s">
-        <v>389</v>
-      </c>
-      <c r="G170" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>390</v>
-      </c>
-      <c r="C171" t="s">
-        <v>41</v>
-      </c>
-      <c r="D171" t="s">
-        <v>41</v>
-      </c>
-      <c r="E171">
-        <v>5</v>
-      </c>
-      <c r="F171" t="s">
-        <v>391</v>
-      </c>
-      <c r="G171" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M171" t="s">
+        <v>30</v>
+      </c>
+      <c r="N171" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C172" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D172" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E172">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G172" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172" t="s">
+        <v>38</v>
+      </c>
+      <c r="I172" t="s">
+        <v>33</v>
+      </c>
+      <c r="J172" t="s">
+        <v>21</v>
+      </c>
+      <c r="K172" t="s">
+        <v>31</v>
+      </c>
+      <c r="L172" t="s">
+        <v>20</v>
+      </c>
+      <c r="M172" t="s">
+        <v>33</v>
+      </c>
+      <c r="N172" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C173" t="s">
         <v>84</v>
       </c>
       <c r="D173" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E173">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F173" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G173" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H173" t="s">
+        <v>19</v>
+      </c>
+      <c r="I173" t="s">
+        <v>33</v>
+      </c>
+      <c r="J173" t="s">
+        <v>21</v>
+      </c>
+      <c r="K173" t="s">
+        <v>22</v>
+      </c>
+      <c r="L173" t="s">
+        <v>20</v>
+      </c>
+      <c r="M173" t="s">
+        <v>33</v>
+      </c>
+      <c r="N173" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C174" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D174" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E174">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F174" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G174" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H174" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" t="s">
+        <v>33</v>
+      </c>
+      <c r="J174" t="s">
+        <v>21</v>
+      </c>
+      <c r="K174" t="s">
+        <v>22</v>
+      </c>
+      <c r="L174" t="s">
+        <v>32</v>
+      </c>
+      <c r="M174" t="s">
+        <v>30</v>
+      </c>
+      <c r="N174" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C175" t="s">
         <v>41</v>
@@ -8814,1749 +9675,2281 @@
         <v>41</v>
       </c>
       <c r="E175">
+        <v>23</v>
+      </c>
+      <c r="F175" t="s">
+        <v>403</v>
+      </c>
+      <c r="G175" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" t="s">
+        <v>43</v>
+      </c>
+      <c r="I175" t="s">
+        <v>20</v>
+      </c>
+      <c r="J175" t="s">
+        <v>21</v>
+      </c>
+      <c r="K175" t="s">
+        <v>31</v>
+      </c>
+      <c r="L175" t="s">
+        <v>32</v>
+      </c>
+      <c r="M175" t="s">
+        <v>33</v>
+      </c>
+      <c r="N175" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>404</v>
+      </c>
+      <c r="C176" t="s">
+        <v>84</v>
+      </c>
+      <c r="D176" t="s">
+        <v>88</v>
+      </c>
+      <c r="E176">
+        <v>26</v>
+      </c>
+      <c r="F176" t="s">
+        <v>405</v>
+      </c>
+      <c r="G176" t="s">
+        <v>18</v>
+      </c>
+      <c r="H176" t="s">
+        <v>38</v>
+      </c>
+      <c r="I176" t="s">
+        <v>30</v>
+      </c>
+      <c r="J176" t="s">
+        <v>18</v>
+      </c>
+      <c r="K176" t="s">
+        <v>31</v>
+      </c>
+      <c r="L176" t="s">
+        <v>32</v>
+      </c>
+      <c r="M176" t="s">
+        <v>33</v>
+      </c>
+      <c r="N176" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>406</v>
+      </c>
+      <c r="C177" t="s">
+        <v>84</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177">
         <v>5</v>
       </c>
-      <c r="F175" t="s">
-        <v>399</v>
-      </c>
-      <c r="G175" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>400</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="F177" t="s">
+        <v>407</v>
+      </c>
+      <c r="G177" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" t="s">
+        <v>19</v>
+      </c>
+      <c r="I177" t="s">
+        <v>33</v>
+      </c>
+      <c r="J177" t="s">
+        <v>21</v>
+      </c>
+      <c r="K177" t="s">
+        <v>31</v>
+      </c>
+      <c r="L177" t="s">
+        <v>20</v>
+      </c>
+      <c r="M177" t="s">
+        <v>33</v>
+      </c>
+      <c r="N177" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>408</v>
+      </c>
+      <c r="C178" t="s">
+        <v>49</v>
+      </c>
+      <c r="D178" t="s">
+        <v>49</v>
+      </c>
+      <c r="E178">
+        <v>19</v>
+      </c>
+      <c r="F178" t="s">
+        <v>409</v>
+      </c>
+      <c r="G178" t="s">
+        <v>21</v>
+      </c>
+      <c r="H178" t="s">
+        <v>19</v>
+      </c>
+      <c r="I178" t="s">
+        <v>30</v>
+      </c>
+      <c r="J178" t="s">
+        <v>21</v>
+      </c>
+      <c r="K178" t="s">
+        <v>31</v>
+      </c>
+      <c r="L178" t="s">
+        <v>20</v>
+      </c>
+      <c r="M178" t="s">
+        <v>33</v>
+      </c>
+      <c r="N178" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>410</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s">
+        <v>411</v>
+      </c>
+      <c r="G179" t="s">
+        <v>18</v>
+      </c>
+      <c r="H179" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" t="s">
+        <v>33</v>
+      </c>
+      <c r="J179" t="s">
+        <v>18</v>
+      </c>
+      <c r="K179" t="s">
+        <v>22</v>
+      </c>
+      <c r="L179" t="s">
+        <v>32</v>
+      </c>
+      <c r="M179" t="s">
+        <v>24</v>
+      </c>
+      <c r="N179" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>412</v>
+      </c>
+      <c r="C180" t="s">
+        <v>58</v>
+      </c>
+      <c r="D180" t="s">
+        <v>65</v>
+      </c>
+      <c r="E180">
+        <v>26</v>
+      </c>
+      <c r="F180" t="s">
+        <v>413</v>
+      </c>
+      <c r="G180" t="s">
+        <v>21</v>
+      </c>
+      <c r="H180" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" t="s">
+        <v>30</v>
+      </c>
+      <c r="J180" t="s">
+        <v>21</v>
+      </c>
+      <c r="K180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L180" t="s">
+        <v>32</v>
+      </c>
+      <c r="M180" t="s">
+        <v>33</v>
+      </c>
+      <c r="N180" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>414</v>
+      </c>
+      <c r="C181" t="s">
+        <v>45</v>
+      </c>
+      <c r="D181" t="s">
+        <v>65</v>
+      </c>
+      <c r="E181">
+        <v>22</v>
+      </c>
+      <c r="F181" t="s">
+        <v>415</v>
+      </c>
+      <c r="G181" t="s">
+        <v>21</v>
+      </c>
+      <c r="H181" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" t="s">
+        <v>20</v>
+      </c>
+      <c r="J181" t="s">
+        <v>21</v>
+      </c>
+      <c r="K181" t="s">
+        <v>22</v>
+      </c>
+      <c r="L181" t="s">
+        <v>32</v>
+      </c>
+      <c r="M181" t="s">
+        <v>33</v>
+      </c>
+      <c r="N181" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>416</v>
+      </c>
+      <c r="C182" t="s">
+        <v>45</v>
+      </c>
+      <c r="D182" t="s">
+        <v>46</v>
+      </c>
+      <c r="E182">
+        <v>40</v>
+      </c>
+      <c r="F182" t="s">
+        <v>417</v>
+      </c>
+      <c r="G182" t="s">
+        <v>21</v>
+      </c>
+      <c r="H182" t="s">
+        <v>38</v>
+      </c>
+      <c r="I182" t="s">
+        <v>33</v>
+      </c>
+      <c r="J182" t="s">
+        <v>21</v>
+      </c>
+      <c r="K182" t="s">
+        <v>31</v>
+      </c>
+      <c r="L182" t="s">
+        <v>23</v>
+      </c>
+      <c r="M182" t="s">
+        <v>33</v>
+      </c>
+      <c r="N182" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>418</v>
+      </c>
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183">
+        <v>8</v>
+      </c>
+      <c r="F183" t="s">
+        <v>419</v>
+      </c>
+      <c r="G183" t="s">
+        <v>18</v>
+      </c>
+      <c r="H183" t="s">
+        <v>19</v>
+      </c>
+      <c r="I183" t="s">
+        <v>30</v>
+      </c>
+      <c r="J183" t="s">
+        <v>21</v>
+      </c>
+      <c r="K183" t="s">
+        <v>22</v>
+      </c>
+      <c r="L183" t="s">
+        <v>32</v>
+      </c>
+      <c r="M183" t="s">
+        <v>24</v>
+      </c>
+      <c r="N183" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>420</v>
+      </c>
+      <c r="C184" t="s">
+        <v>49</v>
+      </c>
+      <c r="D184" t="s">
+        <v>49</v>
+      </c>
+      <c r="E184">
+        <v>14</v>
+      </c>
+      <c r="F184" t="s">
+        <v>421</v>
+      </c>
+      <c r="G184" t="s">
+        <v>21</v>
+      </c>
+      <c r="H184" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184" t="s">
+        <v>33</v>
+      </c>
+      <c r="J184" t="s">
+        <v>21</v>
+      </c>
+      <c r="K184" t="s">
+        <v>31</v>
+      </c>
+      <c r="L184" t="s">
+        <v>32</v>
+      </c>
+      <c r="M184" t="s">
+        <v>33</v>
+      </c>
+      <c r="N184" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>422</v>
+      </c>
+      <c r="C185" t="s">
+        <v>49</v>
+      </c>
+      <c r="D185" t="s">
+        <v>49</v>
+      </c>
+      <c r="E185">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
+        <v>423</v>
+      </c>
+      <c r="G185" t="s">
+        <v>18</v>
+      </c>
+      <c r="H185" t="s">
+        <v>38</v>
+      </c>
+      <c r="I185" t="s">
+        <v>20</v>
+      </c>
+      <c r="J185" t="s">
+        <v>21</v>
+      </c>
+      <c r="K185" t="s">
+        <v>31</v>
+      </c>
+      <c r="L185" t="s">
+        <v>23</v>
+      </c>
+      <c r="M185" t="s">
+        <v>33</v>
+      </c>
+      <c r="N185" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>424</v>
+      </c>
+      <c r="C186" t="s">
+        <v>36</v>
+      </c>
+      <c r="D186" t="s">
+        <v>46</v>
+      </c>
+      <c r="E186">
+        <v>30</v>
+      </c>
+      <c r="F186" t="s">
+        <v>527</v>
+      </c>
+      <c r="G186" t="s">
+        <v>21</v>
+      </c>
+      <c r="H186" t="s">
+        <v>38</v>
+      </c>
+      <c r="I186" t="s">
+        <v>33</v>
+      </c>
+      <c r="J186" t="s">
+        <v>21</v>
+      </c>
+      <c r="K186" t="s">
+        <v>31</v>
+      </c>
+      <c r="L186" t="s">
+        <v>20</v>
+      </c>
+      <c r="M186" t="s">
+        <v>33</v>
+      </c>
+      <c r="N186" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>425</v>
+      </c>
+      <c r="C187" t="s">
+        <v>36</v>
+      </c>
+      <c r="D187" t="s">
+        <v>46</v>
+      </c>
+      <c r="E187">
+        <v>22</v>
+      </c>
+      <c r="F187" t="s">
+        <v>528</v>
+      </c>
+      <c r="G187" t="s">
+        <v>21</v>
+      </c>
+      <c r="H187" t="s">
+        <v>38</v>
+      </c>
+      <c r="I187" t="s">
+        <v>33</v>
+      </c>
+      <c r="J187" t="s">
+        <v>21</v>
+      </c>
+      <c r="K187" t="s">
+        <v>31</v>
+      </c>
+      <c r="L187" t="s">
+        <v>23</v>
+      </c>
+      <c r="M187" t="s">
+        <v>33</v>
+      </c>
+      <c r="N187" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>426</v>
+      </c>
+      <c r="C188" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" t="s">
+        <v>41</v>
+      </c>
+      <c r="E188">
+        <v>11</v>
+      </c>
+      <c r="F188" t="s">
+        <v>427</v>
+      </c>
+      <c r="G188" t="s">
+        <v>18</v>
+      </c>
+      <c r="H188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I188" t="s">
+        <v>30</v>
+      </c>
+      <c r="J188" t="s">
+        <v>21</v>
+      </c>
+      <c r="K188" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188" t="s">
+        <v>20</v>
+      </c>
+      <c r="M188" t="s">
+        <v>33</v>
+      </c>
+      <c r="N188" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>428</v>
+      </c>
+      <c r="B189" t="s">
+        <v>429</v>
+      </c>
+      <c r="C189" t="s">
+        <v>84</v>
+      </c>
+      <c r="D189" t="s">
+        <v>88</v>
+      </c>
+      <c r="E189">
+        <v>28</v>
+      </c>
+      <c r="F189" t="s">
+        <v>430</v>
+      </c>
+      <c r="G189" t="s">
+        <v>18</v>
+      </c>
+      <c r="H189" t="s">
+        <v>19</v>
+      </c>
+      <c r="I189" t="s">
+        <v>33</v>
+      </c>
+      <c r="J189" t="s">
+        <v>21</v>
+      </c>
+      <c r="K189" t="s">
+        <v>31</v>
+      </c>
+      <c r="L189" t="s">
+        <v>32</v>
+      </c>
+      <c r="M189" t="s">
+        <v>33</v>
+      </c>
+      <c r="N189" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>431</v>
+      </c>
+      <c r="C190" t="s">
+        <v>84</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190">
+        <v>39</v>
+      </c>
+      <c r="F190" t="s">
+        <v>432</v>
+      </c>
+      <c r="G190" t="s">
+        <v>18</v>
+      </c>
+      <c r="H190" t="s">
+        <v>38</v>
+      </c>
+      <c r="I190" t="s">
+        <v>30</v>
+      </c>
+      <c r="J190" t="s">
+        <v>21</v>
+      </c>
+      <c r="K190" t="s">
+        <v>31</v>
+      </c>
+      <c r="L190" t="s">
+        <v>32</v>
+      </c>
+      <c r="M190" t="s">
+        <v>33</v>
+      </c>
+      <c r="N190" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>433</v>
+      </c>
+      <c r="C191" t="s">
+        <v>45</v>
+      </c>
+      <c r="D191" t="s">
+        <v>46</v>
+      </c>
+      <c r="E191">
+        <v>51</v>
+      </c>
+      <c r="F191" t="s">
+        <v>434</v>
+      </c>
+      <c r="G191" t="s">
+        <v>21</v>
+      </c>
+      <c r="H191" t="s">
+        <v>38</v>
+      </c>
+      <c r="I191" t="s">
+        <v>33</v>
+      </c>
+      <c r="J191" t="s">
+        <v>21</v>
+      </c>
+      <c r="K191" t="s">
+        <v>31</v>
+      </c>
+      <c r="L191" t="s">
+        <v>32</v>
+      </c>
+      <c r="M191" t="s">
+        <v>33</v>
+      </c>
+      <c r="N191" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>435</v>
+      </c>
+      <c r="C192" t="s">
+        <v>45</v>
+      </c>
+      <c r="D192" t="s">
+        <v>46</v>
+      </c>
+      <c r="E192">
+        <v>66</v>
+      </c>
+      <c r="F192" t="s">
+        <v>436</v>
+      </c>
+      <c r="G192" t="s">
+        <v>18</v>
+      </c>
+      <c r="H192" t="s">
+        <v>38</v>
+      </c>
+      <c r="I192" t="s">
+        <v>30</v>
+      </c>
+      <c r="J192" t="s">
+        <v>21</v>
+      </c>
+      <c r="K192" t="s">
+        <v>31</v>
+      </c>
+      <c r="L192" t="s">
+        <v>32</v>
+      </c>
+      <c r="M192" t="s">
+        <v>24</v>
+      </c>
+      <c r="N192" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>437</v>
+      </c>
+      <c r="C193" t="s">
+        <v>84</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193">
+        <v>21</v>
+      </c>
+      <c r="F193" t="s">
+        <v>438</v>
+      </c>
+      <c r="G193" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193" t="s">
+        <v>38</v>
+      </c>
+      <c r="I193" t="s">
+        <v>30</v>
+      </c>
+      <c r="J193" t="s">
+        <v>21</v>
+      </c>
+      <c r="K193" t="s">
+        <v>22</v>
+      </c>
+      <c r="L193" t="s">
+        <v>32</v>
+      </c>
+      <c r="M193" t="s">
+        <v>33</v>
+      </c>
+      <c r="N193" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>439</v>
+      </c>
+      <c r="C194" t="s">
+        <v>45</v>
+      </c>
+      <c r="D194" t="s">
+        <v>53</v>
+      </c>
+      <c r="E194">
+        <v>26</v>
+      </c>
+      <c r="F194" t="s">
+        <v>440</v>
+      </c>
+      <c r="G194" t="s">
+        <v>21</v>
+      </c>
+      <c r="H194" t="s">
+        <v>38</v>
+      </c>
+      <c r="I194" t="s">
+        <v>20</v>
+      </c>
+      <c r="J194" t="s">
+        <v>21</v>
+      </c>
+      <c r="K194" t="s">
+        <v>22</v>
+      </c>
+      <c r="L194" t="s">
+        <v>32</v>
+      </c>
+      <c r="M194" t="s">
+        <v>33</v>
+      </c>
+      <c r="N194" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>441</v>
+      </c>
+      <c r="C195" t="s">
+        <v>45</v>
+      </c>
+      <c r="D195" t="s">
+        <v>46</v>
+      </c>
+      <c r="E195">
+        <v>33</v>
+      </c>
+      <c r="F195" t="s">
+        <v>442</v>
+      </c>
+      <c r="G195" t="s">
+        <v>21</v>
+      </c>
+      <c r="H195" t="s">
+        <v>38</v>
+      </c>
+      <c r="I195" t="s">
+        <v>33</v>
+      </c>
+      <c r="J195" t="s">
+        <v>21</v>
+      </c>
+      <c r="K195" t="s">
+        <v>31</v>
+      </c>
+      <c r="L195" t="s">
+        <v>23</v>
+      </c>
+      <c r="M195" t="s">
+        <v>33</v>
+      </c>
+      <c r="N195" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>443</v>
+      </c>
+      <c r="C196" t="s">
+        <v>58</v>
+      </c>
+      <c r="D196" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196">
+        <v>7</v>
+      </c>
+      <c r="F196" t="s">
+        <v>444</v>
+      </c>
+      <c r="G196" t="s">
+        <v>18</v>
+      </c>
+      <c r="H196" t="s">
+        <v>19</v>
+      </c>
+      <c r="I196" t="s">
+        <v>33</v>
+      </c>
+      <c r="J196" t="s">
+        <v>21</v>
+      </c>
+      <c r="K196" t="s">
+        <v>22</v>
+      </c>
+      <c r="L196" t="s">
+        <v>20</v>
+      </c>
+      <c r="M196" t="s">
+        <v>33</v>
+      </c>
+      <c r="N196" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>445</v>
+      </c>
+      <c r="C197" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197">
+        <v>8</v>
+      </c>
+      <c r="F197" t="s">
+        <v>446</v>
+      </c>
+      <c r="G197" t="s">
+        <v>18</v>
+      </c>
+      <c r="H197" t="s">
+        <v>19</v>
+      </c>
+      <c r="I197" t="s">
+        <v>20</v>
+      </c>
+      <c r="J197" t="s">
+        <v>18</v>
+      </c>
+      <c r="K197" t="s">
+        <v>22</v>
+      </c>
+      <c r="L197" t="s">
+        <v>23</v>
+      </c>
+      <c r="M197" t="s">
+        <v>33</v>
+      </c>
+      <c r="N197" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>447</v>
+      </c>
+      <c r="B198" t="s">
+        <v>448</v>
+      </c>
+      <c r="C198" t="s">
+        <v>45</v>
+      </c>
+      <c r="D198" t="s">
+        <v>49</v>
+      </c>
+      <c r="E198">
+        <v>17</v>
+      </c>
+      <c r="F198" t="s">
+        <v>446</v>
+      </c>
+      <c r="G198" t="s">
+        <v>21</v>
+      </c>
+      <c r="H198" t="s">
+        <v>19</v>
+      </c>
+      <c r="I198" t="s">
+        <v>30</v>
+      </c>
+      <c r="J198" t="s">
+        <v>21</v>
+      </c>
+      <c r="K198" t="s">
+        <v>22</v>
+      </c>
+      <c r="L198" t="s">
+        <v>32</v>
+      </c>
+      <c r="M198" t="s">
+        <v>33</v>
+      </c>
+      <c r="N198" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>449</v>
+      </c>
+      <c r="C199" t="s">
+        <v>84</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199">
+        <v>42</v>
+      </c>
+      <c r="F199" t="s">
+        <v>450</v>
+      </c>
+      <c r="G199" t="s">
+        <v>18</v>
+      </c>
+      <c r="H199" t="s">
+        <v>38</v>
+      </c>
+      <c r="I199" t="s">
+        <v>30</v>
+      </c>
+      <c r="J199" t="s">
+        <v>21</v>
+      </c>
+      <c r="K199" t="s">
+        <v>31</v>
+      </c>
+      <c r="L199" t="s">
+        <v>32</v>
+      </c>
+      <c r="M199" t="s">
+        <v>33</v>
+      </c>
+      <c r="N199" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>451</v>
+      </c>
+      <c r="B200" t="s">
+        <v>452</v>
+      </c>
+      <c r="C200" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200" t="s">
+        <v>41</v>
+      </c>
+      <c r="E200">
+        <v>9</v>
+      </c>
+      <c r="F200" t="s">
+        <v>453</v>
+      </c>
+      <c r="G200" t="s">
+        <v>18</v>
+      </c>
+      <c r="H200" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J200" t="s">
+        <v>21</v>
+      </c>
+      <c r="K200" t="s">
+        <v>22</v>
+      </c>
+      <c r="L200" t="s">
+        <v>20</v>
+      </c>
+      <c r="M200" t="s">
+        <v>33</v>
+      </c>
+      <c r="N200" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>454</v>
+      </c>
+      <c r="C201" t="s">
+        <v>41</v>
+      </c>
+      <c r="D201" t="s">
+        <v>41</v>
+      </c>
+      <c r="E201">
+        <v>9</v>
+      </c>
+      <c r="F201" t="s">
+        <v>455</v>
+      </c>
+      <c r="G201" t="s">
+        <v>18</v>
+      </c>
+      <c r="H201" t="s">
+        <v>19</v>
+      </c>
+      <c r="I201" t="s">
+        <v>30</v>
+      </c>
+      <c r="J201" t="s">
+        <v>21</v>
+      </c>
+      <c r="K201" t="s">
+        <v>22</v>
+      </c>
+      <c r="L201" t="s">
+        <v>32</v>
+      </c>
+      <c r="M201" t="s">
+        <v>33</v>
+      </c>
+      <c r="N201" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>456</v>
+      </c>
+      <c r="C202" t="s">
+        <v>58</v>
+      </c>
+      <c r="D202" t="s">
+        <v>53</v>
+      </c>
+      <c r="E202">
+        <v>22</v>
+      </c>
+      <c r="F202" t="s">
+        <v>457</v>
+      </c>
+      <c r="G202" t="s">
+        <v>18</v>
+      </c>
+      <c r="H202" t="s">
+        <v>19</v>
+      </c>
+      <c r="I202" t="s">
+        <v>33</v>
+      </c>
+      <c r="J202" t="s">
+        <v>18</v>
+      </c>
+      <c r="K202" t="s">
+        <v>22</v>
+      </c>
+      <c r="L202" t="s">
+        <v>23</v>
+      </c>
+      <c r="M202" t="s">
+        <v>30</v>
+      </c>
+      <c r="N202" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>458</v>
+      </c>
+      <c r="B203" t="s">
+        <v>459</v>
+      </c>
+      <c r="C203" t="s">
+        <v>49</v>
+      </c>
+      <c r="D203" t="s">
+        <v>49</v>
+      </c>
+      <c r="E203">
+        <v>9</v>
+      </c>
+      <c r="F203" t="s">
+        <v>460</v>
+      </c>
+      <c r="G203" t="s">
+        <v>21</v>
+      </c>
+      <c r="H203" t="s">
+        <v>38</v>
+      </c>
+      <c r="I203" t="s">
+        <v>30</v>
+      </c>
+      <c r="J203" t="s">
+        <v>21</v>
+      </c>
+      <c r="K203" t="s">
+        <v>31</v>
+      </c>
+      <c r="L203" t="s">
+        <v>32</v>
+      </c>
+      <c r="M203" t="s">
+        <v>33</v>
+      </c>
+      <c r="N203" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>461</v>
+      </c>
+      <c r="C204" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" t="s">
+        <v>16</v>
+      </c>
+      <c r="E204">
+        <v>10</v>
+      </c>
+      <c r="F204" t="s">
+        <v>462</v>
+      </c>
+      <c r="G204" t="s">
+        <v>21</v>
+      </c>
+      <c r="H204" t="s">
+        <v>19</v>
+      </c>
+      <c r="I204" t="s">
+        <v>33</v>
+      </c>
+      <c r="J204" t="s">
+        <v>18</v>
+      </c>
+      <c r="K204" t="s">
+        <v>22</v>
+      </c>
+      <c r="L204" t="s">
+        <v>23</v>
+      </c>
+      <c r="M204" t="s">
+        <v>33</v>
+      </c>
+      <c r="N204" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>463</v>
+      </c>
+      <c r="C205" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205">
+        <v>6</v>
+      </c>
+      <c r="F205" t="s">
+        <v>464</v>
+      </c>
+      <c r="G205" t="s">
+        <v>18</v>
+      </c>
+      <c r="H205" t="s">
+        <v>19</v>
+      </c>
+      <c r="I205" t="s">
+        <v>30</v>
+      </c>
+      <c r="J205" t="s">
+        <v>21</v>
+      </c>
+      <c r="K205" t="s">
+        <v>22</v>
+      </c>
+      <c r="L205" t="s">
+        <v>20</v>
+      </c>
+      <c r="M205" t="s">
+        <v>30</v>
+      </c>
+      <c r="N205" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>465</v>
+      </c>
+      <c r="C206" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>41</v>
+      </c>
+      <c r="E206">
+        <v>5</v>
+      </c>
+      <c r="F206" t="s">
+        <v>466</v>
+      </c>
+      <c r="G206" t="s">
+        <v>18</v>
+      </c>
+      <c r="H206" t="s">
+        <v>19</v>
+      </c>
+      <c r="I206" t="s">
+        <v>33</v>
+      </c>
+      <c r="J206" t="s">
+        <v>18</v>
+      </c>
+      <c r="K206" t="s">
+        <v>22</v>
+      </c>
+      <c r="L206" t="s">
+        <v>20</v>
+      </c>
+      <c r="M206" t="s">
+        <v>33</v>
+      </c>
+      <c r="N206" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>467</v>
+      </c>
+      <c r="C207" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" t="s">
+        <v>41</v>
+      </c>
+      <c r="E207">
+        <v>17</v>
+      </c>
+      <c r="F207" t="s">
+        <v>468</v>
+      </c>
+      <c r="G207" t="s">
+        <v>21</v>
+      </c>
+      <c r="H207" t="s">
+        <v>19</v>
+      </c>
+      <c r="I207" t="s">
+        <v>33</v>
+      </c>
+      <c r="J207" t="s">
+        <v>21</v>
+      </c>
+      <c r="K207" t="s">
+        <v>22</v>
+      </c>
+      <c r="L207" t="s">
+        <v>32</v>
+      </c>
+      <c r="M207" t="s">
+        <v>24</v>
+      </c>
+      <c r="N207" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>469</v>
+      </c>
+      <c r="C208" t="s">
+        <v>84</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208">
+        <v>28</v>
+      </c>
+      <c r="F208" t="s">
+        <v>470</v>
+      </c>
+      <c r="G208" t="s">
+        <v>21</v>
+      </c>
+      <c r="H208" t="s">
+        <v>19</v>
+      </c>
+      <c r="I208" t="s">
+        <v>20</v>
+      </c>
+      <c r="J208" t="s">
+        <v>21</v>
+      </c>
+      <c r="K208" t="s">
+        <v>31</v>
+      </c>
+      <c r="L208" t="s">
+        <v>20</v>
+      </c>
+      <c r="M208" t="s">
+        <v>33</v>
+      </c>
+      <c r="N208" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>471</v>
+      </c>
+      <c r="C209" t="s">
+        <v>49</v>
+      </c>
+      <c r="D209" t="s">
+        <v>49</v>
+      </c>
+      <c r="E209">
+        <v>49</v>
+      </c>
+      <c r="F209" t="s">
+        <v>472</v>
+      </c>
+      <c r="G209" t="s">
+        <v>21</v>
+      </c>
+      <c r="H209" t="s">
+        <v>38</v>
+      </c>
+      <c r="I209" t="s">
+        <v>20</v>
+      </c>
+      <c r="J209" t="s">
+        <v>21</v>
+      </c>
+      <c r="K209" t="s">
+        <v>31</v>
+      </c>
+      <c r="L209" t="s">
+        <v>23</v>
+      </c>
+      <c r="M209" t="s">
+        <v>33</v>
+      </c>
+      <c r="N209" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>473</v>
+      </c>
+      <c r="B210" t="s">
+        <v>474</v>
+      </c>
+      <c r="C210" t="s">
+        <v>41</v>
+      </c>
+      <c r="D210" t="s">
+        <v>41</v>
+      </c>
+      <c r="E210">
+        <v>14</v>
+      </c>
+      <c r="F210" t="s">
+        <v>475</v>
+      </c>
+      <c r="G210" t="s">
+        <v>18</v>
+      </c>
+      <c r="H210" t="s">
+        <v>43</v>
+      </c>
+      <c r="I210" t="s">
+        <v>20</v>
+      </c>
+      <c r="J210" t="s">
+        <v>21</v>
+      </c>
+      <c r="K210" t="s">
+        <v>22</v>
+      </c>
+      <c r="L210" t="s">
+        <v>32</v>
+      </c>
+      <c r="M210" t="s">
+        <v>24</v>
+      </c>
+      <c r="N210" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>476</v>
+      </c>
+      <c r="C211" t="s">
         <v>27</v>
       </c>
-      <c r="D176" t="s">
-        <v>401</v>
-      </c>
-      <c r="E176">
+      <c r="D211" t="s">
+        <v>65</v>
+      </c>
+      <c r="E211">
+        <v>19</v>
+      </c>
+      <c r="F211" t="s">
+        <v>477</v>
+      </c>
+      <c r="G211" t="s">
+        <v>18</v>
+      </c>
+      <c r="H211" t="s">
+        <v>19</v>
+      </c>
+      <c r="I211" t="s">
+        <v>33</v>
+      </c>
+      <c r="J211" t="s">
+        <v>21</v>
+      </c>
+      <c r="K211" t="s">
+        <v>31</v>
+      </c>
+      <c r="L211" t="s">
+        <v>32</v>
+      </c>
+      <c r="M211" t="s">
+        <v>30</v>
+      </c>
+      <c r="N211" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>478</v>
+      </c>
+      <c r="C212" t="s">
+        <v>49</v>
+      </c>
+      <c r="D212" t="s">
+        <v>49</v>
+      </c>
+      <c r="E212">
+        <v>13</v>
+      </c>
+      <c r="F212" t="s">
+        <v>479</v>
+      </c>
+      <c r="G212" t="s">
+        <v>21</v>
+      </c>
+      <c r="H212" t="s">
+        <v>43</v>
+      </c>
+      <c r="I212" t="s">
+        <v>30</v>
+      </c>
+      <c r="J212" t="s">
+        <v>21</v>
+      </c>
+      <c r="K212" t="s">
+        <v>31</v>
+      </c>
+      <c r="L212" t="s">
         <v>20</v>
       </c>
-      <c r="F176" t="s">
-        <v>402</v>
-      </c>
-      <c r="G176" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>403</v>
-      </c>
-      <c r="C177" t="s">
-        <v>49</v>
-      </c>
-      <c r="D177" t="s">
-        <v>49</v>
-      </c>
-      <c r="E177">
-        <v>39</v>
-      </c>
-      <c r="F177" t="s">
-        <v>404</v>
-      </c>
-      <c r="G177" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>405</v>
-      </c>
-      <c r="C178" t="s">
-        <v>84</v>
-      </c>
-      <c r="D178" t="s">
-        <v>88</v>
-      </c>
-      <c r="E178">
-        <v>41</v>
-      </c>
-      <c r="F178" t="s">
-        <v>406</v>
-      </c>
-      <c r="G178" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>407</v>
-      </c>
-      <c r="G179" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>408</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="M212" t="s">
+        <v>33</v>
+      </c>
+      <c r="N212" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>481</v>
+      </c>
+      <c r="C213" t="s">
+        <v>45</v>
+      </c>
+      <c r="D213" t="s">
+        <v>46</v>
+      </c>
+      <c r="E213">
+        <v>71</v>
+      </c>
+      <c r="F213" t="s">
+        <v>482</v>
+      </c>
+      <c r="G213" t="s">
+        <v>21</v>
+      </c>
+      <c r="H213" t="s">
+        <v>38</v>
+      </c>
+      <c r="I213" t="s">
+        <v>30</v>
+      </c>
+      <c r="J213" t="s">
+        <v>21</v>
+      </c>
+      <c r="K213" t="s">
+        <v>31</v>
+      </c>
+      <c r="L213" t="s">
+        <v>23</v>
+      </c>
+      <c r="M213" t="s">
+        <v>33</v>
+      </c>
+      <c r="N213" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>483</v>
+      </c>
+      <c r="C214" t="s">
+        <v>58</v>
+      </c>
+      <c r="D214" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214">
+        <v>6</v>
+      </c>
+      <c r="F214" t="s">
+        <v>484</v>
+      </c>
+      <c r="G214" t="s">
+        <v>21</v>
+      </c>
+      <c r="H214" t="s">
+        <v>19</v>
+      </c>
+      <c r="I214" t="s">
+        <v>33</v>
+      </c>
+      <c r="J214" t="s">
+        <v>21</v>
+      </c>
+      <c r="K214" t="s">
+        <v>22</v>
+      </c>
+      <c r="L214" t="s">
+        <v>32</v>
+      </c>
+      <c r="M214" t="s">
+        <v>24</v>
+      </c>
+      <c r="N214" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>485</v>
+      </c>
+      <c r="C215" t="s">
+        <v>58</v>
+      </c>
+      <c r="D215" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215">
+        <v>10</v>
+      </c>
+      <c r="F215" t="s">
+        <v>486</v>
+      </c>
+      <c r="G215" t="s">
+        <v>18</v>
+      </c>
+      <c r="H215" t="s">
+        <v>19</v>
+      </c>
+      <c r="I215" t="s">
+        <v>30</v>
+      </c>
+      <c r="J215" t="s">
+        <v>21</v>
+      </c>
+      <c r="K215" t="s">
+        <v>22</v>
+      </c>
+      <c r="L215" t="s">
+        <v>32</v>
+      </c>
+      <c r="M215" t="s">
+        <v>33</v>
+      </c>
+      <c r="N215" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>487</v>
+      </c>
+      <c r="C216" t="s">
+        <v>45</v>
+      </c>
+      <c r="D216" t="s">
+        <v>46</v>
+      </c>
+      <c r="E216">
+        <v>65</v>
+      </c>
+      <c r="F216" t="s">
+        <v>488</v>
+      </c>
+      <c r="G216" t="s">
+        <v>21</v>
+      </c>
+      <c r="H216" t="s">
+        <v>38</v>
+      </c>
+      <c r="I216" t="s">
+        <v>33</v>
+      </c>
+      <c r="J216" t="s">
+        <v>18</v>
+      </c>
+      <c r="K216" t="s">
+        <v>31</v>
+      </c>
+      <c r="L216" t="s">
+        <v>23</v>
+      </c>
+      <c r="M216" t="s">
+        <v>33</v>
+      </c>
+      <c r="N216" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>489</v>
+      </c>
+      <c r="B217" t="s">
+        <v>490</v>
+      </c>
+      <c r="C217" t="s">
         <v>15</v>
-      </c>
-      <c r="D180" t="s">
-        <v>16</v>
-      </c>
-      <c r="E180">
-        <v>5</v>
-      </c>
-      <c r="F180" t="s">
-        <v>409</v>
-      </c>
-      <c r="G180" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>410</v>
-      </c>
-      <c r="C181" t="s">
-        <v>41</v>
-      </c>
-      <c r="D181" t="s">
-        <v>41</v>
-      </c>
-      <c r="E181">
-        <v>6</v>
-      </c>
-      <c r="F181" t="s">
-        <v>411</v>
-      </c>
-      <c r="G181" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>412</v>
-      </c>
-      <c r="C182" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" t="s">
-        <v>16</v>
-      </c>
-      <c r="E182">
-        <v>4</v>
-      </c>
-      <c r="F182" t="s">
-        <v>413</v>
-      </c>
-      <c r="G182" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>414</v>
-      </c>
-      <c r="C183" t="s">
-        <v>84</v>
-      </c>
-      <c r="D183" t="s">
-        <v>28</v>
-      </c>
-      <c r="E183">
-        <v>10</v>
-      </c>
-      <c r="F183" t="s">
-        <v>415</v>
-      </c>
-      <c r="G183" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>416</v>
-      </c>
-      <c r="C184" t="s">
-        <v>84</v>
-      </c>
-      <c r="D184" t="s">
-        <v>88</v>
-      </c>
-      <c r="E184">
-        <v>16</v>
-      </c>
-      <c r="F184" t="s">
-        <v>417</v>
-      </c>
-      <c r="G184" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>418</v>
-      </c>
-      <c r="C185" t="s">
-        <v>84</v>
-      </c>
-      <c r="D185" t="s">
-        <v>28</v>
-      </c>
-      <c r="E185">
-        <v>23</v>
-      </c>
-      <c r="F185" t="s">
-        <v>419</v>
-      </c>
-      <c r="G185" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>420</v>
-      </c>
-      <c r="C186" t="s">
-        <v>41</v>
-      </c>
-      <c r="D186" t="s">
-        <v>41</v>
-      </c>
-      <c r="E186">
-        <v>23</v>
-      </c>
-      <c r="F186" t="s">
-        <v>421</v>
-      </c>
-      <c r="G186" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>422</v>
-      </c>
-      <c r="C187" t="s">
-        <v>84</v>
-      </c>
-      <c r="D187" t="s">
-        <v>88</v>
-      </c>
-      <c r="E187">
-        <v>26</v>
-      </c>
-      <c r="F187" t="s">
-        <v>423</v>
-      </c>
-      <c r="G187" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>424</v>
-      </c>
-      <c r="C188" t="s">
-        <v>84</v>
-      </c>
-      <c r="D188" t="s">
-        <v>28</v>
-      </c>
-      <c r="E188">
-        <v>5</v>
-      </c>
-      <c r="F188" t="s">
-        <v>425</v>
-      </c>
-      <c r="G188" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>426</v>
-      </c>
-      <c r="C189" t="s">
-        <v>27</v>
-      </c>
-      <c r="D189" t="s">
-        <v>65</v>
-      </c>
-      <c r="E189">
-        <v>25</v>
-      </c>
-      <c r="F189" t="s">
-        <v>229</v>
-      </c>
-      <c r="G189" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>427</v>
-      </c>
-      <c r="C190" t="s">
-        <v>49</v>
-      </c>
-      <c r="D190" t="s">
-        <v>49</v>
-      </c>
-      <c r="E190">
-        <v>19</v>
-      </c>
-      <c r="F190" t="s">
-        <v>428</v>
-      </c>
-      <c r="G190" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>429</v>
-      </c>
-      <c r="C191" t="s">
-        <v>15</v>
-      </c>
-      <c r="D191" t="s">
-        <v>16</v>
-      </c>
-      <c r="E191">
-        <v>2</v>
-      </c>
-      <c r="F191" t="s">
-        <v>430</v>
-      </c>
-      <c r="G191" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>431</v>
-      </c>
-      <c r="C192" t="s">
-        <v>58</v>
-      </c>
-      <c r="D192" t="s">
-        <v>65</v>
-      </c>
-      <c r="E192">
-        <v>26</v>
-      </c>
-      <c r="F192" t="s">
-        <v>432</v>
-      </c>
-      <c r="G192" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>433</v>
-      </c>
-      <c r="C193" t="s">
-        <v>58</v>
-      </c>
-      <c r="D193" t="s">
-        <v>65</v>
-      </c>
-      <c r="E193">
-        <v>26</v>
-      </c>
-      <c r="F193" t="s">
-        <v>432</v>
-      </c>
-      <c r="G193" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>434</v>
-      </c>
-      <c r="C194" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" t="s">
-        <v>16</v>
-      </c>
-      <c r="E194">
-        <v>8</v>
-      </c>
-      <c r="F194" t="s">
-        <v>432</v>
-      </c>
-      <c r="G194" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>435</v>
-      </c>
-      <c r="C195" t="s">
-        <v>15</v>
-      </c>
-      <c r="D195" t="s">
-        <v>16</v>
-      </c>
-      <c r="E195">
-        <v>4</v>
-      </c>
-      <c r="F195" t="s">
-        <v>432</v>
-      </c>
-      <c r="G195" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>436</v>
-      </c>
-      <c r="C196" t="s">
-        <v>45</v>
-      </c>
-      <c r="D196" t="s">
-        <v>65</v>
-      </c>
-      <c r="E196">
-        <v>22</v>
-      </c>
-      <c r="F196" t="s">
-        <v>437</v>
-      </c>
-      <c r="G196" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>438</v>
-      </c>
-      <c r="C197" t="s">
-        <v>45</v>
-      </c>
-      <c r="D197" t="s">
-        <v>46</v>
-      </c>
-      <c r="E197">
-        <v>40</v>
-      </c>
-      <c r="F197" t="s">
-        <v>439</v>
-      </c>
-      <c r="G197" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>440</v>
-      </c>
-      <c r="C198" t="s">
-        <v>15</v>
-      </c>
-      <c r="D198" t="s">
-        <v>16</v>
-      </c>
-      <c r="E198">
-        <v>8</v>
-      </c>
-      <c r="F198" t="s">
-        <v>441</v>
-      </c>
-      <c r="G198" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>442</v>
-      </c>
-      <c r="C199" t="s">
-        <v>49</v>
-      </c>
-      <c r="D199" t="s">
-        <v>49</v>
-      </c>
-      <c r="E199">
-        <v>14</v>
-      </c>
-      <c r="F199" t="s">
-        <v>443</v>
-      </c>
-      <c r="G199" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>444</v>
-      </c>
-      <c r="C200" t="s">
-        <v>49</v>
-      </c>
-      <c r="D200" t="s">
-        <v>49</v>
-      </c>
-      <c r="E200">
-        <v>13</v>
-      </c>
-      <c r="F200" t="s">
-        <v>445</v>
-      </c>
-      <c r="G200" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>446</v>
-      </c>
-      <c r="G201" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>447</v>
-      </c>
-      <c r="G202" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>448</v>
-      </c>
-      <c r="C203" t="s">
-        <v>41</v>
-      </c>
-      <c r="D203" t="s">
-        <v>41</v>
-      </c>
-      <c r="E203">
-        <v>11</v>
-      </c>
-      <c r="F203" t="s">
-        <v>449</v>
-      </c>
-      <c r="G203" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>450</v>
-      </c>
-      <c r="B204" t="s">
-        <v>451</v>
-      </c>
-      <c r="C204" t="s">
-        <v>84</v>
-      </c>
-      <c r="D204" t="s">
-        <v>88</v>
-      </c>
-      <c r="E204">
-        <v>28</v>
-      </c>
-      <c r="F204" t="s">
-        <v>452</v>
-      </c>
-      <c r="G204" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>453</v>
-      </c>
-      <c r="C205" t="s">
-        <v>27</v>
-      </c>
-      <c r="D205" t="s">
-        <v>65</v>
-      </c>
-      <c r="E205">
-        <v>32</v>
-      </c>
-      <c r="F205" t="s">
-        <v>278</v>
-      </c>
-      <c r="G205" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>454</v>
-      </c>
-      <c r="C206" t="s">
-        <v>84</v>
-      </c>
-      <c r="D206" t="s">
-        <v>28</v>
-      </c>
-      <c r="E206">
-        <v>39</v>
-      </c>
-      <c r="F206" t="s">
-        <v>455</v>
-      </c>
-      <c r="G206" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>456</v>
-      </c>
-      <c r="C207" t="s">
-        <v>45</v>
-      </c>
-      <c r="D207" t="s">
-        <v>46</v>
-      </c>
-      <c r="E207">
-        <v>51</v>
-      </c>
-      <c r="F207" t="s">
-        <v>457</v>
-      </c>
-      <c r="G207" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>458</v>
-      </c>
-      <c r="C208" t="s">
-        <v>45</v>
-      </c>
-      <c r="D208" t="s">
-        <v>46</v>
-      </c>
-      <c r="E208">
-        <v>66</v>
-      </c>
-      <c r="F208" t="s">
-        <v>459</v>
-      </c>
-      <c r="G208" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>460</v>
-      </c>
-      <c r="C209" t="s">
-        <v>84</v>
-      </c>
-      <c r="D209" t="s">
-        <v>28</v>
-      </c>
-      <c r="E209">
-        <v>21</v>
-      </c>
-      <c r="F209" t="s">
-        <v>461</v>
-      </c>
-      <c r="G209" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>462</v>
-      </c>
-      <c r="C210" t="s">
-        <v>45</v>
-      </c>
-      <c r="D210" t="s">
-        <v>53</v>
-      </c>
-      <c r="E210">
-        <v>26</v>
-      </c>
-      <c r="F210" t="s">
-        <v>463</v>
-      </c>
-      <c r="G210" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>464</v>
-      </c>
-      <c r="C211" t="s">
-        <v>45</v>
-      </c>
-      <c r="D211" t="s">
-        <v>46</v>
-      </c>
-      <c r="E211">
-        <v>33</v>
-      </c>
-      <c r="F211" t="s">
-        <v>465</v>
-      </c>
-      <c r="G211" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>466</v>
-      </c>
-      <c r="C212" t="s">
-        <v>58</v>
-      </c>
-      <c r="D212" t="s">
-        <v>16</v>
-      </c>
-      <c r="E212">
-        <v>7</v>
-      </c>
-      <c r="F212" t="s">
-        <v>467</v>
-      </c>
-      <c r="G212" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>468</v>
-      </c>
-      <c r="C213" t="s">
-        <v>41</v>
-      </c>
-      <c r="D213" t="s">
-        <v>16</v>
-      </c>
-      <c r="E213">
-        <v>8</v>
-      </c>
-      <c r="F213" t="s">
-        <v>469</v>
-      </c>
-      <c r="G213" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>470</v>
-      </c>
-      <c r="B214" t="s">
-        <v>471</v>
-      </c>
-      <c r="C214" t="s">
-        <v>45</v>
-      </c>
-      <c r="D214" t="s">
-        <v>49</v>
-      </c>
-      <c r="E214">
-        <v>17</v>
-      </c>
-      <c r="F214" t="s">
-        <v>469</v>
-      </c>
-      <c r="G214" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>273</v>
-      </c>
-      <c r="C215" t="s">
-        <v>45</v>
-      </c>
-      <c r="D215" t="s">
-        <v>49</v>
-      </c>
-      <c r="E215">
-        <v>31</v>
-      </c>
-      <c r="F215" t="s">
-        <v>469</v>
-      </c>
-      <c r="G215" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>472</v>
-      </c>
-      <c r="C216" t="s">
-        <v>84</v>
-      </c>
-      <c r="D216" t="s">
-        <v>28</v>
-      </c>
-      <c r="E216">
-        <v>42</v>
-      </c>
-      <c r="F216" t="s">
-        <v>473</v>
-      </c>
-      <c r="G216" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>474</v>
-      </c>
-      <c r="B217" t="s">
-        <v>475</v>
-      </c>
-      <c r="C217" t="s">
-        <v>41</v>
       </c>
       <c r="D217" t="s">
         <v>41</v>
       </c>
       <c r="E217">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F217" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="G217" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H217" t="s">
+        <v>19</v>
+      </c>
+      <c r="I217" t="s">
+        <v>33</v>
+      </c>
+      <c r="J217" t="s">
+        <v>21</v>
+      </c>
+      <c r="K217" t="s">
+        <v>22</v>
+      </c>
+      <c r="L217" t="s">
+        <v>32</v>
+      </c>
+      <c r="M217" t="s">
+        <v>33</v>
+      </c>
+      <c r="N217" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>477</v>
+        <v>492</v>
+      </c>
+      <c r="B218" t="s">
+        <v>493</v>
       </c>
       <c r="C218" t="s">
+        <v>84</v>
+      </c>
+      <c r="D218" t="s">
+        <v>88</v>
+      </c>
+      <c r="E218">
+        <v>28</v>
+      </c>
+      <c r="F218" t="s">
+        <v>494</v>
+      </c>
+      <c r="G218" t="s">
+        <v>18</v>
+      </c>
+      <c r="H218" t="s">
+        <v>38</v>
+      </c>
+      <c r="I218" t="s">
+        <v>33</v>
+      </c>
+      <c r="J218" t="s">
+        <v>21</v>
+      </c>
+      <c r="K218" t="s">
+        <v>31</v>
+      </c>
+      <c r="L218" t="s">
+        <v>32</v>
+      </c>
+      <c r="M218" t="s">
+        <v>33</v>
+      </c>
+      <c r="N218" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>495</v>
+      </c>
+      <c r="C219" t="s">
+        <v>36</v>
+      </c>
+      <c r="D219" t="s">
+        <v>46</v>
+      </c>
+      <c r="E219">
+        <v>40</v>
+      </c>
+      <c r="F219" t="s">
+        <v>529</v>
+      </c>
+      <c r="G219" t="s">
+        <v>21</v>
+      </c>
+      <c r="H219" t="s">
+        <v>38</v>
+      </c>
+      <c r="I219" t="s">
+        <v>33</v>
+      </c>
+      <c r="J219" t="s">
+        <v>21</v>
+      </c>
+      <c r="K219" t="s">
+        <v>31</v>
+      </c>
+      <c r="L219" t="s">
+        <v>23</v>
+      </c>
+      <c r="M219" t="s">
+        <v>33</v>
+      </c>
+      <c r="N219" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>496</v>
+      </c>
+      <c r="C220" t="s">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>65</v>
+      </c>
+      <c r="E220">
+        <v>21</v>
+      </c>
+      <c r="F220" t="s">
+        <v>497</v>
+      </c>
+      <c r="G220" t="s">
+        <v>18</v>
+      </c>
+      <c r="H220" t="s">
+        <v>38</v>
+      </c>
+      <c r="I220" t="s">
+        <v>33</v>
+      </c>
+      <c r="J220" t="s">
+        <v>21</v>
+      </c>
+      <c r="K220" t="s">
+        <v>31</v>
+      </c>
+      <c r="L220" t="s">
+        <v>32</v>
+      </c>
+      <c r="M220" t="s">
+        <v>33</v>
+      </c>
+      <c r="N220" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>498</v>
+      </c>
+      <c r="C221" t="s">
+        <v>27</v>
+      </c>
+      <c r="D221" t="s">
+        <v>65</v>
+      </c>
+      <c r="E221">
+        <v>29</v>
+      </c>
+      <c r="F221" t="s">
+        <v>499</v>
+      </c>
+      <c r="G221" t="s">
+        <v>18</v>
+      </c>
+      <c r="H221" t="s">
+        <v>38</v>
+      </c>
+      <c r="I221" t="s">
+        <v>30</v>
+      </c>
+      <c r="J221" t="s">
+        <v>21</v>
+      </c>
+      <c r="K221" t="s">
+        <v>31</v>
+      </c>
+      <c r="L221" t="s">
+        <v>32</v>
+      </c>
+      <c r="M221" t="s">
+        <v>33</v>
+      </c>
+      <c r="N221" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>500</v>
+      </c>
+      <c r="C222" t="s">
+        <v>27</v>
+      </c>
+      <c r="D222" t="s">
+        <v>65</v>
+      </c>
+      <c r="E222">
+        <v>18</v>
+      </c>
+      <c r="F222" t="s">
+        <v>501</v>
+      </c>
+      <c r="G222" t="s">
+        <v>21</v>
+      </c>
+      <c r="H222" t="s">
+        <v>19</v>
+      </c>
+      <c r="I222" t="s">
+        <v>33</v>
+      </c>
+      <c r="J222" t="s">
+        <v>21</v>
+      </c>
+      <c r="K222" t="s">
+        <v>31</v>
+      </c>
+      <c r="L222" t="s">
+        <v>32</v>
+      </c>
+      <c r="M222" t="s">
+        <v>33</v>
+      </c>
+      <c r="N222" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>502</v>
+      </c>
+      <c r="C223" t="s">
         <v>41</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D223" t="s">
         <v>41</v>
-      </c>
-      <c r="E218">
-        <v>9</v>
-      </c>
-      <c r="F218" t="s">
-        <v>478</v>
-      </c>
-      <c r="G218" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>479</v>
-      </c>
-      <c r="C219" t="s">
-        <v>27</v>
-      </c>
-      <c r="D219" t="s">
-        <v>65</v>
-      </c>
-      <c r="E219">
-        <v>30</v>
-      </c>
-      <c r="F219" t="s">
-        <v>231</v>
-      </c>
-      <c r="G219" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>480</v>
-      </c>
-      <c r="C220" t="s">
-        <v>58</v>
-      </c>
-      <c r="D220" t="s">
-        <v>53</v>
-      </c>
-      <c r="E220">
-        <v>22</v>
-      </c>
-      <c r="F220" t="s">
-        <v>481</v>
-      </c>
-      <c r="G220" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>482</v>
-      </c>
-      <c r="C221" t="s">
-        <v>49</v>
-      </c>
-      <c r="D221" t="s">
-        <v>49</v>
-      </c>
-      <c r="E221">
-        <v>39</v>
-      </c>
-      <c r="F221" t="s">
-        <v>404</v>
-      </c>
-      <c r="G221" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>483</v>
-      </c>
-      <c r="C222" t="s">
-        <v>49</v>
-      </c>
-      <c r="D222" t="s">
-        <v>49</v>
-      </c>
-      <c r="E222">
-        <v>35</v>
-      </c>
-      <c r="F222" t="s">
-        <v>266</v>
-      </c>
-      <c r="G222" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>484</v>
-      </c>
-      <c r="B223" t="s">
-        <v>485</v>
-      </c>
-      <c r="C223" t="s">
-        <v>49</v>
-      </c>
-      <c r="D223" t="s">
-        <v>49</v>
       </c>
       <c r="E223">
         <v>9</v>
       </c>
       <c r="F223" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="G223" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H223" t="s">
+        <v>43</v>
+      </c>
+      <c r="I223" t="s">
+        <v>33</v>
+      </c>
+      <c r="J223" t="s">
+        <v>21</v>
+      </c>
+      <c r="K223" t="s">
+        <v>22</v>
+      </c>
+      <c r="L223" t="s">
+        <v>32</v>
+      </c>
+      <c r="M223" t="s">
+        <v>33</v>
+      </c>
+      <c r="N223" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>487</v>
+        <v>504</v>
+      </c>
+      <c r="B224" t="s">
+        <v>505</v>
       </c>
       <c r="C224" t="s">
+        <v>41</v>
+      </c>
+      <c r="D224" t="s">
+        <v>41</v>
+      </c>
+      <c r="E224">
+        <v>8</v>
+      </c>
+      <c r="F224" t="s">
+        <v>480</v>
+      </c>
+      <c r="G224" t="s">
+        <v>18</v>
+      </c>
+      <c r="H224" t="s">
+        <v>19</v>
+      </c>
+      <c r="I224" t="s">
+        <v>33</v>
+      </c>
+      <c r="J224" t="s">
+        <v>21</v>
+      </c>
+      <c r="K224" t="s">
+        <v>22</v>
+      </c>
+      <c r="L224" t="s">
+        <v>32</v>
+      </c>
+      <c r="M224" t="s">
+        <v>33</v>
+      </c>
+      <c r="N224" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>506</v>
+      </c>
+      <c r="B225" t="s">
+        <v>507</v>
+      </c>
+      <c r="C225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D225" t="s">
+        <v>41</v>
+      </c>
+      <c r="E225">
+        <v>18</v>
+      </c>
+      <c r="F225" t="s">
+        <v>508</v>
+      </c>
+      <c r="G225" t="s">
+        <v>21</v>
+      </c>
+      <c r="H225" t="s">
+        <v>19</v>
+      </c>
+      <c r="I225" t="s">
+        <v>20</v>
+      </c>
+      <c r="J225" t="s">
+        <v>21</v>
+      </c>
+      <c r="K225" t="s">
+        <v>22</v>
+      </c>
+      <c r="L225" t="s">
+        <v>32</v>
+      </c>
+      <c r="M225" t="s">
+        <v>33</v>
+      </c>
+      <c r="N225" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>509</v>
+      </c>
+      <c r="C226" t="s">
+        <v>84</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226">
+        <v>16</v>
+      </c>
+      <c r="F226" t="s">
+        <v>510</v>
+      </c>
+      <c r="G226" t="s">
+        <v>18</v>
+      </c>
+      <c r="H226" t="s">
+        <v>19</v>
+      </c>
+      <c r="I226" t="s">
+        <v>30</v>
+      </c>
+      <c r="J226" t="s">
+        <v>21</v>
+      </c>
+      <c r="K226" t="s">
+        <v>31</v>
+      </c>
+      <c r="L226" t="s">
+        <v>32</v>
+      </c>
+      <c r="M226" t="s">
+        <v>33</v>
+      </c>
+      <c r="N226" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>511</v>
+      </c>
+      <c r="C227" t="s">
+        <v>27</v>
+      </c>
+      <c r="D227" t="s">
+        <v>65</v>
+      </c>
+      <c r="E227">
+        <v>25</v>
+      </c>
+      <c r="F227" t="s">
+        <v>512</v>
+      </c>
+      <c r="G227" t="s">
+        <v>21</v>
+      </c>
+      <c r="H227" t="s">
+        <v>38</v>
+      </c>
+      <c r="I227" t="s">
+        <v>33</v>
+      </c>
+      <c r="J227" t="s">
+        <v>21</v>
+      </c>
+      <c r="K227" t="s">
+        <v>31</v>
+      </c>
+      <c r="L227" t="s">
+        <v>32</v>
+      </c>
+      <c r="M227" t="s">
+        <v>33</v>
+      </c>
+      <c r="N227" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>513</v>
+      </c>
+      <c r="B228" t="s">
+        <v>514</v>
+      </c>
+      <c r="C228" t="s">
         <v>58</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228">
+        <v>11</v>
+      </c>
+      <c r="F228" t="s">
+        <v>515</v>
+      </c>
+      <c r="G228" t="s">
+        <v>18</v>
+      </c>
+      <c r="H228" t="s">
+        <v>19</v>
+      </c>
+      <c r="I228" t="s">
+        <v>33</v>
+      </c>
+      <c r="J228" t="s">
+        <v>18</v>
+      </c>
+      <c r="K228" t="s">
+        <v>22</v>
+      </c>
+      <c r="L228" t="s">
+        <v>32</v>
+      </c>
+      <c r="M228" t="s">
+        <v>24</v>
+      </c>
+      <c r="N228" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>516</v>
+      </c>
+      <c r="B229" t="s">
+        <v>517</v>
+      </c>
+      <c r="C229" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" t="s">
         <v>16</v>
       </c>
-      <c r="E224">
-        <v>10</v>
-      </c>
-      <c r="F224" t="s">
-        <v>488</v>
-      </c>
-      <c r="G224" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>489</v>
-      </c>
-      <c r="C225" t="s">
-        <v>15</v>
-      </c>
-      <c r="D225" t="s">
-        <v>16</v>
-      </c>
-      <c r="E225">
-        <v>6</v>
-      </c>
-      <c r="F225" t="s">
-        <v>490</v>
-      </c>
-      <c r="G225" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>491</v>
-      </c>
-      <c r="C226" t="s">
-        <v>45</v>
-      </c>
-      <c r="D226" t="s">
-        <v>53</v>
-      </c>
-      <c r="E226">
-        <v>24</v>
-      </c>
-      <c r="F226" t="s">
-        <v>297</v>
-      </c>
-      <c r="G226" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>492</v>
-      </c>
-      <c r="C227" t="s">
-        <v>15</v>
-      </c>
-      <c r="D227" t="s">
-        <v>41</v>
-      </c>
-      <c r="E227">
-        <v>5</v>
-      </c>
-      <c r="F227" t="s">
-        <v>493</v>
-      </c>
-      <c r="G227" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>494</v>
-      </c>
-      <c r="C228" t="s">
-        <v>41</v>
-      </c>
-      <c r="D228" t="s">
-        <v>41</v>
-      </c>
-      <c r="E228">
-        <v>17</v>
-      </c>
-      <c r="F228" t="s">
-        <v>495</v>
-      </c>
-      <c r="G228" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>496</v>
-      </c>
-      <c r="C229" t="s">
-        <v>84</v>
-      </c>
-      <c r="D229" t="s">
-        <v>28</v>
-      </c>
       <c r="E229">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F229" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="G229" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>498</v>
-      </c>
-      <c r="C230" t="s">
-        <v>41</v>
-      </c>
-      <c r="D230" t="s">
-        <v>41</v>
-      </c>
-      <c r="E230">
-        <v>8</v>
-      </c>
-      <c r="F230" t="s">
-        <v>254</v>
-      </c>
-      <c r="G230" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>499</v>
-      </c>
-      <c r="C231" t="s">
-        <v>49</v>
-      </c>
-      <c r="D231" t="s">
-        <v>49</v>
-      </c>
-      <c r="E231">
-        <v>49</v>
-      </c>
-      <c r="F231" t="s">
-        <v>500</v>
-      </c>
-      <c r="G231" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>501</v>
-      </c>
-      <c r="C232" t="s">
-        <v>27</v>
-      </c>
-      <c r="D232" t="s">
-        <v>65</v>
-      </c>
-      <c r="E232">
-        <v>10</v>
-      </c>
-      <c r="F232" t="s">
-        <v>196</v>
-      </c>
-      <c r="G232" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>502</v>
-      </c>
-      <c r="C233" t="s">
-        <v>58</v>
-      </c>
-      <c r="D233" t="s">
-        <v>53</v>
-      </c>
-      <c r="E233">
-        <v>8</v>
-      </c>
-      <c r="F233" t="s">
-        <v>59</v>
-      </c>
-      <c r="G233" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>503</v>
-      </c>
-      <c r="B234" t="s">
-        <v>504</v>
-      </c>
-      <c r="C234" t="s">
-        <v>41</v>
-      </c>
-      <c r="D234" t="s">
-        <v>41</v>
-      </c>
-      <c r="E234">
-        <v>14</v>
-      </c>
-      <c r="F234" t="s">
-        <v>505</v>
-      </c>
-      <c r="G234" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>506</v>
-      </c>
-      <c r="C235" t="s">
-        <v>27</v>
-      </c>
-      <c r="D235" t="s">
-        <v>65</v>
-      </c>
-      <c r="E235">
+        <v>18</v>
+      </c>
+      <c r="H229" t="s">
         <v>19</v>
       </c>
-      <c r="F235" t="s">
-        <v>507</v>
-      </c>
-      <c r="G235" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>508</v>
-      </c>
-      <c r="C236" t="s">
-        <v>49</v>
-      </c>
-      <c r="D236" t="s">
-        <v>49</v>
-      </c>
-      <c r="E236">
-        <v>13</v>
-      </c>
-      <c r="F236" t="s">
-        <v>509</v>
-      </c>
-      <c r="G236" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>41</v>
-      </c>
-      <c r="C237" t="s">
-        <v>41</v>
-      </c>
-      <c r="D237" t="s">
-        <v>41</v>
-      </c>
-      <c r="E237">
-        <v>8</v>
-      </c>
-      <c r="F237" t="s">
-        <v>510</v>
-      </c>
-      <c r="G237" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>511</v>
-      </c>
-      <c r="C238" t="s">
-        <v>84</v>
-      </c>
-      <c r="D238" t="s">
-        <v>28</v>
-      </c>
-      <c r="E238">
-        <v>28</v>
-      </c>
-      <c r="F238" t="s">
-        <v>512</v>
-      </c>
-      <c r="G238" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>513</v>
-      </c>
-      <c r="C239" t="s">
-        <v>45</v>
-      </c>
-      <c r="D239" t="s">
-        <v>46</v>
-      </c>
-      <c r="E239">
-        <v>71</v>
-      </c>
-      <c r="F239" t="s">
-        <v>514</v>
-      </c>
-      <c r="G239" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>515</v>
-      </c>
-      <c r="C240" t="s">
-        <v>58</v>
-      </c>
-      <c r="D240" t="s">
-        <v>16</v>
-      </c>
-      <c r="E240">
-        <v>6</v>
-      </c>
-      <c r="F240" t="s">
-        <v>516</v>
-      </c>
-      <c r="G240" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>517</v>
-      </c>
-      <c r="C241" t="s">
-        <v>58</v>
-      </c>
-      <c r="D241" t="s">
-        <v>16</v>
-      </c>
-      <c r="E241">
-        <v>10</v>
-      </c>
-      <c r="F241" t="s">
-        <v>518</v>
-      </c>
-      <c r="G241" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>519</v>
-      </c>
-      <c r="C242" t="s">
-        <v>45</v>
-      </c>
-      <c r="D242" t="s">
-        <v>46</v>
-      </c>
-      <c r="E242">
-        <v>65</v>
-      </c>
-      <c r="F242" t="s">
-        <v>520</v>
-      </c>
-      <c r="G242" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>521</v>
-      </c>
-      <c r="B243" t="s">
-        <v>522</v>
-      </c>
-      <c r="C243" t="s">
-        <v>15</v>
-      </c>
-      <c r="D243" t="s">
-        <v>41</v>
-      </c>
-      <c r="E243">
-        <v>2</v>
-      </c>
-      <c r="F243" t="s">
-        <v>523</v>
-      </c>
-      <c r="G243" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>524</v>
-      </c>
-      <c r="B244" t="s">
-        <v>525</v>
-      </c>
-      <c r="C244" t="s">
-        <v>84</v>
-      </c>
-      <c r="D244" t="s">
-        <v>88</v>
-      </c>
-      <c r="E244">
-        <v>28</v>
-      </c>
-      <c r="F244" t="s">
-        <v>526</v>
-      </c>
-      <c r="G244" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>527</v>
-      </c>
-      <c r="G245" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>528</v>
-      </c>
-      <c r="G246" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>529</v>
-      </c>
-      <c r="C247" t="s">
-        <v>27</v>
-      </c>
-      <c r="D247" t="s">
-        <v>65</v>
-      </c>
-      <c r="E247">
-        <v>21</v>
-      </c>
-      <c r="F247" t="s">
-        <v>530</v>
-      </c>
-      <c r="G247" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>531</v>
-      </c>
-      <c r="C248" t="s">
-        <v>27</v>
-      </c>
-      <c r="D248" t="s">
-        <v>65</v>
-      </c>
-      <c r="E248">
-        <v>29</v>
-      </c>
-      <c r="F248" t="s">
-        <v>532</v>
-      </c>
-      <c r="G248" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>533</v>
-      </c>
-      <c r="C249" t="s">
-        <v>49</v>
-      </c>
-      <c r="D249" t="s">
-        <v>49</v>
-      </c>
-      <c r="E249">
-        <v>13</v>
-      </c>
-      <c r="F249" t="s">
-        <v>201</v>
-      </c>
-      <c r="G249" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>534</v>
-      </c>
-      <c r="C250" t="s">
-        <v>49</v>
-      </c>
-      <c r="D250" t="s">
-        <v>49</v>
-      </c>
-      <c r="E250">
-        <v>16</v>
-      </c>
-      <c r="F250" t="s">
-        <v>201</v>
-      </c>
-      <c r="G250" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>535</v>
-      </c>
-      <c r="C251" t="s">
-        <v>49</v>
-      </c>
-      <c r="D251" t="s">
-        <v>49</v>
-      </c>
-      <c r="E251">
-        <v>12</v>
-      </c>
-      <c r="F251" t="s">
-        <v>201</v>
-      </c>
-      <c r="G251" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>536</v>
-      </c>
-      <c r="C252" t="s">
-        <v>27</v>
-      </c>
-      <c r="D252" t="s">
-        <v>65</v>
-      </c>
-      <c r="E252">
-        <v>18</v>
-      </c>
-      <c r="F252" t="s">
-        <v>537</v>
-      </c>
-      <c r="G252" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>538</v>
-      </c>
-      <c r="C253" t="s">
-        <v>41</v>
-      </c>
-      <c r="D253" t="s">
-        <v>41</v>
-      </c>
-      <c r="E253">
-        <v>9</v>
-      </c>
-      <c r="F253" t="s">
-        <v>539</v>
-      </c>
-      <c r="G253" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>540</v>
-      </c>
-      <c r="B254" t="s">
-        <v>541</v>
-      </c>
-      <c r="C254" t="s">
-        <v>41</v>
-      </c>
-      <c r="D254" t="s">
-        <v>41</v>
-      </c>
-      <c r="E254">
-        <v>8</v>
-      </c>
-      <c r="F254" t="s">
-        <v>510</v>
-      </c>
-      <c r="G254" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>542</v>
-      </c>
-      <c r="B255" t="s">
-        <v>543</v>
-      </c>
-      <c r="C255" t="s">
-        <v>41</v>
-      </c>
-      <c r="D255" t="s">
-        <v>41</v>
-      </c>
-      <c r="E255">
-        <v>18</v>
-      </c>
-      <c r="F255" t="s">
-        <v>544</v>
-      </c>
-      <c r="G255" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>545</v>
-      </c>
-      <c r="C256" t="s">
-        <v>84</v>
-      </c>
-      <c r="D256" t="s">
-        <v>28</v>
-      </c>
-      <c r="E256">
-        <v>16</v>
-      </c>
-      <c r="F256" t="s">
-        <v>546</v>
-      </c>
-      <c r="G256" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>547</v>
-      </c>
-      <c r="C257" t="s">
-        <v>49</v>
-      </c>
-      <c r="D257" t="s">
-        <v>49</v>
-      </c>
-      <c r="E257">
-        <v>35</v>
-      </c>
-      <c r="F257" t="s">
-        <v>266</v>
-      </c>
-      <c r="G257" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>548</v>
-      </c>
-      <c r="B258" t="s">
-        <v>549</v>
-      </c>
-      <c r="C258" t="s">
-        <v>41</v>
-      </c>
-      <c r="D258" t="s">
-        <v>41</v>
-      </c>
-      <c r="E258">
-        <v>7</v>
-      </c>
-      <c r="F258" t="s">
-        <v>550</v>
-      </c>
-      <c r="G258" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>551</v>
-      </c>
-      <c r="C259" t="s">
-        <v>27</v>
-      </c>
-      <c r="D259" t="s">
-        <v>65</v>
-      </c>
-      <c r="E259">
-        <v>25</v>
-      </c>
-      <c r="F259" t="s">
-        <v>552</v>
-      </c>
-      <c r="G259" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>553</v>
-      </c>
-      <c r="C260" t="s">
-        <v>41</v>
-      </c>
-      <c r="D260" t="s">
-        <v>41</v>
-      </c>
-      <c r="E260">
-        <v>7</v>
-      </c>
-      <c r="F260" t="s">
-        <v>550</v>
-      </c>
-      <c r="G260" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>554</v>
-      </c>
-      <c r="B261" t="s">
-        <v>555</v>
-      </c>
-      <c r="C261" t="s">
-        <v>58</v>
-      </c>
-      <c r="D261" t="s">
-        <v>28</v>
-      </c>
-      <c r="E261">
-        <v>11</v>
-      </c>
-      <c r="F261" t="s">
-        <v>556</v>
-      </c>
-      <c r="G261" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>557</v>
-      </c>
-      <c r="C262" t="s">
-        <v>27</v>
-      </c>
-      <c r="D262" t="s">
-        <v>65</v>
-      </c>
-      <c r="E262">
-        <v>32</v>
-      </c>
-      <c r="F262" t="s">
-        <v>114</v>
-      </c>
-      <c r="G262" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>558</v>
-      </c>
-      <c r="B263" t="s">
-        <v>559</v>
-      </c>
-      <c r="C263" t="s">
-        <v>15</v>
-      </c>
-      <c r="D263" t="s">
-        <v>16</v>
-      </c>
-      <c r="E263">
-        <v>3</v>
-      </c>
-      <c r="F263" t="s">
-        <v>560</v>
-      </c>
-      <c r="G263" t="s">
-        <v>18</v>
+      <c r="I229" t="s">
+        <v>20</v>
+      </c>
+      <c r="J229" t="s">
+        <v>18</v>
+      </c>
+      <c r="K229" t="s">
+        <v>22</v>
+      </c>
+      <c r="L229" t="s">
+        <v>32</v>
+      </c>
+      <c r="M229" t="s">
+        <v>33</v>
+      </c>
+      <c r="N229" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/dogbreeddata.xlsx
+++ b/data/dogbreeddata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AksV\Desktop\Coding\git_lessons\PawPal\pawpal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B755AF36-83DD-40E5-8054-49B460FBB588}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDFF050-4305-4D5F-BED2-A63B8A247E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="497">
   <si>
     <t>BreedName</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Appenzell Mountain Dog</t>
   </si>
   <si>
-    <t>Australian Cattle Dog/Blue Heeler</t>
-  </si>
-  <si>
     <t>Aggressive, Alert, Energetic, Intelligent, Loyal, Protective, Responsive</t>
   </si>
   <si>
@@ -1496,6 +1493,24 @@
   </si>
   <si>
     <t>Wire haired Pointing Griffon</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>hypoallergenic</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>Australian Cattle Dog</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
 </sst>
 </file>
@@ -2336,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:O229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N229" sqref="N229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2355,9 +2370,11 @@
     <col min="11" max="11" width="22.88671875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2397,8 +2414,14 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>491</v>
+      </c>
+      <c r="O1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2412,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -2438,8 +2461,14 @@
       <c r="M2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>494</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2479,8 +2508,14 @@
       <c r="M3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>496</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2517,8 +2552,14 @@
       <c r="M4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>496</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2558,8 +2599,14 @@
       <c r="M5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>494</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2599,8 +2646,14 @@
       <c r="M6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2640,8 +2693,14 @@
       <c r="M7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>493</v>
+      </c>
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2681,8 +2740,14 @@
       <c r="M8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>493</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2696,7 +2761,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -2722,8 +2787,14 @@
       <c r="M9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>494</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2763,8 +2834,14 @@
       <c r="M10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>493</v>
+      </c>
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2804,8 +2881,14 @@
       <c r="M11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>494</v>
+      </c>
+      <c r="O11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -2845,8 +2928,14 @@
       <c r="M12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>494</v>
+      </c>
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -2886,8 +2975,14 @@
       <c r="M13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>494</v>
+      </c>
+      <c r="O13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2927,8 +3022,14 @@
       <c r="M14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>493</v>
+      </c>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2942,7 +3043,7 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -2968,10 +3069,16 @@
       <c r="M15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>493</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>495</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
@@ -2983,7 +3090,7 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -3009,10 +3116,16 @@
       <c r="M16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" t="s">
+        <v>496</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -3024,7 +3137,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -3050,10 +3163,16 @@
       <c r="M17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" t="s">
+        <v>494</v>
+      </c>
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -3065,7 +3184,7 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -3091,10 +3210,16 @@
       <c r="M18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" t="s">
+        <v>494</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -3106,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -3132,10 +3257,16 @@
       <c r="M19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" t="s">
+        <v>494</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
@@ -3147,7 +3278,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -3173,13 +3304,19 @@
       <c r="M20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" t="s">
+        <v>493</v>
+      </c>
+      <c r="O20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
         <v>75</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -3188,7 +3325,7 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -3214,22 +3351,28 @@
       <c r="M21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" t="s">
+        <v>494</v>
+      </c>
+      <c r="O21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
         <v>78</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
       </c>
       <c r="D22">
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -3255,22 +3398,28 @@
       <c r="M22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" t="s">
+        <v>494</v>
+      </c>
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -3296,10 +3445,16 @@
       <c r="M23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
+        <v>494</v>
+      </c>
+      <c r="O23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -3311,7 +3466,7 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -3337,10 +3492,16 @@
       <c r="M24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" t="s">
+        <v>493</v>
+      </c>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
@@ -3352,7 +3513,7 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -3378,10 +3539,16 @@
       <c r="M25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" t="s">
+        <v>494</v>
+      </c>
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
@@ -3393,7 +3560,7 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
@@ -3419,10 +3586,16 @@
       <c r="M26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" t="s">
+        <v>493</v>
+      </c>
+      <c r="O26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
@@ -3434,7 +3607,7 @@
         <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
@@ -3460,10 +3633,16 @@
       <c r="M27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" t="s">
+        <v>493</v>
+      </c>
+      <c r="O27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
@@ -3475,7 +3654,7 @@
         <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
@@ -3501,10 +3680,16 @@
       <c r="M28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" t="s">
+        <v>493</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
@@ -3516,7 +3701,7 @@
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
@@ -3542,10 +3727,16 @@
       <c r="M29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" t="s">
+        <v>494</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
@@ -3557,7 +3748,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -3583,10 +3774,16 @@
       <c r="M30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30" t="s">
+        <v>493</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -3598,7 +3795,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
@@ -3624,10 +3821,16 @@
       <c r="M31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31" t="s">
+        <v>493</v>
+      </c>
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -3639,7 +3842,7 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -3665,22 +3868,28 @@
       <c r="M32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32" t="s">
+        <v>494</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33">
         <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -3706,10 +3915,16 @@
       <c r="M33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33" t="s">
+        <v>494</v>
+      </c>
+      <c r="O33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -3721,7 +3936,7 @@
         <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -3747,22 +3962,28 @@
       <c r="M34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34" t="s">
+        <v>494</v>
+      </c>
+      <c r="O34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35">
         <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -3788,10 +4009,16 @@
       <c r="M35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35" t="s">
+        <v>494</v>
+      </c>
+      <c r="O35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -3803,7 +4030,7 @@
         <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
@@ -3829,22 +4056,28 @@
       <c r="M36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36" t="s">
+        <v>493</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37">
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -3870,10 +4103,16 @@
       <c r="M37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37" t="s">
+        <v>494</v>
+      </c>
+      <c r="O37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -3885,7 +4124,7 @@
         <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -3911,22 +4150,28 @@
       <c r="M38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38" t="s">
+        <v>494</v>
+      </c>
+      <c r="O38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
         <v>106</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39">
-        <v>28</v>
-      </c>
-      <c r="E39" t="s">
-        <v>107</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -3952,10 +4197,16 @@
       <c r="M39" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39" t="s">
+        <v>494</v>
+      </c>
+      <c r="O39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
@@ -3967,7 +4218,7 @@
         <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -3993,10 +4244,16 @@
       <c r="M40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40" t="s">
+        <v>494</v>
+      </c>
+      <c r="O40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -4008,7 +4265,7 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -4034,10 +4291,16 @@
       <c r="M41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41" t="s">
+        <v>494</v>
+      </c>
+      <c r="O41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -4049,7 +4312,7 @@
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -4075,10 +4338,16 @@
       <c r="M42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42" t="s">
+        <v>494</v>
+      </c>
+      <c r="O42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
@@ -4090,7 +4359,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -4116,13 +4385,19 @@
       <c r="M43" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43" t="s">
+        <v>496</v>
+      </c>
+      <c r="O43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
         <v>26</v>
@@ -4131,7 +4406,7 @@
         <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
@@ -4157,10 +4432,16 @@
       <c r="M44" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44" t="s">
+        <v>493</v>
+      </c>
+      <c r="O44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
@@ -4172,7 +4453,7 @@
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
@@ -4198,10 +4479,16 @@
       <c r="M45" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45" t="s">
+        <v>494</v>
+      </c>
+      <c r="O45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
@@ -4213,7 +4500,7 @@
         <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -4239,10 +4526,16 @@
       <c r="M46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46" t="s">
+        <v>494</v>
+      </c>
+      <c r="O46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
@@ -4254,7 +4547,7 @@
         <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -4280,10 +4573,16 @@
       <c r="M47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47" t="s">
+        <v>494</v>
+      </c>
+      <c r="O47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -4295,7 +4594,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -4321,10 +4620,16 @@
       <c r="M48" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48" t="s">
+        <v>494</v>
+      </c>
+      <c r="O48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
         <v>46</v>
@@ -4336,7 +4641,7 @@
         <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -4362,10 +4667,16 @@
       <c r="M49" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49" t="s">
+        <v>493</v>
+      </c>
+      <c r="O49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -4377,7 +4688,7 @@
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
@@ -4403,10 +4714,16 @@
       <c r="M50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N50" t="s">
+        <v>493</v>
+      </c>
+      <c r="O50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -4418,7 +4735,7 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -4444,10 +4761,16 @@
       <c r="M51" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N51" t="s">
+        <v>494</v>
+      </c>
+      <c r="O51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
         <v>38</v>
@@ -4459,7 +4782,7 @@
         <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -4485,10 +4808,16 @@
       <c r="M52" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N52" t="s">
+        <v>494</v>
+      </c>
+      <c r="O52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
         <v>42</v>
@@ -4500,7 +4829,7 @@
         <v>55</v>
       </c>
       <c r="E53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -4526,10 +4855,16 @@
       <c r="M53" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N53" t="s">
+        <v>493</v>
+      </c>
+      <c r="O53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
@@ -4541,7 +4876,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -4567,10 +4902,16 @@
       <c r="M54" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N54" t="s">
+        <v>494</v>
+      </c>
+      <c r="O54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s">
         <v>46</v>
@@ -4582,7 +4923,7 @@
         <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -4608,10 +4949,16 @@
       <c r="M55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55" t="s">
+        <v>494</v>
+      </c>
+      <c r="O55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
         <v>42</v>
@@ -4623,7 +4970,7 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -4649,10 +4996,16 @@
       <c r="M56" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N56" t="s">
+        <v>494</v>
+      </c>
+      <c r="O56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
         <v>26</v>
@@ -4661,7 +5014,7 @@
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -4687,10 +5040,16 @@
       <c r="M57" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N57" t="s">
+        <v>494</v>
+      </c>
+      <c r="O57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
         <v>46</v>
@@ -4702,7 +5061,7 @@
         <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -4728,10 +5087,16 @@
       <c r="M58" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N58" t="s">
+        <v>494</v>
+      </c>
+      <c r="O58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
         <v>46</v>
@@ -4743,7 +5108,7 @@
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
@@ -4769,10 +5134,16 @@
       <c r="M59" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N59" t="s">
+        <v>494</v>
+      </c>
+      <c r="O59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B60" t="s">
         <v>42</v>
@@ -4784,7 +5155,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -4810,10 +5181,16 @@
       <c r="M60" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N60" t="s">
+        <v>493</v>
+      </c>
+      <c r="O60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -4825,7 +5202,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -4851,10 +5228,16 @@
       <c r="M61" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N61" t="s">
+        <v>494</v>
+      </c>
+      <c r="O61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -4866,7 +5249,7 @@
         <v>33</v>
       </c>
       <c r="E62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
@@ -4892,10 +5275,16 @@
       <c r="M62" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N62" t="s">
+        <v>494</v>
+      </c>
+      <c r="O62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -4907,7 +5296,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
@@ -4933,10 +5322,16 @@
       <c r="M63" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N63" t="s">
+        <v>496</v>
+      </c>
+      <c r="O63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -4948,7 +5343,7 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
@@ -4974,10 +5369,16 @@
       <c r="M64" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N64" t="s">
+        <v>496</v>
+      </c>
+      <c r="O64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
         <v>42</v>
@@ -4989,7 +5390,7 @@
         <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
@@ -5015,10 +5416,16 @@
       <c r="M65" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N65" t="s">
+        <v>494</v>
+      </c>
+      <c r="O65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
         <v>42</v>
@@ -5030,7 +5437,7 @@
         <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
@@ -5056,10 +5463,16 @@
       <c r="M66" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N66" t="s">
+        <v>494</v>
+      </c>
+      <c r="O66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -5071,7 +5484,7 @@
         <v>32</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
@@ -5097,10 +5510,16 @@
       <c r="M67" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N67" t="s">
+        <v>494</v>
+      </c>
+      <c r="O67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
         <v>53</v>
@@ -5112,7 +5531,7 @@
         <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
@@ -5138,13 +5557,19 @@
       <c r="M68" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N68" t="s">
+        <v>493</v>
+      </c>
+      <c r="O68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
@@ -5153,7 +5578,7 @@
         <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
@@ -5179,10 +5604,16 @@
       <c r="M69" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N69" t="s">
+        <v>494</v>
+      </c>
+      <c r="O69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
@@ -5194,7 +5625,7 @@
         <v>32</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
@@ -5220,10 +5651,16 @@
       <c r="M70" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N70" t="s">
+        <v>493</v>
+      </c>
+      <c r="O70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
         <v>25</v>
@@ -5235,7 +5672,7 @@
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
@@ -5261,10 +5698,16 @@
       <c r="M71" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N71" t="s">
+        <v>494</v>
+      </c>
+      <c r="O71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
@@ -5276,7 +5719,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -5302,10 +5745,16 @@
       <c r="M72" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N72" t="s">
+        <v>493</v>
+      </c>
+      <c r="O72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
         <v>46</v>
@@ -5317,7 +5766,7 @@
         <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -5343,22 +5792,28 @@
       <c r="M73" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N73" t="s">
+        <v>493</v>
+      </c>
+      <c r="O73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74">
         <v>55</v>
       </c>
       <c r="E74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
@@ -5384,10 +5839,16 @@
       <c r="M74" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N74" t="s">
+        <v>494</v>
+      </c>
+      <c r="O74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
         <v>46</v>
@@ -5399,7 +5860,7 @@
         <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -5425,10 +5886,16 @@
       <c r="M75" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N75" t="s">
+        <v>494</v>
+      </c>
+      <c r="O75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B76" t="s">
         <v>53</v>
@@ -5440,7 +5907,7 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
@@ -5466,10 +5933,16 @@
       <c r="M76" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N76" t="s">
+        <v>494</v>
+      </c>
+      <c r="O76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B77" t="s">
         <v>25</v>
@@ -5481,7 +5954,7 @@
         <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
@@ -5507,22 +5980,28 @@
       <c r="M77" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N77" t="s">
+        <v>494</v>
+      </c>
+      <c r="O77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
@@ -5548,10 +6027,16 @@
       <c r="M78" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N78" t="s">
+        <v>494</v>
+      </c>
+      <c r="O78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B79" t="s">
         <v>53</v>
@@ -5563,7 +6048,7 @@
         <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -5589,10 +6074,16 @@
       <c r="M79" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N79" t="s">
+        <v>494</v>
+      </c>
+      <c r="O79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B80" t="s">
         <v>38</v>
@@ -5604,7 +6095,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
@@ -5630,10 +6121,16 @@
       <c r="M80" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N80" t="s">
+        <v>494</v>
+      </c>
+      <c r="O80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
@@ -5645,7 +6142,7 @@
         <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -5671,10 +6168,16 @@
       <c r="M81" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N81" t="s">
+        <v>494</v>
+      </c>
+      <c r="O81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B82" t="s">
         <v>42</v>
@@ -5686,7 +6189,7 @@
         <v>43</v>
       </c>
       <c r="E82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -5712,10 +6215,16 @@
       <c r="M82" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N82" t="s">
+        <v>494</v>
+      </c>
+      <c r="O82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B83" t="s">
         <v>42</v>
@@ -5727,7 +6236,7 @@
         <v>60</v>
       </c>
       <c r="E83" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -5753,10 +6262,16 @@
       <c r="M83" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N83" t="s">
+        <v>494</v>
+      </c>
+      <c r="O83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B84" t="s">
         <v>46</v>
@@ -5768,7 +6283,7 @@
         <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -5794,10 +6309,16 @@
       <c r="M84" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N84" t="s">
+        <v>494</v>
+      </c>
+      <c r="O84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B85" t="s">
         <v>53</v>
@@ -5809,7 +6330,7 @@
         <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
@@ -5835,10 +6356,16 @@
       <c r="M85" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N85" t="s">
+        <v>494</v>
+      </c>
+      <c r="O85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
@@ -5850,7 +6377,7 @@
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -5876,22 +6403,28 @@
       <c r="M86" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N86" t="s">
+        <v>493</v>
+      </c>
+      <c r="O86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87">
         <v>26</v>
       </c>
       <c r="E87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -5917,10 +6450,16 @@
       <c r="M87" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N87" t="s">
+        <v>496</v>
+      </c>
+      <c r="O87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B88" t="s">
         <v>25</v>
@@ -5932,7 +6471,7 @@
         <v>25</v>
       </c>
       <c r="E88" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -5958,10 +6497,16 @@
       <c r="M88" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N88" t="s">
+        <v>496</v>
+      </c>
+      <c r="O88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B89" t="s">
         <v>25</v>
@@ -5973,7 +6518,7 @@
         <v>30</v>
       </c>
       <c r="E89" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
@@ -5999,10 +6544,16 @@
       <c r="M89" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N89" t="s">
+        <v>493</v>
+      </c>
+      <c r="O89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B90" t="s">
         <v>46</v>
@@ -6014,7 +6565,7 @@
         <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -6040,10 +6591,16 @@
       <c r="M90" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N90" t="s">
+        <v>493</v>
+      </c>
+      <c r="O90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
@@ -6055,7 +6612,7 @@
         <v>23</v>
       </c>
       <c r="E91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
@@ -6081,10 +6638,16 @@
       <c r="M91" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N91" t="s">
+        <v>494</v>
+      </c>
+      <c r="O91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
@@ -6096,7 +6659,7 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
@@ -6122,10 +6685,16 @@
       <c r="M92" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N92" t="s">
+        <v>494</v>
+      </c>
+      <c r="O92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B93" t="s">
         <v>46</v>
@@ -6137,7 +6706,7 @@
         <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -6163,10 +6732,16 @@
       <c r="M93" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N93" t="s">
+        <v>493</v>
+      </c>
+      <c r="O93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B94" t="s">
         <v>38</v>
@@ -6178,7 +6753,7 @@
         <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -6204,10 +6779,16 @@
       <c r="M94" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N94" t="s">
+        <v>496</v>
+      </c>
+      <c r="O94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B95" t="s">
         <v>25</v>
@@ -6219,7 +6800,7 @@
         <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -6245,10 +6826,16 @@
       <c r="M95" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N95" t="s">
+        <v>494</v>
+      </c>
+      <c r="O95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96" t="s">
         <v>42</v>
@@ -6260,7 +6847,7 @@
         <v>46</v>
       </c>
       <c r="E96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -6286,10 +6873,16 @@
       <c r="M96" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N96" t="s">
+        <v>496</v>
+      </c>
+      <c r="O96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B97" t="s">
         <v>46</v>
@@ -6301,7 +6894,7 @@
         <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -6327,10 +6920,16 @@
       <c r="M97" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N97" t="s">
+        <v>493</v>
+      </c>
+      <c r="O97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B98" t="s">
         <v>53</v>
@@ -6342,7 +6941,7 @@
         <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
@@ -6368,10 +6967,16 @@
       <c r="M98" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N98" t="s">
+        <v>493</v>
+      </c>
+      <c r="O98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B99" t="s">
         <v>25</v>
@@ -6383,7 +6988,7 @@
         <v>30</v>
       </c>
       <c r="E99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
@@ -6409,10 +7014,16 @@
       <c r="M99" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N99" t="s">
+        <v>494</v>
+      </c>
+      <c r="O99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B100" t="s">
         <v>38</v>
@@ -6424,7 +7035,7 @@
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
@@ -6450,22 +7061,28 @@
       <c r="M100" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N100" t="s">
+        <v>494</v>
+      </c>
+      <c r="O100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D101">
         <v>32</v>
       </c>
       <c r="E101" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -6491,10 +7108,16 @@
       <c r="M101" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N101" t="s">
+        <v>494</v>
+      </c>
+      <c r="O101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B102" t="s">
         <v>53</v>
@@ -6506,7 +7129,7 @@
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
@@ -6532,10 +7155,16 @@
       <c r="M102" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N102" t="s">
+        <v>494</v>
+      </c>
+      <c r="O102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B103" t="s">
         <v>46</v>
@@ -6547,7 +7176,7 @@
         <v>45</v>
       </c>
       <c r="E103" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -6573,13 +7202,19 @@
       <c r="M103" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N103" t="s">
+        <v>493</v>
+      </c>
+      <c r="O103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B104" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C104" t="s">
         <v>26</v>
@@ -6588,7 +7223,7 @@
         <v>25</v>
       </c>
       <c r="E104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -6614,10 +7249,16 @@
       <c r="M104" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N104" t="s">
+        <v>496</v>
+      </c>
+      <c r="O104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B105" t="s">
         <v>42</v>
@@ -6629,7 +7270,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -6655,10 +7296,16 @@
       <c r="M105" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N105" t="s">
+        <v>494</v>
+      </c>
+      <c r="O105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B106" t="s">
         <v>46</v>
@@ -6670,7 +7317,7 @@
         <v>35</v>
       </c>
       <c r="E106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -6696,10 +7343,16 @@
       <c r="M106" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N106" t="s">
+        <v>493</v>
+      </c>
+      <c r="O106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B107" t="s">
         <v>42</v>
@@ -6711,7 +7364,7 @@
         <v>29</v>
       </c>
       <c r="E107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
@@ -6737,10 +7390,16 @@
       <c r="M107" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N107" t="s">
+        <v>494</v>
+      </c>
+      <c r="O107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B108" t="s">
         <v>53</v>
@@ -6778,10 +7437,16 @@
       <c r="M108" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N108" t="s">
+        <v>494</v>
+      </c>
+      <c r="O108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B109" t="s">
         <v>25</v>
@@ -6793,7 +7458,7 @@
         <v>30</v>
       </c>
       <c r="E109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -6819,10 +7484,16 @@
       <c r="M109" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N109" t="s">
+        <v>494</v>
+      </c>
+      <c r="O109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B110" t="s">
         <v>42</v>
@@ -6834,7 +7505,7 @@
         <v>38</v>
       </c>
       <c r="E110" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -6860,10 +7531,16 @@
       <c r="M110" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N110" t="s">
+        <v>494</v>
+      </c>
+      <c r="O110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B111" t="s">
         <v>38</v>
@@ -6875,7 +7552,7 @@
         <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
@@ -6901,10 +7578,16 @@
       <c r="M111" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N111" t="s">
+        <v>494</v>
+      </c>
+      <c r="O111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B112" t="s">
         <v>25</v>
@@ -6916,7 +7599,7 @@
         <v>32</v>
       </c>
       <c r="E112" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
@@ -6942,10 +7625,16 @@
       <c r="M112" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N112" t="s">
+        <v>494</v>
+      </c>
+      <c r="O112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B113" t="s">
         <v>25</v>
@@ -6957,13 +7646,13 @@
         <v>31</v>
       </c>
       <c r="E113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H113" t="s">
         <v>31</v>
@@ -6983,10 +7672,16 @@
       <c r="M113" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N113" t="s">
+        <v>493</v>
+      </c>
+      <c r="O113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B114" t="s">
         <v>42</v>
@@ -6998,7 +7693,7 @@
         <v>77</v>
       </c>
       <c r="E114" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
@@ -7024,10 +7719,16 @@
       <c r="M114" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N114" t="s">
+        <v>496</v>
+      </c>
+      <c r="O114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B115" t="s">
         <v>42</v>
@@ -7039,7 +7740,7 @@
         <v>45</v>
       </c>
       <c r="E115" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -7065,10 +7766,16 @@
       <c r="M115" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N115" t="s">
+        <v>493</v>
+      </c>
+      <c r="O115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B116" t="s">
         <v>42</v>
@@ -7080,7 +7787,7 @@
         <v>60</v>
       </c>
       <c r="E116" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
@@ -7106,13 +7813,19 @@
       <c r="M116" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N116" t="s">
+        <v>493</v>
+      </c>
+      <c r="O116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C117" t="s">
         <v>26</v>
@@ -7121,7 +7834,7 @@
         <v>33</v>
       </c>
       <c r="E117" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
@@ -7147,10 +7860,16 @@
       <c r="M117" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N117" t="s">
+        <v>494</v>
+      </c>
+      <c r="O117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B118" t="s">
         <v>34</v>
@@ -7162,7 +7881,7 @@
         <v>35</v>
       </c>
       <c r="E118" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -7188,22 +7907,28 @@
       <c r="M118" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N118" t="s">
+        <v>496</v>
+      </c>
+      <c r="O118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D119">
         <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
@@ -7229,10 +7954,16 @@
       <c r="M119" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N119" t="s">
+        <v>494</v>
+      </c>
+      <c r="O119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B120" t="s">
         <v>14</v>
@@ -7244,7 +7975,7 @@
         <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
@@ -7270,10 +8001,16 @@
       <c r="M120" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N120" t="s">
+        <v>494</v>
+      </c>
+      <c r="O120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
         <v>42</v>
@@ -7285,7 +8022,7 @@
         <v>38</v>
       </c>
       <c r="E121" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
@@ -7311,10 +8048,16 @@
       <c r="M121" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N121" t="s">
+        <v>494</v>
+      </c>
+      <c r="O121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B122" t="s">
         <v>42</v>
@@ -7326,7 +8069,7 @@
         <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -7352,13 +8095,19 @@
       <c r="M122" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N122" t="s">
+        <v>493</v>
+      </c>
+      <c r="O122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C123" t="s">
         <v>26</v>
@@ -7367,7 +8116,7 @@
         <v>22</v>
       </c>
       <c r="E123" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
@@ -7393,10 +8142,16 @@
       <c r="M123" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N123" t="s">
+        <v>496</v>
+      </c>
+      <c r="O123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B124" t="s">
         <v>46</v>
@@ -7408,7 +8163,7 @@
         <v>40</v>
       </c>
       <c r="E124" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
@@ -7434,10 +8189,16 @@
       <c r="M124" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N124" t="s">
+        <v>493</v>
+      </c>
+      <c r="O124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B125" t="s">
         <v>34</v>
@@ -7449,7 +8210,7 @@
         <v>80</v>
       </c>
       <c r="E125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
@@ -7475,10 +8236,16 @@
       <c r="M125" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N125" t="s">
+        <v>496</v>
+      </c>
+      <c r="O125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B126" t="s">
         <v>25</v>
@@ -7490,7 +8257,7 @@
         <v>30</v>
       </c>
       <c r="E126" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
@@ -7516,10 +8283,16 @@
       <c r="M126" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N126" t="s">
+        <v>496</v>
+      </c>
+      <c r="O126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B127" t="s">
         <v>38</v>
@@ -7531,7 +8304,7 @@
         <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
@@ -7557,10 +8330,16 @@
       <c r="M127" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N127" t="s">
+        <v>494</v>
+      </c>
+      <c r="O127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B128" t="s">
         <v>25</v>
@@ -7572,7 +8351,7 @@
         <v>32</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
@@ -7598,10 +8377,16 @@
       <c r="M128" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N128" t="s">
+        <v>493</v>
+      </c>
+      <c r="O128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B129" t="s">
         <v>38</v>
@@ -7613,7 +8398,7 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
@@ -7639,10 +8424,16 @@
       <c r="M129" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N129" t="s">
+        <v>494</v>
+      </c>
+      <c r="O129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B130" t="s">
         <v>25</v>
@@ -7654,7 +8445,7 @@
         <v>25</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
@@ -7680,22 +8471,28 @@
       <c r="M130" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N130" t="s">
+        <v>494</v>
+      </c>
+      <c r="O130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B131" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C131" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D131">
         <v>55</v>
       </c>
       <c r="E131" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
@@ -7721,10 +8518,16 @@
       <c r="M131" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N131" t="s">
+        <v>493</v>
+      </c>
+      <c r="O131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B132" t="s">
         <v>14</v>
@@ -7736,7 +8539,7 @@
         <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
@@ -7762,10 +8565,16 @@
       <c r="M132" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N132" t="s">
+        <v>494</v>
+      </c>
+      <c r="O132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B133" t="s">
         <v>25</v>
@@ -7777,7 +8586,7 @@
         <v>33</v>
       </c>
       <c r="E133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
@@ -7803,10 +8612,16 @@
       <c r="M133" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N133" t="s">
+        <v>493</v>
+      </c>
+      <c r="O133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B134" t="s">
         <v>38</v>
@@ -7818,7 +8633,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
@@ -7844,10 +8659,16 @@
       <c r="M134" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N134" t="s">
+        <v>494</v>
+      </c>
+      <c r="O134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B135" t="s">
         <v>14</v>
@@ -7859,7 +8680,7 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
@@ -7885,10 +8706,16 @@
       <c r="M135" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N135" t="s">
+        <v>494</v>
+      </c>
+      <c r="O135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B136" t="s">
         <v>25</v>
@@ -7900,7 +8727,7 @@
         <v>20</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F136" t="s">
         <v>19</v>
@@ -7926,10 +8753,16 @@
       <c r="M136" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N136" t="s">
+        <v>493</v>
+      </c>
+      <c r="O136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B137" t="s">
         <v>53</v>
@@ -7941,7 +8774,7 @@
         <v>18</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F137" t="s">
         <v>19</v>
@@ -7967,10 +8800,16 @@
       <c r="M137" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N137" t="s">
+        <v>493</v>
+      </c>
+      <c r="O137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B138" t="s">
         <v>34</v>
@@ -7982,7 +8821,7 @@
         <v>20</v>
       </c>
       <c r="E138" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
@@ -8008,10 +8847,16 @@
       <c r="M138" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N138" t="s">
+        <v>496</v>
+      </c>
+      <c r="O138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B139" t="s">
         <v>25</v>
@@ -8023,7 +8868,7 @@
         <v>22</v>
       </c>
       <c r="E139" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
         <v>19</v>
@@ -8049,10 +8894,16 @@
       <c r="M139" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N139" t="s">
+        <v>493</v>
+      </c>
+      <c r="O139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B140" t="s">
         <v>53</v>
@@ -8064,7 +8915,7 @@
         <v>18</v>
       </c>
       <c r="E140" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
         <v>19</v>
@@ -8090,10 +8941,16 @@
       <c r="M140" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N140" t="s">
+        <v>493</v>
+      </c>
+      <c r="O140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B141" t="s">
         <v>38</v>
@@ -8105,7 +8962,7 @@
         <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F141" t="s">
         <v>19</v>
@@ -8131,10 +8988,16 @@
       <c r="M141" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N141" t="s">
+        <v>494</v>
+      </c>
+      <c r="O141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B142" t="s">
         <v>25</v>
@@ -8146,7 +9009,7 @@
         <v>20</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
         <v>19</v>
@@ -8172,10 +9035,16 @@
       <c r="M142" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N142" t="s">
+        <v>493</v>
+      </c>
+      <c r="O142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B143" t="s">
         <v>34</v>
@@ -8187,7 +9056,7 @@
         <v>25</v>
       </c>
       <c r="E143" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G143" t="s">
         <v>36</v>
@@ -8210,10 +9079,16 @@
       <c r="M143" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N143" t="s">
+        <v>496</v>
+      </c>
+      <c r="O143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B144" t="s">
         <v>42</v>
@@ -8225,7 +9100,7 @@
         <v>59</v>
       </c>
       <c r="E144" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
@@ -8251,10 +9126,16 @@
       <c r="M144" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N144" t="s">
+        <v>493</v>
+      </c>
+      <c r="O144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B145" t="s">
         <v>42</v>
@@ -8266,7 +9147,7 @@
         <v>49</v>
       </c>
       <c r="E145" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
         <v>19</v>
@@ -8292,10 +9173,16 @@
       <c r="M145" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N145" t="s">
+        <v>493</v>
+      </c>
+      <c r="O145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B146" t="s">
         <v>38</v>
@@ -8307,7 +9194,7 @@
         <v>8</v>
       </c>
       <c r="E146" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
@@ -8333,10 +9220,16 @@
       <c r="M146" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N146" t="s">
+        <v>494</v>
+      </c>
+      <c r="O146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B147" t="s">
         <v>46</v>
@@ -8348,7 +9241,7 @@
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
@@ -8374,10 +9267,16 @@
       <c r="M147" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N147" t="s">
+        <v>494</v>
+      </c>
+      <c r="O147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B148" t="s">
         <v>42</v>
@@ -8389,7 +9288,7 @@
         <v>64</v>
       </c>
       <c r="E148" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
         <v>19</v>
@@ -8415,10 +9314,16 @@
       <c r="M148" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N148" t="s">
+        <v>493</v>
+      </c>
+      <c r="O148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B149" t="s">
         <v>53</v>
@@ -8430,7 +9335,7 @@
         <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
@@ -8456,10 +9361,16 @@
       <c r="M149" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N149" t="s">
+        <v>494</v>
+      </c>
+      <c r="O149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B150" t="s">
         <v>53</v>
@@ -8471,7 +9382,7 @@
         <v>6</v>
       </c>
       <c r="E150" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
@@ -8497,10 +9408,16 @@
       <c r="M150" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N150" t="s">
+        <v>494</v>
+      </c>
+      <c r="O150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B151" t="s">
         <v>14</v>
@@ -8512,7 +9429,7 @@
         <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
@@ -8538,10 +9455,16 @@
       <c r="M151" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N151" t="s">
+        <v>494</v>
+      </c>
+      <c r="O151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B152" t="s">
         <v>38</v>
@@ -8553,7 +9476,7 @@
         <v>6</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
@@ -8579,10 +9502,16 @@
       <c r="M152" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N152" t="s">
+        <v>496</v>
+      </c>
+      <c r="O152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B153" t="s">
         <v>42</v>
@@ -8594,7 +9523,7 @@
         <v>38</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
@@ -8620,10 +9549,16 @@
       <c r="M153" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N153" t="s">
+        <v>493</v>
+      </c>
+      <c r="O153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B154" t="s">
         <v>46</v>
@@ -8635,7 +9570,7 @@
         <v>23</v>
       </c>
       <c r="E154" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F154" t="s">
         <v>16</v>
@@ -8661,10 +9596,16 @@
       <c r="M154" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N154" t="s">
+        <v>496</v>
+      </c>
+      <c r="O154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B155" t="s">
         <v>14</v>
@@ -8676,7 +9617,7 @@
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
         <v>16</v>
@@ -8702,22 +9643,28 @@
       <c r="M155" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N155" t="s">
+        <v>494</v>
+      </c>
+      <c r="O155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B156" t="s">
         <v>42</v>
       </c>
       <c r="C156" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D156">
         <v>20</v>
       </c>
       <c r="E156" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
@@ -8743,10 +9690,16 @@
       <c r="M156" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N156" t="s">
+        <v>494</v>
+      </c>
+      <c r="O156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B157" t="s">
         <v>34</v>
@@ -8758,7 +9711,7 @@
         <v>25</v>
       </c>
       <c r="E157" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
@@ -8784,10 +9737,16 @@
       <c r="M157" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N157" t="s">
+        <v>496</v>
+      </c>
+      <c r="O157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B158" t="s">
         <v>25</v>
@@ -8799,7 +9758,7 @@
         <v>20</v>
       </c>
       <c r="E158" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
         <v>16</v>
@@ -8825,10 +9784,16 @@
       <c r="M158" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N158" t="s">
+        <v>493</v>
+      </c>
+      <c r="O158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B159" t="s">
         <v>42</v>
@@ -8840,7 +9805,7 @@
         <v>60</v>
       </c>
       <c r="E159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
         <v>19</v>
@@ -8866,10 +9831,16 @@
       <c r="M159" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N159" t="s">
+        <v>494</v>
+      </c>
+      <c r="O159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B160" t="s">
         <v>42</v>
@@ -8881,7 +9852,7 @@
         <v>65</v>
       </c>
       <c r="E160" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
         <v>19</v>
@@ -8907,10 +9878,16 @@
       <c r="M160" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N160" t="s">
+        <v>493</v>
+      </c>
+      <c r="O160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B161" t="s">
         <v>38</v>
@@ -8922,7 +9899,7 @@
         <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F161" t="s">
         <v>16</v>
@@ -8948,10 +9925,16 @@
       <c r="M161" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N161" t="s">
+        <v>494</v>
+      </c>
+      <c r="O161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B162" t="s">
         <v>46</v>
@@ -8963,7 +9946,7 @@
         <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F162" t="s">
         <v>19</v>
@@ -8989,13 +9972,19 @@
       <c r="M162" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N162" t="s">
+        <v>493</v>
+      </c>
+      <c r="O162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B163" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C163" t="s">
         <v>49</v>
@@ -9004,7 +9993,7 @@
         <v>26</v>
       </c>
       <c r="E163" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F163" t="s">
         <v>19</v>
@@ -9030,10 +10019,16 @@
       <c r="M163" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N163" t="s">
+        <v>493</v>
+      </c>
+      <c r="O163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B164" t="s">
         <v>53</v>
@@ -9045,7 +10040,7 @@
         <v>8</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
         <v>19</v>
@@ -9071,10 +10066,16 @@
       <c r="M164" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N164" t="s">
+        <v>493</v>
+      </c>
+      <c r="O164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B165" t="s">
         <v>38</v>
@@ -9086,7 +10087,7 @@
         <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
         <v>16</v>
@@ -9112,22 +10113,28 @@
       <c r="M165" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N165" t="s">
+        <v>494</v>
+      </c>
+      <c r="O165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B166" t="s">
         <v>25</v>
       </c>
       <c r="C166" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D166">
         <v>20</v>
       </c>
       <c r="E166" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
         <v>19</v>
@@ -9153,10 +10160,16 @@
       <c r="M166" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N166" t="s">
+        <v>494</v>
+      </c>
+      <c r="O166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B167" t="s">
         <v>46</v>
@@ -9168,7 +10181,7 @@
         <v>39</v>
       </c>
       <c r="E167" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
         <v>19</v>
@@ -9194,22 +10207,28 @@
       <c r="M167" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N167" t="s">
+        <v>493</v>
+      </c>
+      <c r="O167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B168" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C168" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D168">
         <v>41</v>
       </c>
       <c r="E168" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F168" t="s">
         <v>16</v>
@@ -9235,10 +10254,16 @@
       <c r="M168" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N168" t="s">
+        <v>493</v>
+      </c>
+      <c r="O168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B169" t="s">
         <v>14</v>
@@ -9250,7 +10275,7 @@
         <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
         <v>16</v>
@@ -9276,10 +10301,16 @@
       <c r="M169" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N169" t="s">
+        <v>494</v>
+      </c>
+      <c r="O169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B170" t="s">
         <v>38</v>
@@ -9291,7 +10322,7 @@
         <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
         <v>16</v>
@@ -9317,10 +10348,16 @@
       <c r="M170" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N170" t="s">
+        <v>494</v>
+      </c>
+      <c r="O170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B171" t="s">
         <v>14</v>
@@ -9332,7 +10369,7 @@
         <v>4</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
         <v>16</v>
@@ -9358,13 +10395,19 @@
       <c r="M171" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N171" t="s">
+        <v>493</v>
+      </c>
+      <c r="O171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B172" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C172" t="s">
         <v>26</v>
@@ -9373,7 +10416,7 @@
         <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
         <v>19</v>
@@ -9399,22 +10442,28 @@
       <c r="M172" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N172" t="s">
+        <v>494</v>
+      </c>
+      <c r="O172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>331</v>
+      </c>
+      <c r="B173" t="s">
+        <v>75</v>
+      </c>
+      <c r="C173" t="s">
+        <v>78</v>
+      </c>
+      <c r="D173">
+        <v>16</v>
+      </c>
+      <c r="E173" t="s">
         <v>332</v>
-      </c>
-      <c r="B173" t="s">
-        <v>76</v>
-      </c>
-      <c r="C173" t="s">
-        <v>79</v>
-      </c>
-      <c r="D173">
-        <v>16</v>
-      </c>
-      <c r="E173" t="s">
-        <v>333</v>
       </c>
       <c r="F173" t="s">
         <v>16</v>
@@ -9440,13 +10489,19 @@
       <c r="M173" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N173" t="s">
+        <v>494</v>
+      </c>
+      <c r="O173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B174" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C174" t="s">
         <v>26</v>
@@ -9455,7 +10510,7 @@
         <v>23</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
         <v>16</v>
@@ -9481,10 +10536,16 @@
       <c r="M174" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N174" t="s">
+        <v>494</v>
+      </c>
+      <c r="O174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B175" t="s">
         <v>38</v>
@@ -9496,7 +10557,7 @@
         <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F175" t="s">
         <v>16</v>
@@ -9522,22 +10583,28 @@
       <c r="M175" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N175" t="s">
+        <v>494</v>
+      </c>
+      <c r="O175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B176" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C176" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D176">
         <v>26</v>
       </c>
       <c r="E176" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F176" t="s">
         <v>16</v>
@@ -9563,13 +10630,19 @@
       <c r="M176" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N176" t="s">
+        <v>494</v>
+      </c>
+      <c r="O176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B177" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C177" t="s">
         <v>26</v>
@@ -9578,7 +10651,7 @@
         <v>5</v>
       </c>
       <c r="E177" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F177" t="s">
         <v>16</v>
@@ -9604,10 +10677,16 @@
       <c r="M177" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N177" t="s">
+        <v>494</v>
+      </c>
+      <c r="O177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B178" t="s">
         <v>46</v>
@@ -9619,7 +10698,7 @@
         <v>19</v>
       </c>
       <c r="E178" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F178" t="s">
         <v>19</v>
@@ -9645,10 +10724,16 @@
       <c r="M178" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N178" t="s">
+        <v>494</v>
+      </c>
+      <c r="O178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B179" t="s">
         <v>14</v>
@@ -9660,7 +10745,7 @@
         <v>2</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F179" t="s">
         <v>16</v>
@@ -9686,10 +10771,16 @@
       <c r="M179" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N179" t="s">
+        <v>493</v>
+      </c>
+      <c r="O179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B180" t="s">
         <v>53</v>
@@ -9701,7 +10792,7 @@
         <v>26</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F180" t="s">
         <v>19</v>
@@ -9727,10 +10818,16 @@
       <c r="M180" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N180" t="s">
+        <v>494</v>
+      </c>
+      <c r="O180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B181" t="s">
         <v>42</v>
@@ -9742,7 +10839,7 @@
         <v>22</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F181" t="s">
         <v>19</v>
@@ -9768,10 +10865,16 @@
       <c r="M181" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N181" t="s">
+        <v>493</v>
+      </c>
+      <c r="O181" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B182" t="s">
         <v>42</v>
@@ -9783,7 +10886,7 @@
         <v>40</v>
       </c>
       <c r="E182" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F182" t="s">
         <v>19</v>
@@ -9809,10 +10912,16 @@
       <c r="M182" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N182" t="s">
+        <v>494</v>
+      </c>
+      <c r="O182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B183" t="s">
         <v>14</v>
@@ -9824,7 +10933,7 @@
         <v>8</v>
       </c>
       <c r="E183" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
         <v>16</v>
@@ -9850,10 +10959,16 @@
       <c r="M183" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N183" t="s">
+        <v>494</v>
+      </c>
+      <c r="O183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B184" t="s">
         <v>46</v>
@@ -9865,7 +10980,7 @@
         <v>14</v>
       </c>
       <c r="E184" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
         <v>19</v>
@@ -9891,10 +11006,16 @@
       <c r="M184" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N184" t="s">
+        <v>494</v>
+      </c>
+      <c r="O184" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B185" t="s">
         <v>46</v>
@@ -9906,7 +11027,7 @@
         <v>13</v>
       </c>
       <c r="E185" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
         <v>16</v>
@@ -9932,10 +11053,16 @@
       <c r="M185" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N185" t="s">
+        <v>494</v>
+      </c>
+      <c r="O185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B186" t="s">
         <v>34</v>
@@ -9947,7 +11074,7 @@
         <v>30</v>
       </c>
       <c r="E186" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F186" t="s">
         <v>19</v>
@@ -9973,10 +11100,16 @@
       <c r="M186" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N186" t="s">
+        <v>496</v>
+      </c>
+      <c r="O186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B187" t="s">
         <v>34</v>
@@ -9988,7 +11121,7 @@
         <v>22</v>
       </c>
       <c r="E187" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F187" t="s">
         <v>19</v>
@@ -10014,10 +11147,16 @@
       <c r="M187" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N187" t="s">
+        <v>496</v>
+      </c>
+      <c r="O187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B188" t="s">
         <v>38</v>
@@ -10029,7 +11168,7 @@
         <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
         <v>16</v>
@@ -10055,22 +11194,28 @@
       <c r="M188" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N188" t="s">
+        <v>494</v>
+      </c>
+      <c r="O188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>358</v>
+      </c>
+      <c r="B189" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" t="s">
+        <v>78</v>
+      </c>
+      <c r="D189">
+        <v>28</v>
+      </c>
+      <c r="E189" t="s">
         <v>359</v>
-      </c>
-      <c r="B189" t="s">
-        <v>76</v>
-      </c>
-      <c r="C189" t="s">
-        <v>79</v>
-      </c>
-      <c r="D189">
-        <v>28</v>
-      </c>
-      <c r="E189" t="s">
-        <v>360</v>
       </c>
       <c r="F189" t="s">
         <v>16</v>
@@ -10096,13 +11241,19 @@
       <c r="M189" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N189" t="s">
+        <v>494</v>
+      </c>
+      <c r="O189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B190" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C190" t="s">
         <v>26</v>
@@ -10111,7 +11262,7 @@
         <v>39</v>
       </c>
       <c r="E190" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F190" t="s">
         <v>16</v>
@@ -10137,10 +11288,16 @@
       <c r="M190" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N190" t="s">
+        <v>494</v>
+      </c>
+      <c r="O190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B191" t="s">
         <v>42</v>
@@ -10152,7 +11309,7 @@
         <v>51</v>
       </c>
       <c r="E191" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F191" t="s">
         <v>19</v>
@@ -10178,10 +11335,16 @@
       <c r="M191" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N191" t="s">
+        <v>494</v>
+      </c>
+      <c r="O191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B192" t="s">
         <v>42</v>
@@ -10193,7 +11356,7 @@
         <v>66</v>
       </c>
       <c r="E192" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
         <v>16</v>
@@ -10219,13 +11382,19 @@
       <c r="M192" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N192" t="s">
+        <v>493</v>
+      </c>
+      <c r="O192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B193" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C193" t="s">
         <v>26</v>
@@ -10234,7 +11403,7 @@
         <v>21</v>
       </c>
       <c r="E193" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
         <v>16</v>
@@ -10260,10 +11429,16 @@
       <c r="M193" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N193" t="s">
+        <v>494</v>
+      </c>
+      <c r="O193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B194" t="s">
         <v>42</v>
@@ -10275,7 +11450,7 @@
         <v>26</v>
       </c>
       <c r="E194" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
         <v>19</v>
@@ -10301,10 +11476,16 @@
       <c r="M194" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N194" t="s">
+        <v>493</v>
+      </c>
+      <c r="O194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B195" t="s">
         <v>42</v>
@@ -10316,7 +11497,7 @@
         <v>33</v>
       </c>
       <c r="E195" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F195" t="s">
         <v>19</v>
@@ -10342,10 +11523,16 @@
       <c r="M195" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N195" t="s">
+        <v>493</v>
+      </c>
+      <c r="O195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B196" t="s">
         <v>53</v>
@@ -10357,7 +11544,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
         <v>16</v>
@@ -10383,10 +11570,16 @@
       <c r="M196" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N196" t="s">
+        <v>494</v>
+      </c>
+      <c r="O196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B197" t="s">
         <v>38</v>
@@ -10398,7 +11591,7 @@
         <v>8</v>
       </c>
       <c r="E197" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F197" t="s">
         <v>16</v>
@@ -10424,10 +11617,16 @@
       <c r="M197" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N197" t="s">
+        <v>494</v>
+      </c>
+      <c r="O197" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B198" t="s">
         <v>42</v>
@@ -10439,7 +11638,7 @@
         <v>17</v>
       </c>
       <c r="E198" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F198" t="s">
         <v>19</v>
@@ -10465,13 +11664,19 @@
       <c r="M198" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N198" t="s">
+        <v>494</v>
+      </c>
+      <c r="O198" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B199" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C199" t="s">
         <v>26</v>
@@ -10480,7 +11685,7 @@
         <v>42</v>
       </c>
       <c r="E199" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
         <v>16</v>
@@ -10506,10 +11711,16 @@
       <c r="M199" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N199" t="s">
+        <v>494</v>
+      </c>
+      <c r="O199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B200" t="s">
         <v>38</v>
@@ -10521,7 +11732,7 @@
         <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F200" t="s">
         <v>16</v>
@@ -10547,10 +11758,16 @@
       <c r="M200" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N200" t="s">
+        <v>494</v>
+      </c>
+      <c r="O200" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B201" t="s">
         <v>38</v>
@@ -10562,7 +11779,7 @@
         <v>9</v>
       </c>
       <c r="E201" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F201" t="s">
         <v>16</v>
@@ -10588,10 +11805,16 @@
       <c r="M201" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N201" t="s">
+        <v>494</v>
+      </c>
+      <c r="O201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B202" t="s">
         <v>53</v>
@@ -10603,7 +11826,7 @@
         <v>22</v>
       </c>
       <c r="E202" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F202" t="s">
         <v>16</v>
@@ -10629,10 +11852,16 @@
       <c r="M202" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N202" t="s">
+        <v>494</v>
+      </c>
+      <c r="O202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B203" t="s">
         <v>46</v>
@@ -10644,7 +11873,7 @@
         <v>9</v>
       </c>
       <c r="E203" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F203" t="s">
         <v>19</v>
@@ -10670,10 +11899,16 @@
       <c r="M203" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N203" t="s">
+        <v>493</v>
+      </c>
+      <c r="O203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B204" t="s">
         <v>53</v>
@@ -10685,7 +11920,7 @@
         <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F204" t="s">
         <v>19</v>
@@ -10711,10 +11946,16 @@
       <c r="M204" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N204" t="s">
+        <v>493</v>
+      </c>
+      <c r="O204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B205" t="s">
         <v>14</v>
@@ -10726,7 +11967,7 @@
         <v>6</v>
       </c>
       <c r="E205" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F205" t="s">
         <v>16</v>
@@ -10752,10 +11993,16 @@
       <c r="M205" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N205" t="s">
+        <v>494</v>
+      </c>
+      <c r="O205" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B206" t="s">
         <v>14</v>
@@ -10767,7 +12014,7 @@
         <v>5</v>
       </c>
       <c r="E206" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F206" t="s">
         <v>16</v>
@@ -10793,10 +12040,16 @@
       <c r="M206" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N206" t="s">
+        <v>494</v>
+      </c>
+      <c r="O206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B207" t="s">
         <v>38</v>
@@ -10808,7 +12061,7 @@
         <v>17</v>
       </c>
       <c r="E207" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F207" t="s">
         <v>19</v>
@@ -10834,13 +12087,19 @@
       <c r="M207" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N207" t="s">
+        <v>494</v>
+      </c>
+      <c r="O207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B208" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C208" t="s">
         <v>26</v>
@@ -10849,7 +12108,7 @@
         <v>28</v>
       </c>
       <c r="E208" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F208" t="s">
         <v>19</v>
@@ -10875,10 +12134,16 @@
       <c r="M208" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N208" t="s">
+        <v>496</v>
+      </c>
+      <c r="O208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B209" t="s">
         <v>46</v>
@@ -10890,7 +12155,7 @@
         <v>49</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F209" t="s">
         <v>19</v>
@@ -10916,10 +12181,16 @@
       <c r="M209" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N209" t="s">
+        <v>493</v>
+      </c>
+      <c r="O209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B210" t="s">
         <v>38</v>
@@ -10931,7 +12202,7 @@
         <v>14</v>
       </c>
       <c r="E210" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F210" t="s">
         <v>16</v>
@@ -10957,10 +12228,16 @@
       <c r="M210" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N210" t="s">
+        <v>494</v>
+      </c>
+      <c r="O210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B211" t="s">
         <v>25</v>
@@ -10972,7 +12249,7 @@
         <v>19</v>
       </c>
       <c r="E211" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F211" t="s">
         <v>16</v>
@@ -10998,10 +12275,16 @@
       <c r="M211" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N211" t="s">
+        <v>494</v>
+      </c>
+      <c r="O211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B212" t="s">
         <v>46</v>
@@ -11013,7 +12296,7 @@
         <v>13</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F212" t="s">
         <v>19</v>
@@ -11039,10 +12322,16 @@
       <c r="M212" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N212" t="s">
+        <v>493</v>
+      </c>
+      <c r="O212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B213" t="s">
         <v>42</v>
@@ -11054,7 +12343,7 @@
         <v>71</v>
       </c>
       <c r="E213" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F213" t="s">
         <v>19</v>
@@ -11080,10 +12369,16 @@
       <c r="M213" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N213" t="s">
+        <v>493</v>
+      </c>
+      <c r="O213" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B214" t="s">
         <v>53</v>
@@ -11095,7 +12390,7 @@
         <v>6</v>
       </c>
       <c r="E214" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F214" t="s">
         <v>19</v>
@@ -11121,10 +12416,16 @@
       <c r="M214" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N214" t="s">
+        <v>494</v>
+      </c>
+      <c r="O214" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B215" t="s">
         <v>53</v>
@@ -11136,7 +12437,7 @@
         <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F215" t="s">
         <v>16</v>
@@ -11162,10 +12463,16 @@
       <c r="M215" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N215" t="s">
+        <v>493</v>
+      </c>
+      <c r="O215" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B216" t="s">
         <v>42</v>
@@ -11177,7 +12484,7 @@
         <v>65</v>
       </c>
       <c r="E216" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F216" t="s">
         <v>19</v>
@@ -11203,10 +12510,16 @@
       <c r="M216" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N216" t="s">
+        <v>494</v>
+      </c>
+      <c r="O216" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B217" t="s">
         <v>14</v>
@@ -11218,7 +12531,7 @@
         <v>2</v>
       </c>
       <c r="E217" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F217" t="s">
         <v>16</v>
@@ -11244,22 +12557,28 @@
       <c r="M217" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N217" t="s">
+        <v>494</v>
+      </c>
+      <c r="O217" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
+        <v>409</v>
+      </c>
+      <c r="B218" t="s">
+        <v>75</v>
+      </c>
+      <c r="C218" t="s">
+        <v>78</v>
+      </c>
+      <c r="D218">
+        <v>28</v>
+      </c>
+      <c r="E218" t="s">
         <v>410</v>
-      </c>
-      <c r="B218" t="s">
-        <v>76</v>
-      </c>
-      <c r="C218" t="s">
-        <v>79</v>
-      </c>
-      <c r="D218">
-        <v>28</v>
-      </c>
-      <c r="E218" t="s">
-        <v>411</v>
       </c>
       <c r="F218" t="s">
         <v>16</v>
@@ -11285,10 +12604,16 @@
       <c r="M218" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N218" t="s">
+        <v>494</v>
+      </c>
+      <c r="O218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B219" t="s">
         <v>34</v>
@@ -11300,7 +12625,7 @@
         <v>40</v>
       </c>
       <c r="E219" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F219" t="s">
         <v>19</v>
@@ -11326,10 +12651,16 @@
       <c r="M219" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N219" t="s">
+        <v>493</v>
+      </c>
+      <c r="O219" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B220" t="s">
         <v>25</v>
@@ -11341,7 +12672,7 @@
         <v>21</v>
       </c>
       <c r="E220" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F220" t="s">
         <v>16</v>
@@ -11367,10 +12698,16 @@
       <c r="M220" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N220" t="s">
+        <v>494</v>
+      </c>
+      <c r="O220" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B221" t="s">
         <v>25</v>
@@ -11382,7 +12719,7 @@
         <v>29</v>
       </c>
       <c r="E221" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F221" t="s">
         <v>16</v>
@@ -11408,10 +12745,16 @@
       <c r="M221" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N221" t="s">
+        <v>494</v>
+      </c>
+      <c r="O221" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B222" t="s">
         <v>25</v>
@@ -11423,7 +12766,7 @@
         <v>18</v>
       </c>
       <c r="E222" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F222" t="s">
         <v>19</v>
@@ -11449,10 +12792,16 @@
       <c r="M222" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N222" t="s">
+        <v>494</v>
+      </c>
+      <c r="O222" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
@@ -11464,7 +12813,7 @@
         <v>9</v>
       </c>
       <c r="E223" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F223" t="s">
         <v>16</v>
@@ -11490,10 +12839,16 @@
       <c r="M223" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N223" t="s">
+        <v>494</v>
+      </c>
+      <c r="O223" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B224" t="s">
         <v>38</v>
@@ -11505,7 +12860,7 @@
         <v>8</v>
       </c>
       <c r="E224" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F224" t="s">
         <v>16</v>
@@ -11531,10 +12886,16 @@
       <c r="M224" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N224" t="s">
+        <v>494</v>
+      </c>
+      <c r="O224" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B225" t="s">
         <v>38</v>
@@ -11546,7 +12907,7 @@
         <v>18</v>
       </c>
       <c r="E225" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
         <v>19</v>
@@ -11572,13 +12933,19 @@
       <c r="M225" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N225" t="s">
+        <v>494</v>
+      </c>
+      <c r="O225" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B226" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C226" t="s">
         <v>26</v>
@@ -11587,7 +12954,7 @@
         <v>16</v>
       </c>
       <c r="E226" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F226" t="s">
         <v>16</v>
@@ -11613,10 +12980,16 @@
       <c r="M226" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N226" t="s">
+        <v>494</v>
+      </c>
+      <c r="O226" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B227" t="s">
         <v>25</v>
@@ -11628,7 +13001,7 @@
         <v>25</v>
       </c>
       <c r="E227" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
         <v>19</v>
@@ -11654,10 +13027,16 @@
       <c r="M227" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N227" t="s">
+        <v>494</v>
+      </c>
+      <c r="O227" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B228" t="s">
         <v>53</v>
@@ -11669,7 +13048,7 @@
         <v>11</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F228" t="s">
         <v>16</v>
@@ -11695,10 +13074,16 @@
       <c r="M228" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N228" t="s">
+        <v>496</v>
+      </c>
+      <c r="O228" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B229" t="s">
         <v>14</v>
@@ -11710,7 +13095,7 @@
         <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F229" t="s">
         <v>16</v>
@@ -11735,6 +13120,12 @@
       </c>
       <c r="M229" t="s">
         <v>28</v>
+      </c>
+      <c r="N229" t="s">
+        <v>496</v>
+      </c>
+      <c r="O229" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/dogbreeddata.xlsx
+++ b/data/dogbreeddata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AksV\Desktop\Coding\git_lessons\PawPal\pawpal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A684F69D-37DF-447B-BD07-49C1816F05FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3258535D-205C-46A0-82B8-D1A8B1748CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7071" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="559">
   <si>
     <t>BreedName</t>
   </si>
@@ -2539,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
